--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CB10F4A09BCEF627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="508" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29220E49-9F1A-41D2-8C1F-6075D3631C70}"/>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -430,10 +430,7 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
@@ -453,7 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -621,10 +617,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -1186,26 +1178,26 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="1">
         <f>B7/((1+DCF!$M$4)^(DCF!B1-2024))</f>
         <v>597.42532273809161</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="1">
         <f>C7/((1+DCF!$M$4)^(DCF!C1-2024))</f>
         <v>619.17922302818999</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="1">
         <f>D7/((1+DCF!$M$4)^(DCF!D1-2024))</f>
         <v>641.21267480518929</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="1">
         <f>E7/((1+DCF!$M$4)^(DCF!E1-2024))</f>
         <v>663.55142245628178</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="1">
         <f>F7/((1+DCF!$M$4)^(DCF!F1-2024))</f>
         <v>686.22152382874856</v>
       </c>
@@ -1221,7 +1213,7 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="5">
         <f>(F7*(1+DCF!M12))/(DCF!M4-DCF!M12)</f>
         <v>41820.48067408472</v>
       </c>
@@ -1234,7 +1226,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="5"/>
       <c r="L10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1251,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="5"/>
       <c r="L12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1268,216 +1260,216 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <f>'[1]Balance Sheet'!$F$22</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <f>'[1]Balance Sheet'!$F$28</f>
         <v>3123</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <f>'[1]Balance Sheet'!$F$23</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <f>'[1]Balance Sheet'!$F$24</f>
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <f>'[1]Balance Sheet'!$F$30</f>
         <v>79</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="27">
         <f>B11</f>
         <v>45028.070840941218</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <f>F18-0.005</f>
         <v>3.0402449812245599E-2</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="26">
         <f>G18-0.005</f>
         <v>3.54024498122456E-2</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="26">
         <v>4.0402449812245597E-2</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="26">
         <f>G18+0.005</f>
         <v>4.5402449812245595E-2</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="26">
         <f>H18+0.005</f>
         <v>5.0402449812245592E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <f>'[1]Balance Sheet'!$F$29</f>
         <v>135</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="26">
         <f>D20-0.005</f>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <f t="dataTable" ref="E19:I23" dt2D="1" dtr="1" r1="M4" r2="M12"/>
         <v>44714.87887646442</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="14">
         <v>36515.03771063553</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="14">
         <v>30997.29667818232</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="14">
         <v>27025.687750910147</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="16">
         <v>24026.554601017127</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <f>'[1]Balance Sheet'!$F$31</f>
         <v>31</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="26">
         <f>D21-0.005</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <v>58429.251113841812</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="23">
         <v>44870.92241635255</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="25">
         <v>36631.835232504032</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="18">
         <v>31088.088732384917</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="16">
         <v>27098.09252367913</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="1">
         <f>'[1]Balance Sheet'!$F$32</f>
         <v>190</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="26">
         <v>0.02</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>85327.414174447258</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="24">
         <v>58651.843273834042</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="13">
         <v>45028.070840941218</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="19">
         <v>36749.705935720485</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="16">
         <v>31179.92334761412</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="1">
         <f>'[1]Balance Sheet'!$F$3</f>
         <v>619</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="26">
         <f>D21+0.005</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <v>162014.40266687077</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="21">
         <v>85680.52894269563</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="22">
         <v>58875.540318526801</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="20">
         <v>45186.292446877815</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <v>36868.619199963519</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="1">
         <f>'[1]Balance Sheet'!$F$12</f>
         <v>16</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="26">
         <f>D22+0.005</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <v>2144205.7834839965</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="15">
         <v>162739.6389712549</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="15">
         <v>86034.748595644589</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="15">
         <v>59100.310544567517</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="17">
         <v>45345.556613841014</v>
       </c>
     </row>
@@ -1489,7 +1481,7 @@
         <f>SUM(B14:B21)+(-1*SUM(B22:B23))</f>
         <v>2986</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="29" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -1504,14 +1496,14 @@
         <f>B11-B24</f>
         <v>42042.070840941218</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F25">
         <f>IF(G24="Bull",F22,IF(G24="Bear",H20,IF(G24="Central",G21,"Error")))</f>
         <v>45028.070840941218</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="29" t="s">
         <v>41</v>
       </c>
       <c r="I25">
@@ -1522,10 +1514,10 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="28">
         <f>I25/B35</f>
         <v>47.993231553585865</v>
       </c>
@@ -1538,10 +1530,10 @@
         <f>B25/B35</f>
         <v>47.993231553585865</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="28">
         <f>G26-B28</f>
         <v>12.013231553585868</v>
       </c>

--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CB10F4A09BCEF627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29220E49-9F1A-41D2-8C1F-6075D3631C70}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F65AC8B-90A5-47E3-A127-32E6975F8F1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>FY</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Net Operating Profit After Tax</t>
   </si>
   <si>
-    <t>Terminal Value</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -183,6 +180,21 @@
   </si>
   <si>
     <t>Upside:</t>
+  </si>
+  <si>
+    <t>Present Value of Terminal Value</t>
+  </si>
+  <si>
+    <t>Perpetuity</t>
+  </si>
+  <si>
+    <t>Multiple Method</t>
+  </si>
+  <si>
+    <t>Perpetuity Approach</t>
+  </si>
+  <si>
+    <t>EV/EBITDA Multiple</t>
   </si>
 </sst>
 </file>
@@ -193,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="0;\(0\);\-"/>
     <numFmt numFmtId="165" formatCode="[Color10]0.00%;[Red]\(0.00\)%;\-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +260,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +437,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -449,6 +469,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -507,7 +537,7 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="G25">
+          <cell r="H25">
             <v>876</v>
           </cell>
         </row>
@@ -526,6 +556,11 @@
           </cell>
           <cell r="K39">
             <v>606.29501506130021</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="F41">
+            <v>1375</v>
           </cell>
         </row>
       </sheetData>
@@ -617,6 +652,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,21 +975,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.109375" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -1009,7 +1048,7 @@
         <v>0.10567499999999999</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1037,13 +1076,13 @@
         <v>990.21176286012349</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="9">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1078,7 +1117,7 @@
         <v>4.0402449812245597E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1106,7 +1145,7 @@
         <v>-610.64026286698993</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="9">
         <f>0.056</f>
@@ -1138,7 +1177,7 @@
         <v>-149.35645811619816</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Balance Sheet'!$F$49</f>
@@ -1170,7 +1209,7 @@
         <v>836.51005693823561</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="9">
         <f>M3+(M10*M11)</f>
@@ -1179,7 +1218,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <f>B7/((1+DCF!$M$4)^(DCF!B1-2024))</f>
@@ -1202,33 +1241,35 @@
         <v>686.22152382874856</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="8">
+        <f>M9*'[1]Income Statement'!$H$25</f>
+        <v>31518.479999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="L9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="M8" s="8">
-        <f>M9*'[1]Income Statement'!$G$25</f>
-        <v>31518.479999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
-        <f>(F7*(1+DCF!M12))/(DCF!M4-DCF!M12)</f>
-        <v>41820.48067408472</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="M9" s="2">
         <v>35.979999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="2">
         <v>0.67</v>
@@ -1236,366 +1277,421 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5">
-        <f>SUM(B8:F8)+B9</f>
-        <v>45028.070840941218</v>
+        <f>((F7*(1+DCF!M12))/(DCF!M4-DCF!M12))/((1+M4)^5)</f>
+        <v>34306.956309002388</v>
+      </c>
+      <c r="D11" s="5">
+        <f>((F2+F4)*M13)/((1+M4)^5)</f>
+        <v>32221.28582646788</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUM(B8:F8)+B11</f>
+        <v>37514.546475858886</v>
+      </c>
+      <c r="D12" s="5">
+        <f>SUM(B8:F8)+D11</f>
+        <v>35428.875993324378</v>
+      </c>
       <c r="L12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="9">
         <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="32">
+        <f>M8/'[1]Income Statement'!$F$41</f>
+        <v>22.922530909090906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <f>'[1]Balance Sheet'!$F$22</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="G15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
         <f>'[1]Balance Sheet'!$F$28</f>
         <v>3123</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="G16" s="27">
+        <f>B12</f>
+        <v>37514.546475858886</v>
+      </c>
+      <c r="H16" s="26">
+        <f>I16-0.005</f>
+        <v>3.0402449812245599E-2</v>
+      </c>
+      <c r="I16" s="26">
+        <f>J16-0.005</f>
+        <v>3.54024498122456E-2</v>
+      </c>
+      <c r="J16" s="26">
+        <v>4.0402449812245597E-2</v>
+      </c>
+      <c r="K16" s="26">
+        <f>J16+0.005</f>
+        <v>4.5402449812245595E-2</v>
+      </c>
+      <c r="L16" s="26">
+        <f>K16+0.005</f>
+        <v>5.0402449812245592E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
         <f>'[1]Balance Sheet'!$F$23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="G17" s="26">
+        <f>G18-0.005</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="M4" r2="M12"/>
+        <v>38955.738924016259</v>
+      </c>
+      <c r="I17" s="14">
+        <v>31204.748093147573</v>
+      </c>
+      <c r="J17" s="14">
+        <v>26004.560257992824</v>
+      </c>
+      <c r="K17" s="14">
+        <v>22274.37262742137</v>
+      </c>
+      <c r="L17" s="16">
+        <v>19468.401621756842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
         <f>'[1]Balance Sheet'!$F$24</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="G18" s="26">
+        <f>G19-0.005</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="14">
+        <v>50762.792125788292</v>
+      </c>
+      <c r="I18" s="23">
+        <v>38226.516443891356</v>
+      </c>
+      <c r="J18" s="25">
+        <v>30626.789961925686</v>
+      </c>
+      <c r="K18" s="18">
+        <v>25527.980580474767</v>
+      </c>
+      <c r="L18" s="16">
+        <v>21870.42512103431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
         <f>'[1]Balance Sheet'!$F$30</f>
         <v>79</v>
       </c>
-      <c r="D18" s="27">
-        <f>B11</f>
-        <v>45028.070840941218</v>
-      </c>
-      <c r="E18" s="26">
-        <f>F18-0.005</f>
-        <v>3.0402449812245599E-2</v>
-      </c>
-      <c r="F18" s="26">
-        <f>G18-0.005</f>
-        <v>3.54024498122456E-2</v>
-      </c>
-      <c r="G18" s="26">
-        <v>4.0402449812245597E-2</v>
-      </c>
-      <c r="H18" s="26">
-        <f>G18+0.005</f>
-        <v>4.5402449812245595E-2</v>
-      </c>
-      <c r="I18" s="26">
-        <f>H18+0.005</f>
-        <v>5.0402449812245592E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="G19" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="14">
+        <v>73920.107443579327</v>
+      </c>
+      <c r="I19" s="24">
+        <v>49807.149414444641</v>
+      </c>
+      <c r="J19" s="13">
+        <v>37514.546475858886</v>
+      </c>
+      <c r="K19" s="19">
+        <v>30062.413011915662</v>
+      </c>
+      <c r="L19" s="16">
+        <v>25062.524260305097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
         <f>'[1]Balance Sheet'!$F$29</f>
         <v>135</v>
       </c>
-      <c r="D19" s="26">
-        <f>D20-0.005</f>
-        <v>9.9999999999999985E-3</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="dataTable" ref="E19:I23" dt2D="1" dtr="1" r1="M4" r2="M12"/>
-        <v>44714.87887646442</v>
-      </c>
-      <c r="F19" s="14">
-        <v>36515.03771063553</v>
-      </c>
-      <c r="G19" s="14">
-        <v>30997.29667818232</v>
-      </c>
-      <c r="H19" s="14">
-        <v>27025.687750910147</v>
-      </c>
-      <c r="I19" s="16">
-        <v>24026.554601017127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="G20" s="26">
+        <f>G19+0.005</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>139941.89373766878</v>
+      </c>
+      <c r="I20" s="21">
+        <v>72520.384012088427</v>
+      </c>
+      <c r="J20" s="22">
+        <v>48874.160777283214</v>
+      </c>
+      <c r="K20" s="20">
+        <v>36819.339542432499</v>
+      </c>
+      <c r="L20" s="16">
+        <v>29511.234144942646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
         <f>'[1]Balance Sheet'!$F$31</f>
         <v>31</v>
       </c>
-      <c r="D20" s="26">
-        <f>D21-0.005</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E20" s="14">
-        <v>58429.251113841812</v>
-      </c>
-      <c r="F20" s="23">
-        <v>44870.92241635255</v>
-      </c>
-      <c r="G20" s="25">
-        <v>36631.835232504032</v>
-      </c>
-      <c r="H20" s="18">
-        <v>31088.088732384917</v>
-      </c>
-      <c r="I20" s="16">
-        <v>27098.09252367913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="G21" s="26">
+        <f>G20+0.005</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1846461.0609523756</v>
+      </c>
+      <c r="I21" s="15">
+        <v>137276.09079736884</v>
+      </c>
+      <c r="J21" s="15">
+        <v>71153.908803411527</v>
+      </c>
+      <c r="K21" s="15">
+        <v>47963.182838063418</v>
+      </c>
+      <c r="L21" s="17">
+        <v>36140.422318009769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
         <f>'[1]Balance Sheet'!$F$32</f>
         <v>190</v>
       </c>
-      <c r="D21" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="E21" s="14">
-        <v>85327.414174447258</v>
-      </c>
-      <c r="F21" s="24">
-        <v>58651.843273834042</v>
-      </c>
-      <c r="G21" s="13">
-        <v>45028.070840941218</v>
-      </c>
-      <c r="H21" s="19">
-        <v>36749.705935720485</v>
-      </c>
-      <c r="I21" s="16">
-        <v>31179.92334761412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="I22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
         <f>'[1]Balance Sheet'!$F$3</f>
         <v>619</v>
       </c>
-      <c r="D22" s="26">
-        <f>D21+0.005</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E22" s="14">
-        <v>162014.40266687077</v>
-      </c>
-      <c r="F22" s="21">
-        <v>85680.52894269563</v>
-      </c>
-      <c r="G22" s="22">
-        <v>58875.540318526801</v>
-      </c>
-      <c r="H22" s="20">
-        <v>45186.292446877815</v>
-      </c>
-      <c r="I22" s="16">
-        <v>36868.619199963519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="H23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23">
+        <f>IF(J22="Bull",I20,IF(J22="Bear",K18,IF(J22="Central",J19,"Error")))</f>
+        <v>37514.546475858886</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <f>I23-B25</f>
+        <v>34528.546475858886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
         <f>'[1]Balance Sheet'!$F$12</f>
         <v>16</v>
       </c>
-      <c r="D23" s="26">
-        <f>D22+0.005</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2144205.7834839965</v>
-      </c>
-      <c r="F23" s="15">
-        <v>162739.6389712549</v>
-      </c>
-      <c r="G23" s="15">
-        <v>86034.748595644589</v>
-      </c>
-      <c r="H23" s="15">
-        <v>59100.310544567517</v>
-      </c>
-      <c r="I23" s="17">
-        <v>45345.556613841014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <f>SUM(B14:B21)+(-1*SUM(B22:B23))</f>
+      <c r="I24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="28">
+        <f>L23/B36</f>
+        <v>39.416148945044391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B15:B22)+(-1*SUM(B23:B24))</f>
         <v>2986</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="I25" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="28">
+        <f>J24-B29</f>
+        <v>3.4361489450443941</v>
+      </c>
+      <c r="K25" s="11">
+        <f>J25/B29</f>
+        <v>9.5501638272495679E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B12-B25</f>
+        <v>34528.546475858886</v>
+      </c>
+      <c r="D26" s="5">
+        <f>D12-B25</f>
+        <v>32442.875993324378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5">
-        <f>B11-B24</f>
-        <v>42042.070840941218</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="B28" s="10">
+        <f>B26/B36</f>
+        <v>39.416148945044391</v>
+      </c>
+      <c r="D28" s="10">
+        <f>D26/B36</f>
+        <v>37.035246567721892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <f>DCF!$M$9</f>
+        <v>35.979999999999997</v>
+      </c>
+      <c r="D29">
+        <f>DCF!$M$9</f>
+        <v>35.979999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10">
+        <f>B28-B29</f>
+        <v>3.4361489450443941</v>
+      </c>
+      <c r="C30" s="11">
+        <f>B30/B29</f>
+        <v>9.5501638272495679E-2</v>
+      </c>
+      <c r="D30" s="10">
+        <f>D28-D29</f>
+        <v>1.0552465677218947</v>
+      </c>
+      <c r="E30" s="11">
+        <f>D30/D29</f>
+        <v>2.932869838026389E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="F25">
-        <f>IF(G24="Bull",F22,IF(G24="Bear",H20,IF(G24="Central",G21,"Error")))</f>
-        <v>45028.070840941218</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25">
-        <f>F25-B24</f>
-        <v>42042.070840941218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="F26" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="28">
-        <f>I25/B35</f>
-        <v>47.993231553585865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="10">
-        <f>B25/B35</f>
-        <v>47.993231553585865</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="28">
-        <f>G26-B28</f>
-        <v>12.013231553585868</v>
-      </c>
-      <c r="H27" s="11">
-        <f>G27/B28</f>
-        <v>0.33388636891567175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28">
-        <f>DCF!M9</f>
-        <v>35.979999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10">
-        <f>B27-B28</f>
-        <v>12.013231553585868</v>
-      </c>
-      <c r="C29" s="11">
-        <f>B29/B28</f>
-        <v>0.33388636891567175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33">
+      <c r="B34">
         <f>'[1]Income Statement'!$F$24</f>
         <v>873</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="3">
-        <f>B33+B34</f>
+      <c r="B36" s="3">
+        <f>B34+B35</f>
         <v>876</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24" xr:uid="{EAB0D90E-FD11-4473-987B-7DCF4EF16CCE}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22" xr:uid="{EAB0D90E-FD11-4473-987B-7DCF4EF16CCE}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C30:D30" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F65AC8B-90A5-47E3-A127-32E6975F8F1B}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA26B62B-7EC1-47A6-ADDB-35A2C4243610}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>FY</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>EV/EBITDA Multiple</t>
+  </si>
+  <si>
+    <t>EBITDA Multiple Approach</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -480,6 +483,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -652,10 +656,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L14" sqref="L14"/>
+      <selection pane="topRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,10 +988,10 @@
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -1609,6 +1609,14 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
+      <c r="G27" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -1622,6 +1630,29 @@
         <f>D26/B36</f>
         <v>37.035246567721892</v>
       </c>
+      <c r="G28" s="27">
+        <f>D12</f>
+        <v>35428.875993324378</v>
+      </c>
+      <c r="H28" s="26">
+        <f>I28-0.005</f>
+        <v>3.0402449812245599E-2</v>
+      </c>
+      <c r="I28" s="26">
+        <f>J28-0.005</f>
+        <v>3.54024498122456E-2</v>
+      </c>
+      <c r="J28" s="26">
+        <v>4.0402449812245597E-2</v>
+      </c>
+      <c r="K28" s="26">
+        <f>J28+0.005</f>
+        <v>4.5402449812245595E-2</v>
+      </c>
+      <c r="L28" s="26">
+        <f>K28+0.005</f>
+        <v>5.0402449812245592E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1635,6 +1666,26 @@
         <f>DCF!$M$9</f>
         <v>35.979999999999997</v>
       </c>
+      <c r="G29" s="34">
+        <f>G30-1</f>
+        <v>20.92</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="M4" r2="M13" ca="1"/>
+        <v>34165.715863891761</v>
+      </c>
+      <c r="I29" s="14">
+        <v>33378.766525279636</v>
+      </c>
+      <c r="J29" s="14">
+        <v>32613.998305775287</v>
+      </c>
+      <c r="K29" s="14">
+        <v>31870.680599620049</v>
+      </c>
+      <c r="L29" s="16">
+        <v>31148.110245960645</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -1656,8 +1707,89 @@
         <f>D30/D29</f>
         <v>2.932869838026389E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G30" s="34">
+        <f>G31-1</f>
+        <v>21.92</v>
+      </c>
+      <c r="H30" s="14">
+        <v>35640.922027802895</v>
+      </c>
+      <c r="I30" s="23">
+        <v>34818.695895583951</v>
+      </c>
+      <c r="J30" s="25">
+        <v>34019.658350656675</v>
+      </c>
+      <c r="K30" s="18">
+        <v>33243.045378925613</v>
+      </c>
+      <c r="L30" s="16">
+        <v>32488.121671328492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G31" s="34">
+        <v>22.92</v>
+      </c>
+      <c r="H31" s="14">
+        <v>37116.128191714037</v>
+      </c>
+      <c r="I31" s="24">
+        <v>36258.625265888259</v>
+      </c>
+      <c r="J31" s="13">
+        <v>35425.318395538074</v>
+      </c>
+      <c r="K31" s="19">
+        <v>34615.410158231178</v>
+      </c>
+      <c r="L31" s="16">
+        <v>33828.133096696336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G32" s="34">
+        <f>G31+1</f>
+        <v>23.92</v>
+      </c>
+      <c r="H32" s="14">
+        <v>38591.334355625171</v>
+      </c>
+      <c r="I32" s="21">
+        <v>37698.554636192574</v>
+      </c>
+      <c r="J32" s="22">
+        <v>36830.978440419465</v>
+      </c>
+      <c r="K32" s="20">
+        <v>35987.774937536749</v>
+      </c>
+      <c r="L32" s="16">
+        <v>35168.144522064184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G33" s="34">
+        <f>G32+1</f>
+        <v>24.92</v>
+      </c>
+      <c r="H33" s="15">
+        <v>40066.540519536313</v>
+      </c>
+      <c r="I33" s="15">
+        <v>39138.484006496888</v>
+      </c>
+      <c r="J33" s="15">
+        <v>38236.638485300857</v>
+      </c>
+      <c r="K33" s="15">
+        <v>37360.139716842314</v>
+      </c>
+      <c r="L33" s="17">
+        <v>36508.155947432031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1665,16 +1797,36 @@
         <f>'[1]Income Statement'!$F$24</f>
         <v>873</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I34" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H35" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <f>IF(J34="Bull",I32,IF(J34="Bear",K30,IF(J34="Central",J31,"Error")))</f>
+        <v>35425.318395538074</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35">
+        <f>I35-B37</f>
+        <v>35425.318395538074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1682,10 +1834,30 @@
         <f>B34+B35</f>
         <v>876</v>
       </c>
+      <c r="I36" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="28">
+        <f>L35/B36</f>
+        <v>40.439861182121092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="28">
+        <f>J36-B29</f>
+        <v>4.4598611821210952</v>
+      </c>
+      <c r="K37" s="11">
+        <f>J37/B29</f>
+        <v>0.12395389611231505</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22" xr:uid="{EAB0D90E-FD11-4473-987B-7DCF4EF16CCE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22 J34" xr:uid="{EAB0D90E-FD11-4473-987B-7DCF4EF16CCE}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CB10F4A09BCEF627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="624" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA26B62B-7EC1-47A6-ADDB-35A2C4243610}"/>
+  <xr:revisionPtr revIDLastSave="893" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FDC869-F90E-4B72-97D0-1F30F5275BC7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="2" r:id="rId1"/>
+    <sheet name="SOTP" sheetId="3" r:id="rId2"/>
+    <sheet name="rNPV" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>FY</t>
   </si>
@@ -198,6 +200,78 @@
   </si>
   <si>
     <t>EBITDA Multiple Approach</t>
+  </si>
+  <si>
+    <t>Orthopaedics</t>
+  </si>
+  <si>
+    <t>Sports Med and ENT</t>
+  </si>
+  <si>
+    <t>Advanced Wound</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>SM&amp;E</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Net Operating Profit after Tax</t>
+  </si>
+  <si>
+    <t>tranche up debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tranche up equity </t>
+  </si>
+  <si>
+    <t>find fcf</t>
+  </si>
+  <si>
+    <t>discount fcf</t>
+  </si>
+  <si>
+    <t>tv + pv of tv</t>
+  </si>
+  <si>
+    <t>individual Enterprise values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum less net debt for overall </t>
+  </si>
+  <si>
+    <t>three scenario models</t>
+  </si>
+  <si>
+    <t>code these locations into the viewer</t>
+  </si>
+  <si>
+    <t>add note that viewer can't see them differently</t>
+  </si>
+  <si>
+    <t>Debt Portion:</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -208,7 +282,7 @@
     <numFmt numFmtId="164" formatCode="0;\(0\);\-"/>
     <numFmt numFmtId="165" formatCode="[Color10]0.00%;[Red]\(0.00\)%;\-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +348,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,14 +521,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -484,6 +564,49 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -567,6 +690,57 @@
             <v>1375</v>
           </cell>
         </row>
+        <row r="44">
+          <cell r="G44">
+            <v>2413.6991302341535</v>
+          </cell>
+          <cell r="H44">
+            <v>2527.5242912334529</v>
+          </cell>
+          <cell r="I44">
+            <v>2646.7172162238094</v>
+          </cell>
+          <cell r="J44">
+            <v>2771.5310380803335</v>
+          </cell>
+          <cell r="K44">
+            <v>2902.230826911697</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>1972.7566005307594</v>
+          </cell>
+          <cell r="H45">
+            <v>2133.6450684965343</v>
+          </cell>
+          <cell r="I45">
+            <v>2307.6548202118656</v>
+          </cell>
+          <cell r="J45">
+            <v>2495.8559639909986</v>
+          </cell>
+          <cell r="K45">
+            <v>2699.405880996329</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>1789.1296699937484</v>
+          </cell>
+          <cell r="H46">
+            <v>1904.2147388768226</v>
+          </cell>
+          <cell r="I46">
+            <v>2026.7026099725886</v>
+          </cell>
+          <cell r="J46">
+            <v>2157.0694656488554</v>
+          </cell>
+          <cell r="K46">
+            <v>2295.8221185186958</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
@@ -656,6 +830,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,9 +1155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M31" sqref="M31"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,10 +1167,10 @@
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1017,7 +1195,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -1040,10 +1218,10 @@
         <f>'[1]Income Statement'!K8</f>
         <v>1107.2169098036211</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9">
+      <c r="I2" s="8">
         <f>'[1]Balance Sheet'!$N$7</f>
         <v>0.10567499999999999</v>
       </c>
@@ -1052,33 +1230,33 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <f>B2*(1-DCF!$M$2)</f>
+        <f>B2*(1-DCF!$I$2)</f>
         <v>774.31708613862099</v>
       </c>
       <c r="C3" s="5">
-        <f>C2*(1-DCF!$M$2)</f>
+        <f>C2*(1-DCF!$I$2)</f>
         <v>823.19144740343734</v>
       </c>
       <c r="D3" s="5">
-        <f>D2*(1-DCF!$M$2)</f>
+        <f>D2*(1-DCF!$I$2)</f>
         <v>875.31222184361388</v>
       </c>
       <c r="E3" s="5">
-        <f>E2*(1-DCF!$M$2)</f>
+        <f>E2*(1-DCF!$I$2)</f>
         <v>930.90502764999314</v>
       </c>
       <c r="F3" s="5">
-        <f>F2*(1-DCF!$M$2)</f>
+        <f>F2*(1-DCF!$I$2)</f>
         <v>990.21176286012349</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="H3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="9">
+      <c r="I3" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="O3" t="s">
@@ -1086,7 +1264,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -1109,11 +1287,11 @@
         <f>'[1]Income Statement'!K39</f>
         <v>606.29501506130021</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="H4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="9">
-        <f>(M5*(1-M2)*(M6/(M6+M8)))+(M7*(M7/(M7+M5)))</f>
+      <c r="I4" s="8">
+        <f>(I5*(1-I2)*(I6/(I6+I8)))+(I7*(I7/(I7+I5)))</f>
         <v>4.0402449812245597E-2</v>
       </c>
       <c r="O4" t="s">
@@ -1121,7 +1299,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -1144,16 +1322,16 @@
         <f>'[1]Balance Sheet'!K53</f>
         <v>-610.64026286698993</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="H5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="9">
+      <c r="I5" s="8">
         <f>0.056</f>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -1176,126 +1354,128 @@
         <f>-'[1]Balance Sheet'!$G$52</f>
         <v>-149.35645811619816</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="H6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="2">
+      <c r="I6" s="2">
         <f>'[1]Balance Sheet'!$F$49</f>
         <v>2986</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>SUM(B3:B6)</f>
         <v>621.56276935658195</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" ref="C7:F7" si="0">SUM(C3:C6)</f>
         <v>670.22266012225271</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>722.11471815119137</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>777.46357157637021</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>836.51005693823561</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="H7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="9">
-        <f>M3+(M10*M11)</f>
+      <c r="I7" s="8">
+        <f>I3+(I10*I11)</f>
         <v>6.6460000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <f>B7/((1+DCF!$M$4)^(DCF!B1-2024))</f>
+        <f>B7/((1+DCF!$I$4)^(DCF!B1-2024))</f>
         <v>597.42532273809161</v>
       </c>
       <c r="C8" s="1">
-        <f>C7/((1+DCF!$M$4)^(DCF!C1-2024))</f>
+        <f>C7/((1+DCF!$I$4)^(DCF!C1-2024))</f>
         <v>619.17922302818999</v>
       </c>
       <c r="D8" s="1">
-        <f>D7/((1+DCF!$M$4)^(DCF!D1-2024))</f>
+        <f>D7/((1+DCF!$I$4)^(DCF!D1-2024))</f>
         <v>641.21267480518929</v>
       </c>
       <c r="E8" s="1">
-        <f>E7/((1+DCF!$M$4)^(DCF!E1-2024))</f>
+        <f>E7/((1+DCF!$I$4)^(DCF!E1-2024))</f>
         <v>663.55142245628178</v>
       </c>
       <c r="F8" s="1">
-        <f>F7/((1+DCF!$M$4)^(DCF!F1-2024))</f>
+        <f>F7/((1+DCF!$I$4)^(DCF!F1-2024))</f>
         <v>686.22152382874856</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="H8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="8">
-        <f>M9*'[1]Income Statement'!$H$25</f>
+      <c r="I8" s="7">
+        <f>I9*'[1]Income Statement'!$H$25</f>
         <v>31518.479999999996</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="L9" s="2" t="s">
+      <c r="H9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="2">
+      <c r="I9" s="2">
         <v>35.979999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="H10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="2">
+      <c r="I10" s="2">
         <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="5">
-        <f>((F7*(1+DCF!M12))/(DCF!M4-DCF!M12))/((1+M4)^5)</f>
+        <f>((F7*(1+DCF!I12))/(DCF!I4-DCF!I12))/((1+I4)^5)</f>
         <v>34306.956309002388</v>
       </c>
       <c r="D11" s="5">
-        <f>((F2+F4)*M13)/((1+M4)^5)</f>
+        <f>((F2+F4)*I13)/((1+I4)^5)</f>
         <v>32221.28582646788</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="H11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="9">
+      <c r="I11" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5">
@@ -1306,228 +1486,228 @@
         <f>SUM(B8:F8)+D11</f>
         <v>35428.875993324378</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="H12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="9">
+      <c r="I12" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
-      <c r="L13" s="2" t="s">
+      <c r="H13" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="32">
-        <f>M8/'[1]Income Statement'!$F$41</f>
+      <c r="I13" s="31">
+        <f>I8/'[1]Income Statement'!$F$41</f>
         <v>22.922530909090906</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1">
         <f>'[1]Balance Sheet'!$F$22</f>
         <v>2</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1">
         <f>'[1]Balance Sheet'!$F$28</f>
         <v>3123</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <f>B12</f>
         <v>37514.546475858886</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <f>I16-0.005</f>
         <v>3.0402449812245599E-2</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <f>J16-0.005</f>
         <v>3.54024498122456E-2</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <v>4.0402449812245597E-2</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <f>J16+0.005</f>
         <v>4.5402449812245595E-2</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="25">
         <f>K16+0.005</f>
         <v>5.0402449812245592E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1">
         <f>'[1]Balance Sheet'!$F$23</f>
         <v>0</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <f>G18-0.005</f>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="H17" s="14">
-        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="M4" r2="M12"/>
+      <c r="H17" s="13">
+        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12" ca="1"/>
         <v>38955.738924016259</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>31204.748093147573</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>26004.560257992824</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>22274.37262742137</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>19468.401621756842</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <f>'[1]Balance Sheet'!$F$24</f>
         <v>61</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <f>G19-0.005</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>50762.792125788292</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>38226.516443891356</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <v>30626.789961925686</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="17">
         <v>25527.980580474767</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>21870.42512103431</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1">
         <f>'[1]Balance Sheet'!$F$30</f>
         <v>79</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>0.02</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>73920.107443579327</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <v>49807.149414444641</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>37514.546475858886</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <v>30062.413011915662</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>25062.524260305097</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1">
         <f>'[1]Balance Sheet'!$F$29</f>
         <v>135</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f>G19+0.005</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>139941.89373766878</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>72520.384012088427</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>48874.160777283214</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <v>36819.339542432499</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>29511.234144942646</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="1">
         <f>'[1]Balance Sheet'!$F$31</f>
         <v>31</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <f>G20+0.005</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>1846461.0609523756</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <v>137276.09079736884</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>71153.908803411527</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>47963.182838063418</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>36140.422318009769</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1">
         <f>'[1]Balance Sheet'!$F$32</f>
         <v>190</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -1535,21 +1715,21 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="1">
         <f>'[1]Balance Sheet'!$F$3</f>
         <v>619</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I23">
         <f>IF(J22="Bull",I20,IF(J22="Bear",K18,IF(J22="Central",J19,"Error")))</f>
         <v>37514.546475858886</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="L23">
@@ -1558,43 +1738,43 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1">
         <f>'[1]Balance Sheet'!$F$12</f>
         <v>16</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="27">
         <f>L23/B36</f>
         <v>39.416148945044391</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B25">
         <f>SUM(B15:B22)+(-1*SUM(B23:B24))</f>
         <v>2986</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="27">
         <f>J24-B29</f>
         <v>3.4361489450443941</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <f>J25/B29</f>
         <v>9.5501638272495679E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="5">
@@ -1607,197 +1787,197 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="5"/>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <f>B26/B36</f>
         <v>39.416148945044391</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <f>D26/B36</f>
         <v>37.035246567721892</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <f>D12</f>
         <v>35428.875993324378</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <f>I28-0.005</f>
         <v>3.0402449812245599E-2</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <f>J28-0.005</f>
         <v>3.54024498122456E-2</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <v>4.0402449812245597E-2</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <f>J28+0.005</f>
         <v>4.5402449812245595E-2</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="25">
         <f>K28+0.005</f>
         <v>5.0402449812245592E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B29">
-        <f>DCF!$M$9</f>
+        <f>DCF!$I$9</f>
         <v>35.979999999999997</v>
       </c>
       <c r="D29">
-        <f>DCF!$M$9</f>
+        <f>DCF!$I$9</f>
         <v>35.979999999999997</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>G30-1</f>
         <v>20.92</v>
       </c>
-      <c r="H29" s="14">
-        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="M4" r2="M13" ca="1"/>
+      <c r="H29" s="13">
+        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13"/>
         <v>34165.715863891761</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>33378.766525279636</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>32613.998305775287</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>31870.680599620049</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>31148.110245960645</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <f>B28-B29</f>
         <v>3.4361489450443941</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <f>B30/B29</f>
         <v>9.5501638272495679E-2</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f>D28-D29</f>
         <v>1.0552465677218947</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f>D30/D29</f>
         <v>2.932869838026389E-2</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="33">
         <f>G31-1</f>
         <v>21.92</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>35640.922027802895</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>34818.695895583951</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="24">
         <v>34019.658350656675</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="17">
         <v>33243.045378925613</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>32488.121671328492</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <v>22.92</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>37116.128191714037</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="23">
         <v>36258.625265888259</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>35425.318395538074</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="18">
         <v>34615.410158231178</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="15">
         <v>33828.133096696336</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G32" s="34">
+      <c r="G32" s="33">
         <f>G31+1</f>
         <v>23.92</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>38591.334355625171</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <v>37698.554636192574</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>36830.978440419465</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>35987.774937536749</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <v>35168.144522064184</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <f>G32+1</f>
         <v>24.92</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>40066.540519536313</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <v>39138.484006496888</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="14">
         <v>38236.638485300857</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="14">
         <v>37360.139716842314</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="16">
         <v>36508.155947432031</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B34">
         <f>'[1]Income Statement'!$F$24</f>
         <v>873</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -1805,20 +1985,20 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I35">
         <f>IF(J34="Bull",I32,IF(J34="Bear",K30,IF(J34="Central",J31,"Error")))</f>
         <v>35425.318395538074</v>
       </c>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="28" t="s">
         <v>40</v>
       </c>
       <c r="L35">
@@ -1827,36 +2007,36 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f>B34+B35</f>
         <v>876</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="27">
         <f>L35/B36</f>
         <v>40.439861182121092</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="27">
         <f>J36-B29</f>
         <v>4.4598611821210952</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f>J37/B29</f>
         <v>0.12395389611231505</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22 J34" xr:uid="{EAB0D90E-FD11-4473-987B-7DCF4EF16CCE}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
@@ -1866,4 +2046,1110 @@
     <ignoredError sqref="C30:D30" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1EAA58-ADB1-46F6-8416-C90E04EF858D}">
+  <dimension ref="A1:Z26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="37"/>
+    <col min="11" max="11" width="8.88671875" style="37"/>
+    <col min="16" max="16" width="8.88671875" style="37"/>
+    <col min="23" max="23" width="37.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="X1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="38">
+        <v>2026</v>
+      </c>
+      <c r="D2" s="38">
+        <v>2027</v>
+      </c>
+      <c r="E2" s="38">
+        <v>2028</v>
+      </c>
+      <c r="F2" s="39">
+        <v>2029</v>
+      </c>
+      <c r="G2" s="38">
+        <v>2025</v>
+      </c>
+      <c r="H2" s="38">
+        <v>2026</v>
+      </c>
+      <c r="I2" s="38">
+        <v>2027</v>
+      </c>
+      <c r="J2" s="38">
+        <v>2028</v>
+      </c>
+      <c r="K2" s="39">
+        <v>2029</v>
+      </c>
+      <c r="L2" s="38">
+        <v>2025</v>
+      </c>
+      <c r="M2" s="38">
+        <v>2026</v>
+      </c>
+      <c r="N2" s="38">
+        <v>2027</v>
+      </c>
+      <c r="O2" s="38">
+        <v>2028</v>
+      </c>
+      <c r="P2" s="39">
+        <v>2029</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>2025</v>
+      </c>
+      <c r="R2" s="43">
+        <v>2026</v>
+      </c>
+      <c r="S2" s="43">
+        <v>2027</v>
+      </c>
+      <c r="T2" s="43">
+        <v>2028</v>
+      </c>
+      <c r="U2" s="43">
+        <v>2029</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="8">
+        <f>'[1]Balance Sheet'!$N$7</f>
+        <v>0.10567499999999999</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>'[1]Balance Sheet'!$N$7</f>
+        <v>0.10567499999999999</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>'[1]Balance Sheet'!$N$7</f>
+        <v>0.10567499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'[1]Income Statement'!G44</f>
+        <v>2413.6991302341535</v>
+      </c>
+      <c r="C3" s="1">
+        <f>'[1]Income Statement'!H44</f>
+        <v>2527.5242912334529</v>
+      </c>
+      <c r="D3" s="1">
+        <f>'[1]Income Statement'!I44</f>
+        <v>2646.7172162238094</v>
+      </c>
+      <c r="E3" s="1">
+        <f>'[1]Income Statement'!J44</f>
+        <v>2771.5310380803335</v>
+      </c>
+      <c r="F3" s="40">
+        <f>'[1]Income Statement'!K44</f>
+        <v>2902.230826911697</v>
+      </c>
+      <c r="G3" s="1">
+        <f>'[1]Income Statement'!G45</f>
+        <v>1972.7566005307594</v>
+      </c>
+      <c r="H3" s="1">
+        <f>'[1]Income Statement'!H45</f>
+        <v>2133.6450684965343</v>
+      </c>
+      <c r="I3" s="1">
+        <f>'[1]Income Statement'!I45</f>
+        <v>2307.6548202118656</v>
+      </c>
+      <c r="J3" s="1">
+        <f>'[1]Income Statement'!J45</f>
+        <v>2495.8559639909986</v>
+      </c>
+      <c r="K3" s="40">
+        <f>'[1]Income Statement'!K45</f>
+        <v>2699.405880996329</v>
+      </c>
+      <c r="L3" s="1">
+        <f>'[1]Income Statement'!G46</f>
+        <v>1789.1296699937484</v>
+      </c>
+      <c r="M3" s="1">
+        <f>'[1]Income Statement'!H46</f>
+        <v>1904.2147388768226</v>
+      </c>
+      <c r="N3" s="1">
+        <f>'[1]Income Statement'!I46</f>
+        <v>2026.7026099725886</v>
+      </c>
+      <c r="O3" s="1">
+        <f>'[1]Income Statement'!J46</f>
+        <v>2157.0694656488554</v>
+      </c>
+      <c r="P3" s="46">
+        <f>'[1]Income Statement'!K46</f>
+        <v>2295.8221185186958</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>6175.5854007586613</v>
+      </c>
+      <c r="R3" s="44">
+        <v>6565.3840986068099</v>
+      </c>
+      <c r="S3" s="44">
+        <v>6981.074646408264</v>
+      </c>
+      <c r="T3" s="44">
+        <v>7424.456467720187</v>
+      </c>
+      <c r="U3" s="44">
+        <v>7897.4588264267222</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(B$3/Q$3)*Q4</f>
+        <v>-714.38197475327559</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:F4" si="0">C3/R3*R4</f>
+        <v>-748.07078139563498</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>-783.34828390812493</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>-820.28940196939595</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="0"/>
+        <v>-858.97258831836211</v>
+      </c>
+      <c r="G4" s="1">
+        <f>G3/Q3*Q4</f>
+        <v>-583.87631595906737</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:K4" si="1">H3/R3*R4</f>
+        <v>-631.49443870714572</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>-682.99606477959924</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>-738.69791388732926</v>
+      </c>
+      <c r="K4" s="40">
+        <f t="shared" si="1"/>
+        <v>-798.94253586597108</v>
+      </c>
+      <c r="L4" s="1">
+        <f>L3/Q3*Q4</f>
+        <v>-529.52829568937182</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:P4" si="2">M3/R3*R4</f>
+        <v>-563.58999697744082</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
+        <v>-599.84270392862948</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>-638.42735212848697</v>
+      </c>
+      <c r="P4" s="40">
+        <f t="shared" si="2"/>
+        <v>-679.49394278918635</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>-1827.7865864017149</v>
+      </c>
+      <c r="R4" s="44">
+        <v>-1943.1552170802215</v>
+      </c>
+      <c r="S4" s="44">
+        <v>-2066.1870526163539</v>
+      </c>
+      <c r="T4" s="44">
+        <v>-2197.414667985212</v>
+      </c>
+      <c r="U4" s="44">
+        <v>-2337.4090669735197</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="8">
+        <f>(X5*(1-X2)*(X6/(X6+X8)))+(X7*(X7/(X7+X5)))</f>
+        <v>3.6068361914094398E-2</v>
+      </c>
+      <c r="Y4" s="8">
+        <f>(Y5*(1-Y2)*(Y6/(Y6+Y8)))+(Y7*(Y7/(Y7+Y5)))</f>
+        <v>3.6068361914094398E-2</v>
+      </c>
+      <c r="Z4" s="8">
+        <f>(Z5*(1-Z2)*(Z6/(Z6+Z8)))+(Z7*(Z7/(Z7+Z5)))</f>
+        <v>3.6068361914094398E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(B3:B4)</f>
+        <v>1699.3171554808778</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:P5" si="3">SUM(C3:C4)</f>
+        <v>1779.4535098378178</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>1863.3689323156846</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="3"/>
+        <v>1951.2416361109376</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="3"/>
+        <v>2043.2582385933349</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>1388.8802845716921</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="3"/>
+        <v>1502.1506297893886</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>1624.6587554322664</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>1757.1580501036692</v>
+      </c>
+      <c r="K5" s="41">
+        <f t="shared" si="3"/>
+        <v>1900.463345130358</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
+        <v>1259.6013743043766</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="3"/>
+        <v>1340.6247418993817</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="3"/>
+        <v>1426.8599060439592</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="3"/>
+        <v>1518.6421135203684</v>
+      </c>
+      <c r="P5" s="41">
+        <f t="shared" si="3"/>
+        <v>1616.3281757295094</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>4347.7988143569464</v>
+      </c>
+      <c r="R5" s="45">
+        <v>4622.2288815265883</v>
+      </c>
+      <c r="S5" s="45">
+        <v>4914.8875937919101</v>
+      </c>
+      <c r="T5" s="45">
+        <v>5227.041799734975</v>
+      </c>
+      <c r="U5" s="45">
+        <v>5560.0497594532026</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="8">
+        <f>0.056</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <f>0.056</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>0.056</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6" si="4">B$3/Q$3*Q6</f>
+        <v>-1360.9186211028596</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:F6" si="5">C$3/R$3*R6</f>
+        <v>-1425.0967861498636</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="5"/>
+        <v>-1492.3014634400924</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="5"/>
+        <v>-1562.6753771594383</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="5"/>
+        <v>-1636.3679820772513</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6" si="6">G$3/Q$3*Q6</f>
+        <v>-1112.3015122043967</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="7">H$3/R$3*R6</f>
+        <v>-1203.0154331039303</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="8">I$3/S$3*S6</f>
+        <v>-1301.1275417742045</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6" si="9">J$3/T$3*T6</f>
+        <v>-1407.2411985567014</v>
+      </c>
+      <c r="K6" s="40">
+        <f t="shared" ref="K6" si="10">K$3/U$3*U6</f>
+        <v>-1522.0089709383496</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6" si="11">L$3/Q$3*Q6</f>
+        <v>-1008.7669390782356</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6" si="12">M$3/R$3*R6</f>
+        <v>-1073.6554793656437</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6" si="13">N$3/S$3*S6</f>
+        <v>-1142.7179497230422</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6" si="14">O$3/T$3*T6</f>
+        <v>-1216.2228365757996</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" ref="P6" si="15">P$3/U$3*U6</f>
+        <v>-1294.45589663398</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>-3481.987072385492</v>
+      </c>
+      <c r="R6" s="44">
+        <v>-3701.7676986194379</v>
+      </c>
+      <c r="S6" s="44">
+        <v>-3936.1469549373396</v>
+      </c>
+      <c r="T6" s="44">
+        <v>-4186.1394122919392</v>
+      </c>
+      <c r="U6" s="44">
+        <v>-4452.8328496495815</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <f>SUM(B5:B6)</f>
+        <v>338.39853437801821</v>
+      </c>
+      <c r="C7" s="5">
+        <f>SUM(C5:C6)</f>
+        <v>354.35672368795417</v>
+      </c>
+      <c r="D7" s="5">
+        <f>SUM(D5:D6)</f>
+        <v>371.06746887559211</v>
+      </c>
+      <c r="E7" s="5">
+        <f>SUM(E5:E6)</f>
+        <v>388.56625895149932</v>
+      </c>
+      <c r="F7" s="41">
+        <f>SUM(F5:F6)</f>
+        <v>406.89025651608358</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:P7" si="16">SUM(G5:G6)</f>
+        <v>276.57877236729541</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="16"/>
+        <v>299.13519668545837</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="16"/>
+        <v>323.53121365806192</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="16"/>
+        <v>349.91685154696779</v>
+      </c>
+      <c r="K7" s="41">
+        <f t="shared" si="16"/>
+        <v>378.45437419200834</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="16"/>
+        <v>250.83443522614095</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="16"/>
+        <v>266.96926253373795</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="16"/>
+        <v>284.14195632091696</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="16"/>
+        <v>302.41927694456876</v>
+      </c>
+      <c r="P7" s="41">
+        <f t="shared" si="16"/>
+        <v>321.87227909552939</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>865.81174197145447</v>
+      </c>
+      <c r="R7" s="45">
+        <v>920.46118290715049</v>
+      </c>
+      <c r="S7" s="45">
+        <v>978.74063885457053</v>
+      </c>
+      <c r="T7" s="45">
+        <v>1040.9023874430359</v>
+      </c>
+      <c r="U7" s="45">
+        <v>1107.2169098036211</v>
+      </c>
+      <c r="W7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="8">
+        <f>X3+(X10*X11)</f>
+        <v>6.6460000000000005E-2</v>
+      </c>
+      <c r="Y7" s="8">
+        <f>Y3+(Y10*Y11)</f>
+        <v>6.6460000000000005E-2</v>
+      </c>
+      <c r="Z7" s="8">
+        <f>Z3+(Z10*Z11)</f>
+        <v>6.6460000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B7*(1-$X$2)</f>
+        <v>302.63826925762118</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:F8" si="17">C7*(1-$X$2)</f>
+        <v>316.91007691222961</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="17"/>
+        <v>331.85491410216395</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="17"/>
+        <v>347.50451953679965</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="17"/>
+        <v>363.89212865874646</v>
+      </c>
+      <c r="G8" s="5">
+        <f>G7*(1-$Y$2)</f>
+        <v>247.35131059738148</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ref="H8:K8" si="18">H7*(1-$Y$2)</f>
+        <v>267.52408477572254</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="18"/>
+        <v>289.34205265474623</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="18"/>
+        <v>312.93938825974197</v>
+      </c>
+      <c r="K8" s="41">
+        <f t="shared" si="18"/>
+        <v>338.4612081992679</v>
+      </c>
+      <c r="L8" s="5">
+        <f>L7*(1-$Z$2)</f>
+        <v>224.3275062836185</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ref="M8:P8" si="19">M7*(1-$Z$2)</f>
+        <v>238.75728571548521</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="19"/>
+        <v>254.11525508670408</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="19"/>
+        <v>270.46111985345146</v>
+      </c>
+      <c r="P8" s="41">
+        <f t="shared" si="19"/>
+        <v>287.85842600210935</v>
+      </c>
+      <c r="W8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="7">
+        <f>X9*'[1]Income Statement'!$H$25</f>
+        <v>31518.479999999996</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>Y9*'[1]Income Statement'!$H$25</f>
+        <v>31518.479999999996</v>
+      </c>
+      <c r="Z8" s="7">
+        <f>Z9*'[1]Income Statement'!$H$25</f>
+        <v>31518.479999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="40"/>
+      <c r="W9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="2">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>35.979999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="40"/>
+      <c r="W10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="40"/>
+      <c r="W11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="40"/>
+      <c r="W12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="40"/>
+      <c r="W13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" s="31">
+        <f>X8/'[1]Income Statement'!$F$41</f>
+        <v>22.922530909090906</v>
+      </c>
+      <c r="Y13" s="31">
+        <f>Y8/'[1]Income Statement'!$F$41</f>
+        <v>22.922530909090906</v>
+      </c>
+      <c r="Z13" s="31">
+        <f>Z8/'[1]Income Statement'!$F$41</f>
+        <v>22.922530909090906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="40"/>
+      <c r="W15" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="40"/>
+      <c r="W16" s="51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="40"/>
+      <c r="W17" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="40"/>
+      <c r="W18" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="40"/>
+      <c r="W19" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="40"/>
+      <c r="W20" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="40"/>
+      <c r="W21" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="40"/>
+      <c r="W22" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="40"/>
+      <c r="W23" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="40"/>
+      <c r="W24" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="40"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B6:F6 G6:P6" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAC3436-3D57-4757-9CB9-CA7911356AEE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/CB10F4A09BCEF627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="893" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FDC869-F90E-4B72-97D0-1F30F5275BC7}"/>
+  <xr:revisionPtr revIDLastSave="1785" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C8ACB2-AF82-42FA-8EB3-09D4F844166C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>FY</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>EV per Share</t>
-  </si>
-  <si>
     <t>Current price</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Diluted Shares Outstanding</t>
   </si>
   <si>
-    <t>EV Per Share:</t>
-  </si>
-  <si>
     <t>Upside:</t>
   </si>
   <si>
@@ -214,64 +208,43 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Cost of Revenue</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>OpEx</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>SM&amp;E</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
     <t>Net Operating Profit after Tax</t>
   </si>
   <si>
-    <t>tranche up debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tranche up equity </t>
-  </si>
-  <si>
-    <t>find fcf</t>
-  </si>
-  <si>
-    <t>discount fcf</t>
-  </si>
-  <si>
-    <t>tv + pv of tv</t>
-  </si>
-  <si>
-    <t>individual Enterprise values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum less net debt for overall </t>
-  </si>
-  <si>
-    <t>three scenario models</t>
-  </si>
-  <si>
-    <t>code these locations into the viewer</t>
-  </si>
-  <si>
-    <t>add note that viewer can't see them differently</t>
-  </si>
-  <si>
-    <t>Debt Portion:</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>Equity Value per Ordinary Share</t>
+  </si>
+  <si>
+    <t>Equity Value Per ADR Share</t>
+  </si>
+  <si>
+    <t>EqV Per ADR Share:</t>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+  </si>
+  <si>
+    <t>D&amp;A Proportion</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Segment Spending Proportion</t>
+  </si>
+  <si>
+    <t>Discounted FCF</t>
+  </si>
+  <si>
+    <t>Segment Enterprise Value</t>
+  </si>
+  <si>
+    <t>Implied Equity Value</t>
+  </si>
+  <si>
+    <t>Equity Value per ADR Share</t>
+  </si>
+  <si>
+    <t>Share Price</t>
   </si>
 </sst>
 </file>
@@ -282,7 +255,7 @@
     <numFmt numFmtId="164" formatCode="0;\(0\);\-"/>
     <numFmt numFmtId="165" formatCode="[Color10]0.00%;[Red]\(0.00\)%;\-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +328,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,7 +539,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -563,7 +581,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -582,15 +599,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -603,10 +611,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -617,6 +693,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -641,7 +722,15 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2">
+            <v>5810</v>
+          </cell>
+        </row>
         <row r="8">
+          <cell r="F8">
+            <v>886</v>
+          </cell>
           <cell r="G8">
             <v>865.81174197145447</v>
           </cell>
@@ -656,6 +745,9 @@
           </cell>
           <cell r="K8">
             <v>1107.2169098036211</v>
+          </cell>
+          <cell r="N8">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="24">
@@ -664,11 +756,14 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="H25">
+          <cell r="F25">
             <v>876</v>
           </cell>
         </row>
         <row r="39">
+          <cell r="F39">
+            <v>449</v>
+          </cell>
           <cell r="G39">
             <v>474.10524395977473</v>
           </cell>
@@ -685,59 +780,68 @@
             <v>606.29501506130021</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="F41">
-            <v>1375</v>
+        <row r="40">
+          <cell r="F40">
+            <v>1335</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>2305</v>
+          </cell>
+          <cell r="G43">
+            <v>2413.6991302341535</v>
+          </cell>
+          <cell r="H43">
+            <v>2527.5242912334529</v>
+          </cell>
+          <cell r="I43">
+            <v>2646.7172162238094</v>
+          </cell>
+          <cell r="J43">
+            <v>2771.5310380803335</v>
+          </cell>
+          <cell r="K43">
+            <v>2902.230826911697</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="F44">
+            <v>1824</v>
+          </cell>
           <cell r="G44">
-            <v>2413.6991302341535</v>
+            <v>1972.7566005307594</v>
           </cell>
           <cell r="H44">
-            <v>2527.5242912334529</v>
+            <v>2133.6450684965343</v>
           </cell>
           <cell r="I44">
-            <v>2646.7172162238094</v>
+            <v>2307.6548202118656</v>
           </cell>
           <cell r="J44">
-            <v>2771.5310380803335</v>
+            <v>2495.8559639909986</v>
           </cell>
           <cell r="K44">
-            <v>2902.230826911697</v>
+            <v>2699.405880996329</v>
           </cell>
         </row>
         <row r="45">
+          <cell r="F45">
+            <v>1681</v>
+          </cell>
           <cell r="G45">
-            <v>1972.7566005307594</v>
+            <v>1789.1296699937484</v>
           </cell>
           <cell r="H45">
-            <v>2133.6450684965343</v>
+            <v>1904.2147388768226</v>
           </cell>
           <cell r="I45">
-            <v>2307.6548202118656</v>
+            <v>2026.7026099725886</v>
           </cell>
           <cell r="J45">
-            <v>2495.8559639909986</v>
+            <v>2157.0694656488554</v>
           </cell>
           <cell r="K45">
-            <v>2699.405880996329</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46">
-            <v>1789.1296699937484</v>
-          </cell>
-          <cell r="H46">
-            <v>1904.2147388768226</v>
-          </cell>
-          <cell r="I46">
-            <v>2026.7026099725886</v>
-          </cell>
-          <cell r="J46">
-            <v>2157.0694656488554</v>
-          </cell>
-          <cell r="K46">
             <v>2295.8221185186958</v>
           </cell>
         </row>
@@ -809,6 +913,9 @@
           </cell>
         </row>
         <row r="53">
+          <cell r="F53">
+            <v>-381</v>
+          </cell>
           <cell r="G53">
             <v>-477.50310262561572</v>
           </cell>
@@ -830,10 +937,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,9 +1258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A34" sqref="A34:A36"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,39 +1301,39 @@
       <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="45">
         <f>'[1]Income Statement'!G8</f>
         <v>865.81174197145447</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="45">
         <f>'[1]Income Statement'!H8</f>
         <v>920.46118290715049</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="45">
         <f>'[1]Income Statement'!I8</f>
         <v>978.74063885457053</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="45">
         <f>'[1]Income Statement'!J8</f>
         <v>1040.9023874430359</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="45">
         <f>'[1]Income Statement'!K8</f>
         <v>1107.2169098036211</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="46">
         <f>'[1]Balance Sheet'!$N$7</f>
         <v>0.10567499999999999</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5">
@@ -1253,76 +1356,76 @@
         <f>F2*(1-DCF!$I$2)</f>
         <v>990.21176286012349</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="45">
         <f>'[1]Income Statement'!G39</f>
         <v>474.10524395977473</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="45">
         <f>'[1]Income Statement'!H39</f>
         <v>504.03044047892519</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="45">
         <f>'[1]Income Statement'!I39</f>
         <v>535.94337759950497</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="45">
         <f>'[1]Income Statement'!J39</f>
         <v>569.98219868593901</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="45">
         <f>'[1]Income Statement'!K39</f>
         <v>606.29501506130021</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="8">
-        <f>(I5*(1-I2)*(I6/(I6+I8)))+(I7*(I7/(I7+I5)))</f>
-        <v>4.0402449812245597E-2</v>
+        <f>(((I8/(I8+I6))*I7)+((I6/(I8+I6))*I5))*(1-I2)</f>
+        <v>5.7975388146743925E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="45">
         <f>'[1]Balance Sheet'!G53</f>
         <v>-477.50310262561572</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="45">
         <f>'[1]Balance Sheet'!H53</f>
         <v>-507.64276964391172</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="45">
         <f>'[1]Balance Sheet'!I53</f>
         <v>-539.78442317572933</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="45">
         <f>'[1]Balance Sheet'!J53</f>
         <v>-574.06719664336379</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="45">
         <f>'[1]Balance Sheet'!K53</f>
         <v>-610.64026286698993</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="8">
@@ -1334,27 +1437,27 @@
       <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="45">
         <f>-'[1]Balance Sheet'!$G$52</f>
         <v>-149.35645811619816</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="45">
         <f>-'[1]Balance Sheet'!$G$52</f>
         <v>-149.35645811619816</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="45">
         <f>-'[1]Balance Sheet'!$G$52</f>
         <v>-149.35645811619816</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="45">
         <f>-'[1]Balance Sheet'!$G$52</f>
         <v>-149.35645811619816</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="45">
         <f>-'[1]Balance Sheet'!$G$52</f>
         <v>-149.35645811619816</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2">
@@ -1363,7 +1466,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
@@ -1386,7 +1489,7 @@
         <f t="shared" si="0"/>
         <v>836.51005693823561</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8">
@@ -1400,30 +1503,30 @@
       </c>
       <c r="B8" s="1">
         <f>B7/((1+DCF!$I$4)^(DCF!B1-2024))</f>
-        <v>597.42532273809161</v>
+        <v>587.50210668451723</v>
       </c>
       <c r="C8" s="1">
         <f>C7/((1+DCF!$I$4)^(DCF!C1-2024))</f>
-        <v>619.17922302818999</v>
+        <v>598.7809537220387</v>
       </c>
       <c r="D8" s="1">
         <f>D7/((1+DCF!$I$4)^(DCF!D1-2024))</f>
-        <v>641.21267480518929</v>
+        <v>609.78888313649293</v>
       </c>
       <c r="E8" s="1">
         <f>E7/((1+DCF!$I$4)^(DCF!E1-2024))</f>
-        <v>663.55142245628178</v>
+        <v>620.55144335444652</v>
       </c>
       <c r="F8" s="1">
         <f>F7/((1+DCF!$I$4)^(DCF!F1-2024))</f>
-        <v>686.22152382874856</v>
-      </c>
-      <c r="H8" s="34" t="s">
+        <v>631.09297064712882</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <f>I9*'[1]Income Statement'!$H$25</f>
-        <v>31518.479999999996</v>
+        <f>I9*('[1]Income Statement'!$F$25*'[1]Income Statement'!$N$8)</f>
+        <v>16127.16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1433,22 +1536,22 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="2">
-        <v>35.979999999999997</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="2">
@@ -1456,18 +1559,18 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>47</v>
+      <c r="A11" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="5">
         <f>((F7*(1+DCF!I12))/(DCF!I4-DCF!I12))/((1+I4)^5)</f>
-        <v>34306.956309002388</v>
+        <v>16950.842676647262</v>
       </c>
       <c r="D11" s="5">
         <f>((F2+F4)*I13)/((1+I4)^5)</f>
-        <v>32221.28582646788</v>
-      </c>
-      <c r="H11" s="34" t="s">
+        <v>15616.580217387107</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="8">
@@ -1475,18 +1578,18 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5">
         <f>SUM(B8:F8)+B11</f>
-        <v>37514.546475858886</v>
+        <v>19998.559034191887</v>
       </c>
       <c r="D12" s="5">
         <f>SUM(B8:F8)+D11</f>
-        <v>35428.875993324378</v>
-      </c>
-      <c r="H12" s="34" t="s">
+        <v>18664.29657493173</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="8">
@@ -1496,30 +1599,30 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
-      <c r="H13" s="34" t="s">
-        <v>51</v>
+      <c r="H13" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="31">
-        <f>I8/'[1]Income Statement'!$F$41</f>
-        <v>22.922530909090906</v>
+        <f>I8/'[1]Income Statement'!$F$40</f>
+        <v>12.080269662921348</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1">
+        <v>27</v>
+      </c>
+      <c r="B15" s="45">
         <f>'[1]Balance Sheet'!$F$22</f>
         <v>2</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -1529,41 +1632,41 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
+        <v>28</v>
+      </c>
+      <c r="B16" s="45">
         <f>'[1]Balance Sheet'!$F$28</f>
         <v>3123</v>
       </c>
       <c r="G16" s="26">
         <f>B12</f>
-        <v>37514.546475858886</v>
+        <v>19998.559034191887</v>
       </c>
       <c r="H16" s="25">
         <f>I16-0.005</f>
-        <v>3.0402449812245599E-2</v>
+        <v>4.797538814674393E-2</v>
       </c>
       <c r="I16" s="25">
         <f>J16-0.005</f>
-        <v>3.54024498122456E-2</v>
+        <v>5.2975388146743928E-2</v>
       </c>
       <c r="J16" s="25">
-        <v>4.0402449812245597E-2</v>
+        <v>5.7975388146743925E-2</v>
       </c>
       <c r="K16" s="25">
         <f>J16+0.005</f>
-        <v>4.5402449812245595E-2</v>
+        <v>6.297538814674393E-2</v>
       </c>
       <c r="L16" s="25">
         <f>K16+0.005</f>
-        <v>5.0402449812245592E-2</v>
+        <v>6.7975388146743934E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
+        <v>29</v>
+      </c>
+      <c r="B17" s="45">
         <f>'[1]Balance Sheet'!$F$23</f>
         <v>0</v>
       </c>
@@ -1572,27 +1675,27 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="H17" s="13">
-        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12" ca="1"/>
-        <v>38955.738924016259</v>
+        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12"/>
+        <v>20738.04588044636</v>
       </c>
       <c r="I17" s="13">
-        <v>31204.748093147573</v>
+        <v>18279.268545146788</v>
       </c>
       <c r="J17" s="13">
-        <v>26004.560257992824</v>
+        <v>16333.77666838466</v>
       </c>
       <c r="K17" s="13">
-        <v>22274.37262742137</v>
+        <v>14756.215972996846</v>
       </c>
       <c r="L17" s="15">
-        <v>19468.401621756842</v>
+        <v>13451.376096116624</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="45">
         <f>'[1]Balance Sheet'!$F$24</f>
         <v>61</v>
       </c>
@@ -1601,26 +1704,26 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H18" s="13">
-        <v>50762.792125788292</v>
+        <v>23507.18452249312</v>
       </c>
       <c r="I18" s="22">
-        <v>38226.516443891356</v>
+        <v>20363.981477702382</v>
       </c>
       <c r="J18" s="24">
-        <v>30626.789961925686</v>
+        <v>17952.977085372822</v>
       </c>
       <c r="K18" s="17">
-        <v>25527.980580474767</v>
+        <v>16045.224202434993</v>
       </c>
       <c r="L18" s="15">
-        <v>21870.42512103431</v>
+        <v>14498.211449864146</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="45">
         <f>'[1]Balance Sheet'!$F$30</f>
         <v>79</v>
       </c>
@@ -1628,26 +1731,26 @@
         <v>0.02</v>
       </c>
       <c r="H19" s="13">
-        <v>73920.107443579327</v>
+        <v>27266.171322328199</v>
       </c>
       <c r="I19" s="23">
-        <v>49807.149414444641</v>
+        <v>23080.897107396344</v>
       </c>
       <c r="J19" s="12">
-        <v>37514.546475858886</v>
+        <v>19998.559034191887</v>
       </c>
       <c r="K19" s="18">
-        <v>30062.413011915662</v>
+        <v>17634.173464409418</v>
       </c>
       <c r="L19" s="15">
-        <v>25062.524260305097</v>
+        <v>15763.249385015602</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1">
+        <v>36</v>
+      </c>
+      <c r="B20" s="45">
         <f>'[1]Balance Sheet'!$F$29</f>
         <v>135</v>
       </c>
@@ -1656,26 +1759,26 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H20" s="13">
-        <v>139941.89373766878</v>
+        <v>32661.250960215191</v>
       </c>
       <c r="I20" s="20">
-        <v>72520.384012088427</v>
+        <v>26768.993410417326</v>
       </c>
       <c r="J20" s="21">
-        <v>48874.160777283214</v>
+        <v>22664.476955923834</v>
       </c>
       <c r="K20" s="19">
-        <v>36819.339542432499</v>
+        <v>19641.538268532982</v>
       </c>
       <c r="L20" s="15">
-        <v>29511.234144942646</v>
+        <v>17322.650673170836</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1">
+        <v>33</v>
+      </c>
+      <c r="B21" s="45">
         <f>'[1]Balance Sheet'!$F$31</f>
         <v>31</v>
       </c>
@@ -1684,113 +1787,122 @@
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="H21" s="14">
-        <v>1846461.0609523756</v>
+        <v>41057.700912803441</v>
       </c>
       <c r="I21" s="14">
-        <v>137276.09079736884</v>
+        <v>32062.327579046978</v>
       </c>
       <c r="J21" s="14">
-        <v>71153.908803411527</v>
+        <v>26283.346060226686</v>
       </c>
       <c r="K21" s="14">
-        <v>47963.182838063418</v>
+        <v>22257.649448951077</v>
       </c>
       <c r="L21" s="16">
-        <v>36140.422318009769</v>
+        <v>19292.686681405674</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1">
+        <v>32</v>
+      </c>
+      <c r="B22" s="45">
         <f>'[1]Balance Sheet'!$F$32</f>
         <v>190</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
+        <v>34</v>
+      </c>
+      <c r="B23" s="45">
         <f>'[1]Balance Sheet'!$F$3</f>
         <v>619</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="I23" s="27">
         <f>IF(J22="Bull",I20,IF(J22="Bear",K18,IF(J22="Central",J19,"Error")))</f>
-        <v>37514.546475858886</v>
+        <v>19998.559034191887</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="L23" s="27">
         <f>I23-B25</f>
-        <v>34528.546475858886</v>
+        <v>17012.559034191887</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1">
+        <v>35</v>
+      </c>
+      <c r="B24" s="45">
         <f>'[1]Balance Sheet'!$F$12</f>
         <v>16</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J24" s="27">
-        <f>L23/B36</f>
-        <v>39.416148945044391</v>
+        <f>L23/B36*2</f>
+        <v>38.841458982173258</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>26</v>
+      <c r="A25" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <f>SUM(B15:B22)+(-1*SUM(B23:B24))</f>
         <v>2986</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25" s="27">
         <f>J24-B29</f>
-        <v>3.4361489450443941</v>
+        <v>2.0214589821732574</v>
       </c>
       <c r="K25" s="10">
         <f>J25/B29</f>
-        <v>9.5501638272495679E-2</v>
+        <v>5.4901113041098785E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="5">
         <f>B12-B25</f>
-        <v>34528.546475858886</v>
+        <v>17012.559034191887</v>
       </c>
       <c r="D26" s="5">
         <f>D12-B25</f>
-        <v>32442.875993324378</v>
+        <v>15678.29657493173</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9">
+        <f>B26/B36</f>
+        <v>19.420729491086629</v>
+      </c>
+      <c r="D27" s="9">
+        <f>D26/B36</f>
+        <v>17.897598829830741</v>
+      </c>
       <c r="G27" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -1799,244 +1911,245 @@
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="9">
-        <f>B26/B36</f>
-        <v>39.416148945044391</v>
-      </c>
-      <c r="D28" s="9">
-        <f>D26/B36</f>
-        <v>37.035246567721892</v>
+      <c r="A28" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="27">
+        <f>B27*2</f>
+        <v>38.841458982173258</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27">
+        <f t="shared" ref="C28:D28" si="1">D27*2</f>
+        <v>35.795197659661483</v>
       </c>
       <c r="G28" s="26">
         <f>D12</f>
-        <v>35428.875993324378</v>
+        <v>18664.29657493173</v>
       </c>
       <c r="H28" s="25">
         <f>I28-0.005</f>
-        <v>3.0402449812245599E-2</v>
+        <v>4.797538814674393E-2</v>
       </c>
       <c r="I28" s="25">
         <f>J28-0.005</f>
-        <v>3.54024498122456E-2</v>
+        <v>5.2975388146743928E-2</v>
       </c>
       <c r="J28" s="25">
-        <v>4.0402449812245597E-2</v>
+        <v>5.7975388146743925E-2</v>
       </c>
       <c r="K28" s="25">
         <f>J28+0.005</f>
-        <v>4.5402449812245595E-2</v>
+        <v>6.297538814674393E-2</v>
       </c>
       <c r="L28" s="25">
         <f>K28+0.005</f>
-        <v>5.0402449812245592E-2</v>
+        <v>6.7975388146743934E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="47">
+        <f>DCF!$I$9</f>
+        <v>36.82</v>
+      </c>
+      <c r="D29" s="47">
+        <f>DCF!$I$9</f>
+        <v>36.82</v>
+      </c>
+      <c r="G29" s="51">
+        <f>G30-1</f>
+        <v>10.08</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13" ca="1"/>
+        <v>16801.597649603467</v>
+      </c>
+      <c r="I29" s="13">
+        <v>16435.025999863796</v>
+      </c>
+      <c r="J29" s="13">
+        <v>16078.479161989722</v>
+      </c>
+      <c r="K29" s="13">
+        <v>15731.634626740322</v>
+      </c>
+      <c r="L29" s="15">
+        <v>15394.181751006807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
         <v>22</v>
-      </c>
-      <c r="B29">
-        <f>DCF!$I$9</f>
-        <v>35.979999999999997</v>
-      </c>
-      <c r="D29">
-        <f>DCF!$I$9</f>
-        <v>35.979999999999997</v>
-      </c>
-      <c r="G29" s="33">
-        <f>G30-1</f>
-        <v>20.92</v>
-      </c>
-      <c r="H29" s="13">
-        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13"/>
-        <v>34165.715863891761</v>
-      </c>
-      <c r="I29" s="13">
-        <v>33378.766525279636</v>
-      </c>
-      <c r="J29" s="13">
-        <v>32613.998305775287</v>
-      </c>
-      <c r="K29" s="13">
-        <v>31870.680599620049</v>
-      </c>
-      <c r="L29" s="15">
-        <v>31148.110245960645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
-        <v>23</v>
       </c>
       <c r="B30" s="9">
         <f>B28-B29</f>
-        <v>3.4361489450443941</v>
+        <v>2.0214589821732574</v>
       </c>
       <c r="C30" s="10">
         <f>B30/B29</f>
-        <v>9.5501638272495679E-2</v>
+        <v>5.4901113041098785E-2</v>
       </c>
       <c r="D30" s="9">
         <f>D28-D29</f>
-        <v>1.0552465677218947</v>
+        <v>-1.0248023403385176</v>
       </c>
       <c r="E30" s="10">
         <f>D30/D29</f>
-        <v>2.932869838026389E-2</v>
-      </c>
-      <c r="G30" s="33">
+        <v>-2.7832763181382877E-2</v>
+      </c>
+      <c r="G30" s="51">
         <f>G31-1</f>
-        <v>21.92</v>
+        <v>11.08</v>
       </c>
       <c r="H30" s="13">
-        <v>35640.922027802895</v>
+        <v>18157.198131881374</v>
       </c>
       <c r="I30" s="22">
-        <v>34818.695895583951</v>
+        <v>17758.745692613495</v>
       </c>
       <c r="J30" s="24">
-        <v>34019.658350656675</v>
+        <v>17371.213567192612</v>
       </c>
       <c r="K30" s="17">
-        <v>33243.045378925613</v>
+        <v>16994.250037204187</v>
       </c>
       <c r="L30" s="15">
-        <v>32488.121671328492</v>
+        <v>16627.516334147633</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G31" s="33">
-        <v>22.92</v>
+      <c r="G31" s="51">
+        <v>12.08</v>
       </c>
       <c r="H31" s="13">
-        <v>37116.128191714037</v>
+        <v>19512.798614159277</v>
       </c>
       <c r="I31" s="23">
-        <v>36258.625265888259</v>
+        <v>19082.465385363193</v>
       </c>
       <c r="J31" s="12">
-        <v>35425.318395538074</v>
+        <v>18663.947972395497</v>
       </c>
       <c r="K31" s="18">
-        <v>34615.410158231178</v>
+        <v>18256.865447668049</v>
       </c>
       <c r="L31" s="15">
-        <v>33828.133096696336</v>
+        <v>17860.850917288459</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G32" s="33">
+      <c r="G32" s="51">
         <f>G31+1</f>
-        <v>23.92</v>
+        <v>13.08</v>
       </c>
       <c r="H32" s="13">
-        <v>38591.334355625171</v>
+        <v>20868.399096437184</v>
       </c>
       <c r="I32" s="20">
-        <v>37698.554636192574</v>
+        <v>20406.185078112892</v>
       </c>
       <c r="J32" s="21">
-        <v>36830.978440419465</v>
+        <v>19956.682377598383</v>
       </c>
       <c r="K32" s="19">
-        <v>35987.774937536749</v>
+        <v>19519.480858131912</v>
       </c>
       <c r="L32" s="15">
-        <v>35168.144522064184</v>
+        <v>19094.185500429281</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G33" s="33">
+      <c r="G33" s="51">
         <f>G32+1</f>
-        <v>24.92</v>
+        <v>14.08</v>
       </c>
       <c r="H33" s="14">
-        <v>40066.540519536313</v>
+        <v>22223.999578715087</v>
       </c>
       <c r="I33" s="14">
-        <v>39138.484006496888</v>
+        <v>21729.904770862591</v>
       </c>
       <c r="J33" s="14">
-        <v>38236.638485300857</v>
+        <v>21249.416782801272</v>
       </c>
       <c r="K33" s="14">
-        <v>37360.139716842314</v>
+        <v>20782.096268595775</v>
       </c>
       <c r="L33" s="16">
-        <v>36508.155947432031</v>
+        <v>20327.520083570107</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="B34" s="48">
         <f>'[1]Income Statement'!$F$24</f>
         <v>873</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="48">
+        <v>3</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="27">
+        <f>IF(J34="Bull",I32,IF(J34="Bear",K30,IF(J34="Central",J31,"Error")))</f>
+        <v>18663.947972395497</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="27">
+        <f>I35-B37</f>
+        <v>18663.947972395497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
         <v>43</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35">
-        <f>IF(J34="Bull",I32,IF(J34="Bear",K30,IF(J34="Central",J31,"Error")))</f>
-        <v>35425.318395538074</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35">
-        <f>I35-B37</f>
-        <v>35425.318395538074</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
-        <v>44</v>
       </c>
       <c r="B36" s="3">
         <f>B34+B35</f>
         <v>876</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J36" s="27">
-        <f>L35/B36</f>
-        <v>40.439861182121092</v>
+        <f>L35/B36*2</f>
+        <v>42.611753361633554</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I37" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J37" s="27">
         <f>J36-B29</f>
-        <v>4.4598611821210952</v>
+        <v>5.7917533616335533</v>
       </c>
       <c r="K37" s="10">
         <f>J37/B29</f>
-        <v>0.12395389611231505</v>
+        <v>0.15729911356962392</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22 J34" xr:uid="{EAB0D90E-FD11-4473-987B-7DCF4EF16CCE}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
@@ -2050,1095 +2163,1739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1EAA58-ADB1-46F6-8416-C90E04EF858D}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+      <selection pane="topRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="37"/>
-    <col min="11" max="11" width="8.88671875" style="37"/>
-    <col min="16" max="16" width="8.88671875" style="37"/>
-    <col min="23" max="23" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="54" customWidth="1"/>
+    <col min="3" max="21" width="8.88671875" style="54"/>
+    <col min="22" max="22" width="37.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.77734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.88671875" style="54"/>
+    <col min="27" max="27" width="6.88671875" style="54" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="X1" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+    </row>
+    <row r="2" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="37">
         <v>2025</v>
       </c>
-      <c r="C2" s="38">
+      <c r="D2" s="37">
         <v>2026</v>
       </c>
-      <c r="D2" s="38">
+      <c r="E2" s="37">
         <v>2027</v>
       </c>
-      <c r="E2" s="38">
+      <c r="F2" s="37">
         <v>2028</v>
       </c>
-      <c r="F2" s="39">
+      <c r="G2" s="38">
         <v>2029</v>
       </c>
-      <c r="G2" s="38">
+      <c r="H2" s="37">
+        <v>2024</v>
+      </c>
+      <c r="I2" s="37">
         <v>2025</v>
       </c>
-      <c r="H2" s="38">
+      <c r="J2" s="37">
         <v>2026</v>
       </c>
-      <c r="I2" s="38">
+      <c r="K2" s="37">
         <v>2027</v>
       </c>
-      <c r="J2" s="38">
+      <c r="L2" s="37">
         <v>2028</v>
       </c>
-      <c r="K2" s="39">
+      <c r="M2" s="38">
         <v>2029</v>
       </c>
-      <c r="L2" s="38">
+      <c r="N2" s="37">
+        <v>2024</v>
+      </c>
+      <c r="O2" s="37">
         <v>2025</v>
       </c>
-      <c r="M2" s="38">
+      <c r="P2" s="37">
         <v>2026</v>
       </c>
-      <c r="N2" s="38">
+      <c r="Q2" s="37">
         <v>2027</v>
       </c>
-      <c r="O2" s="38">
+      <c r="R2" s="37">
         <v>2028</v>
       </c>
-      <c r="P2" s="39">
+      <c r="S2" s="38">
         <v>2029</v>
       </c>
-      <c r="Q2" s="43">
-        <v>2025</v>
-      </c>
-      <c r="R2" s="43">
-        <v>2026</v>
-      </c>
-      <c r="S2" s="43">
-        <v>2027</v>
-      </c>
-      <c r="T2" s="43">
-        <v>2028</v>
-      </c>
-      <c r="U2" s="43">
-        <v>2029</v>
-      </c>
-      <c r="W2" s="34" t="s">
+      <c r="T2" s="71">
+        <v>2024</v>
+      </c>
+      <c r="U2" s="60"/>
+      <c r="V2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="8">
+      <c r="W2" s="46">
         <f>'[1]Balance Sheet'!$N$7</f>
         <v>0.10567499999999999</v>
       </c>
-      <c r="Y2" s="8">
-        <f>'[1]Balance Sheet'!$N$7</f>
-        <v>0.10567499999999999</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>'[1]Balance Sheet'!$N$7</f>
-        <v>0.10567499999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="61">
+        <f>'[1]Income Statement'!$F$43</f>
+        <v>2305</v>
+      </c>
+      <c r="C3" s="45">
+        <f>'[1]Income Statement'!G43</f>
+        <v>2413.6991302341535</v>
+      </c>
+      <c r="D3" s="45">
+        <f>'[1]Income Statement'!H43</f>
+        <v>2527.5242912334529</v>
+      </c>
+      <c r="E3" s="45">
+        <f>'[1]Income Statement'!I43</f>
+        <v>2646.7172162238094</v>
+      </c>
+      <c r="F3" s="45">
+        <f>'[1]Income Statement'!J43</f>
+        <v>2771.5310380803335</v>
+      </c>
+      <c r="G3" s="49">
+        <f>'[1]Income Statement'!K43</f>
+        <v>2902.230826911697</v>
+      </c>
+      <c r="H3" s="57">
+        <f>'[1]Income Statement'!$F$44</f>
+        <v>1824</v>
+      </c>
+      <c r="I3" s="45">
         <f>'[1]Income Statement'!G44</f>
-        <v>2413.6991302341535</v>
-      </c>
-      <c r="C3" s="1">
+        <v>1972.7566005307594</v>
+      </c>
+      <c r="J3" s="45">
         <f>'[1]Income Statement'!H44</f>
-        <v>2527.5242912334529</v>
-      </c>
-      <c r="D3" s="1">
+        <v>2133.6450684965343</v>
+      </c>
+      <c r="K3" s="45">
         <f>'[1]Income Statement'!I44</f>
-        <v>2646.7172162238094</v>
-      </c>
-      <c r="E3" s="1">
+        <v>2307.6548202118656</v>
+      </c>
+      <c r="L3" s="45">
         <f>'[1]Income Statement'!J44</f>
-        <v>2771.5310380803335</v>
-      </c>
-      <c r="F3" s="40">
+        <v>2495.8559639909986</v>
+      </c>
+      <c r="M3" s="49">
         <f>'[1]Income Statement'!K44</f>
-        <v>2902.230826911697</v>
-      </c>
-      <c r="G3" s="1">
+        <v>2699.405880996329</v>
+      </c>
+      <c r="N3" s="57">
+        <f>'[1]Income Statement'!$F$45</f>
+        <v>1681</v>
+      </c>
+      <c r="O3" s="45">
         <f>'[1]Income Statement'!G45</f>
-        <v>1972.7566005307594</v>
-      </c>
-      <c r="H3" s="1">
+        <v>1789.1296699937484</v>
+      </c>
+      <c r="P3" s="45">
         <f>'[1]Income Statement'!H45</f>
-        <v>2133.6450684965343</v>
-      </c>
-      <c r="I3" s="1">
+        <v>1904.2147388768226</v>
+      </c>
+      <c r="Q3" s="45">
         <f>'[1]Income Statement'!I45</f>
-        <v>2307.6548202118656</v>
-      </c>
-      <c r="J3" s="1">
+        <v>2026.7026099725886</v>
+      </c>
+      <c r="R3" s="45">
         <f>'[1]Income Statement'!J45</f>
-        <v>2495.8559639909986</v>
-      </c>
-      <c r="K3" s="40">
+        <v>2157.0694656488554</v>
+      </c>
+      <c r="S3" s="50">
         <f>'[1]Income Statement'!K45</f>
-        <v>2699.405880996329</v>
-      </c>
-      <c r="L3" s="1">
-        <f>'[1]Income Statement'!G46</f>
-        <v>1789.1296699937484</v>
-      </c>
-      <c r="M3" s="1">
-        <f>'[1]Income Statement'!H46</f>
-        <v>1904.2147388768226</v>
-      </c>
-      <c r="N3" s="1">
-        <f>'[1]Income Statement'!I46</f>
-        <v>2026.7026099725886</v>
-      </c>
-      <c r="O3" s="1">
-        <f>'[1]Income Statement'!J46</f>
-        <v>2157.0694656488554</v>
-      </c>
-      <c r="P3" s="46">
-        <f>'[1]Income Statement'!K46</f>
         <v>2295.8221185186958</v>
       </c>
-      <c r="Q3" s="44">
-        <v>6175.5854007586613</v>
-      </c>
-      <c r="R3" s="44">
-        <v>6565.3840986068099</v>
-      </c>
-      <c r="S3" s="44">
-        <v>6981.074646408264</v>
-      </c>
-      <c r="T3" s="44">
-        <v>7424.456467720187</v>
-      </c>
-      <c r="U3" s="44">
-        <v>7897.4588264267222</v>
-      </c>
-      <c r="W3" s="34" t="s">
+      <c r="T3" s="73">
+        <f>'[1]Income Statement'!F2</f>
+        <v>5810</v>
+      </c>
+      <c r="U3" s="60"/>
+      <c r="V3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="8">
+      <c r="W3" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Y3" s="8">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1">
-        <f>(B$3/Q$3)*Q4</f>
-        <v>-714.38197475327559</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:F4" si="0">C3/R3*R4</f>
-        <v>-748.07078139563498</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="AA3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70">
+        <v>265</v>
+      </c>
+      <c r="C4" s="5">
+        <f>C3*$B$5</f>
+        <v>277.49686312887229</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:G4" si="0">D3*$B$5</f>
+        <v>290.58305300514752</v>
+      </c>
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>-783.34828390812493</v>
-      </c>
-      <c r="E4" s="1">
+        <v>304.28636108429913</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>-820.28940196939595</v>
-      </c>
-      <c r="F4" s="40">
+        <v>318.63588941053723</v>
+      </c>
+      <c r="G4" s="40">
         <f t="shared" si="0"/>
-        <v>-858.97258831836211</v>
-      </c>
-      <c r="G4" s="1">
-        <f>G3/Q3*Q4</f>
-        <v>-583.87631595906737</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:K4" si="1">H3/R3*R4</f>
-        <v>-631.49443870714572</v>
-      </c>
-      <c r="I4" s="1">
+        <v>333.66211242151832</v>
+      </c>
+      <c r="H4" s="70">
+        <v>437</v>
+      </c>
+      <c r="I4" s="5">
+        <f>I3*$H$5</f>
+        <v>472.63960221049444</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:M4" si="1">J3*$H$5</f>
+        <v>511.18579766062805</v>
+      </c>
+      <c r="K4" s="5">
         <f t="shared" si="1"/>
-        <v>-682.99606477959924</v>
-      </c>
-      <c r="J4" s="1">
+        <v>552.87563400909278</v>
+      </c>
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
-        <v>-738.69791388732926</v>
-      </c>
-      <c r="K4" s="40">
+        <v>597.96549137284342</v>
+      </c>
+      <c r="M4" s="40">
         <f t="shared" si="1"/>
-        <v>-798.94253586597108</v>
-      </c>
-      <c r="L4" s="1">
-        <f>L3/Q3*Q4</f>
-        <v>-529.52829568937182</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:P4" si="2">M3/R3*R4</f>
-        <v>-563.58999697744082</v>
-      </c>
-      <c r="N4" s="1">
+        <v>646.73265898870386</v>
+      </c>
+      <c r="N4" s="70">
+        <v>399</v>
+      </c>
+      <c r="O4" s="5">
+        <f>O3*$N$5</f>
+        <v>424.66551952855775</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:S4" si="2">P3*$N$5</f>
+        <v>451.98196360015004</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
-        <v>-599.84270392862948</v>
-      </c>
-      <c r="O4" s="1">
+        <v>481.05552729272029</v>
+      </c>
+      <c r="R4" s="5">
         <f t="shared" si="2"/>
-        <v>-638.42735212848697</v>
-      </c>
-      <c r="P4" s="40">
+        <v>511.99923664122144</v>
+      </c>
+      <c r="S4" s="40">
         <f t="shared" si="2"/>
-        <v>-679.49394278918635</v>
-      </c>
-      <c r="Q4" s="44">
-        <v>-1827.7865864017149</v>
-      </c>
-      <c r="R4" s="44">
-        <v>-1943.1552170802215</v>
-      </c>
-      <c r="S4" s="44">
-        <v>-2066.1870526163539</v>
-      </c>
-      <c r="T4" s="44">
-        <v>-2197.414667985212</v>
-      </c>
-      <c r="U4" s="44">
-        <v>-2337.4090669735197</v>
-      </c>
-      <c r="W4" s="34" t="s">
+        <v>544.93338803626386</v>
+      </c>
+      <c r="T4" s="74">
+        <f>'[1]Income Statement'!F8</f>
+        <v>886</v>
+      </c>
+      <c r="U4" s="60"/>
+      <c r="V4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="8">
-        <f>(X5*(1-X2)*(X6/(X6+X8)))+(X7*(X7/(X7+X5)))</f>
-        <v>3.6068361914094398E-2</v>
-      </c>
-      <c r="Y4" s="8">
-        <f>(Y5*(1-Y2)*(Y6/(Y6+Y8)))+(Y7*(Y7/(Y7+Y5)))</f>
-        <v>3.6068361914094398E-2</v>
-      </c>
-      <c r="Z4" s="8">
-        <f>(Z5*(1-Z2)*(Z6/(Z6+Z8)))+(Z7*(Z7/(Z7+Z5)))</f>
-        <v>3.6068361914094398E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="5">
-        <f>SUM(B3:B4)</f>
-        <v>1699.3171554808778</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:P5" si="3">SUM(C3:C4)</f>
-        <v>1779.4535098378178</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="3"/>
-        <v>1863.3689323156846</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="3"/>
-        <v>1951.2416361109376</v>
-      </c>
-      <c r="F5" s="41">
-        <f t="shared" si="3"/>
-        <v>2043.2582385933349</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="3"/>
-        <v>1388.8802845716921</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>1502.1506297893886</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="3"/>
-        <v>1624.6587554322664</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="3"/>
-        <v>1757.1580501036692</v>
-      </c>
-      <c r="K5" s="41">
-        <f t="shared" si="3"/>
-        <v>1900.463345130358</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="3"/>
-        <v>1259.6013743043766</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="3"/>
-        <v>1340.6247418993817</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="3"/>
-        <v>1426.8599060439592</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="3"/>
-        <v>1518.6421135203684</v>
-      </c>
-      <c r="P5" s="41">
-        <f t="shared" si="3"/>
-        <v>1616.3281757295094</v>
-      </c>
-      <c r="Q5" s="45">
-        <v>4347.7988143569464</v>
-      </c>
-      <c r="R5" s="45">
-        <v>4622.2288815265883</v>
-      </c>
-      <c r="S5" s="45">
-        <v>4914.8875937919101</v>
-      </c>
-      <c r="T5" s="45">
-        <v>5227.041799734975</v>
-      </c>
-      <c r="U5" s="45">
-        <v>5560.0497594532026</v>
-      </c>
-      <c r="W5" s="34" t="s">
+      <c r="W4" s="8">
+        <f>(((W8/(W8+W6))*W7)+((W6/(W8+W6))*W5))*(1-W2)</f>
+        <v>5.7975388146743925E-2</v>
+      </c>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="AA4" s="64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10">
+        <f>B4/B3</f>
+        <v>0.11496746203904555</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="10">
+        <f>H4/H3</f>
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="10">
+        <f>N4/N3</f>
+        <v>0.23735871505056513</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="8">
+      <c r="W5" s="8">
         <f>0.056</f>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="Y5" s="8">
-        <f>0.056</f>
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="Z5" s="8">
-        <f>0.056</f>
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6" si="4">B$3/Q$3*Q6</f>
-        <v>-1360.9186211028596</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:F6" si="5">C$3/R$3*R6</f>
-        <v>-1425.0967861498636</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="5"/>
-        <v>-1492.3014634400924</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="5"/>
-        <v>-1562.6753771594383</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="5"/>
-        <v>-1636.3679820772513</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6" si="6">G$3/Q$3*Q6</f>
-        <v>-1112.3015122043967</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6" si="7">H$3/R$3*R6</f>
-        <v>-1203.0154331039303</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6" si="8">I$3/S$3*S6</f>
-        <v>-1301.1275417742045</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6" si="9">J$3/T$3*T6</f>
-        <v>-1407.2411985567014</v>
-      </c>
-      <c r="K6" s="40">
-        <f t="shared" ref="K6" si="10">K$3/U$3*U6</f>
-        <v>-1522.0089709383496</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" ref="L6" si="11">L$3/Q$3*Q6</f>
-        <v>-1008.7669390782356</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" ref="M6" si="12">M$3/R$3*R6</f>
-        <v>-1073.6554793656437</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" ref="N6" si="13">N$3/S$3*S6</f>
-        <v>-1142.7179497230422</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" ref="O6" si="14">O$3/T$3*T6</f>
-        <v>-1216.2228365757996</v>
-      </c>
-      <c r="P6" s="40">
-        <f t="shared" ref="P6" si="15">P$3/U$3*U6</f>
-        <v>-1294.45589663398</v>
-      </c>
-      <c r="Q6" s="44">
-        <v>-3481.987072385492</v>
-      </c>
-      <c r="R6" s="44">
-        <v>-3701.7676986194379</v>
-      </c>
-      <c r="S6" s="44">
-        <v>-3936.1469549373396</v>
-      </c>
-      <c r="T6" s="44">
-        <v>-4186.1394122919392</v>
-      </c>
-      <c r="U6" s="44">
-        <v>-4452.8328496495815</v>
-      </c>
-      <c r="W6" s="34" t="s">
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+    </row>
+    <row r="6" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B4*(1-$W$2)</f>
+        <v>236.99612500000001</v>
+      </c>
+      <c r="C6" s="5">
+        <f>C4*(1-$W$2)</f>
+        <v>248.17238211772872</v>
+      </c>
+      <c r="D6" s="5">
+        <f>D4*(1-$W$2)</f>
+        <v>259.87568887882856</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E4*(1-$W$2)</f>
+        <v>272.13089987671583</v>
+      </c>
+      <c r="F6" s="5">
+        <f>F4*(1-$W$2)</f>
+        <v>284.96404179707872</v>
+      </c>
+      <c r="G6" s="40">
+        <f>G4*(1-$W$2)</f>
+        <v>298.40236869137436</v>
+      </c>
+      <c r="H6" s="5">
+        <f>H4*(1-$W$2)</f>
+        <v>390.82002500000004</v>
+      </c>
+      <c r="I6" s="5">
+        <f>I4*(1-$W$2)</f>
+        <v>422.69341224690044</v>
+      </c>
+      <c r="J6" s="5">
+        <f>J4*(1-$W$2)</f>
+        <v>457.16623849284122</v>
+      </c>
+      <c r="K6" s="5">
+        <f>K4*(1-$W$2)</f>
+        <v>494.45050138518189</v>
+      </c>
+      <c r="L6" s="5">
+        <f>L4*(1-$W$2)</f>
+        <v>534.77548807201822</v>
+      </c>
+      <c r="M6" s="40">
+        <f>M4*(1-$W$2)</f>
+        <v>578.38918525007261</v>
+      </c>
+      <c r="N6" s="5">
+        <f>N4*(1-$W$2)</f>
+        <v>356.83567500000004</v>
+      </c>
+      <c r="O6" s="5">
+        <f>O4*(1-$W$2)</f>
+        <v>379.7889907523774</v>
+      </c>
+      <c r="P6" s="5">
+        <f>P4*(1-$W$2)</f>
+        <v>404.21876959670419</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>Q4*(1-$W$2)</f>
+        <v>430.21998444606209</v>
+      </c>
+      <c r="R6" s="5">
+        <f>R4*(1-$W$2)</f>
+        <v>457.89371730916037</v>
+      </c>
+      <c r="S6" s="40">
+        <f>S4*(1-$W$2)</f>
+        <v>487.3475522555317</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <f>SUM(B5:B6)</f>
-        <v>338.39853437801821</v>
-      </c>
-      <c r="C7" s="5">
-        <f>SUM(C5:C6)</f>
-        <v>354.35672368795417</v>
-      </c>
-      <c r="D7" s="5">
-        <f>SUM(D5:D6)</f>
-        <v>371.06746887559211</v>
-      </c>
-      <c r="E7" s="5">
-        <f>SUM(E5:E6)</f>
-        <v>388.56625895149932</v>
-      </c>
-      <c r="F7" s="41">
-        <f>SUM(F5:F6)</f>
-        <v>406.89025651608358</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:P7" si="16">SUM(G5:G6)</f>
-        <v>276.57877236729541</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="16"/>
-        <v>299.13519668545837</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="16"/>
-        <v>323.53121365806192</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="16"/>
-        <v>349.91685154696779</v>
-      </c>
-      <c r="K7" s="41">
-        <f t="shared" si="16"/>
-        <v>378.45437419200834</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="16"/>
-        <v>250.83443522614095</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="16"/>
-        <v>266.96926253373795</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="16"/>
-        <v>284.14195632091696</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="16"/>
-        <v>302.41927694456876</v>
-      </c>
-      <c r="P7" s="41">
-        <f t="shared" si="16"/>
-        <v>321.87227909552939</v>
-      </c>
-      <c r="Q7" s="45">
-        <v>865.81174197145447</v>
-      </c>
-      <c r="R7" s="45">
-        <v>920.46118290715049</v>
-      </c>
-      <c r="S7" s="45">
-        <v>978.74063885457053</v>
-      </c>
-      <c r="T7" s="45">
-        <v>1040.9023874430359</v>
-      </c>
-      <c r="U7" s="45">
-        <v>1107.2169098036211</v>
-      </c>
-      <c r="W7" s="34" t="s">
+      <c r="W6" s="2">
+        <f>'[1]Balance Sheet'!$F$49</f>
+        <v>2986</v>
+      </c>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+    </row>
+    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="59"/>
+      <c r="V7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="8">
-        <f>X3+(X10*X11)</f>
+      <c r="W7" s="8">
+        <f>W3+(W10*W11)</f>
         <v>6.6460000000000005E-2</v>
       </c>
-      <c r="Y7" s="8">
-        <f>Y3+(Y10*Y11)</f>
-        <v>6.6460000000000005E-2</v>
-      </c>
-      <c r="Z7" s="8">
-        <f>Z3+(Z10*Z11)</f>
-        <v>6.6460000000000005E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="5">
-        <f>B7*(1-$X$2)</f>
-        <v>302.63826925762118</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:F8" si="17">C7*(1-$X$2)</f>
-        <v>316.91007691222961</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="17"/>
-        <v>331.85491410216395</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="17"/>
-        <v>347.50451953679965</v>
-      </c>
-      <c r="F8" s="41">
-        <f t="shared" si="17"/>
-        <v>363.89212865874646</v>
-      </c>
-      <c r="G8" s="5">
-        <f>G7*(1-$Y$2)</f>
-        <v>247.35131059738148</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" ref="H8:K8" si="18">H7*(1-$Y$2)</f>
-        <v>267.52408477572254</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="18"/>
-        <v>289.34205265474623</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="18"/>
-        <v>312.93938825974197</v>
-      </c>
-      <c r="K8" s="41">
-        <f t="shared" si="18"/>
-        <v>338.4612081992679</v>
-      </c>
-      <c r="L8" s="5">
-        <f>L7*(1-$Z$2)</f>
-        <v>224.3275062836185</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ref="M8:P8" si="19">M7*(1-$Z$2)</f>
-        <v>238.75728571548521</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="19"/>
-        <v>254.11525508670408</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="19"/>
-        <v>270.46111985345146</v>
-      </c>
-      <c r="P8" s="41">
-        <f t="shared" si="19"/>
-        <v>287.85842600210935</v>
-      </c>
-      <c r="W8" s="34" t="s">
+    </row>
+    <row r="8" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="63">
+        <v>213</v>
+      </c>
+      <c r="C8" s="68">
+        <f>$B$9*'[1]Income Statement'!G39</f>
+        <v>224.90961461788868</v>
+      </c>
+      <c r="D8" s="68">
+        <f>$B$9*'[1]Income Statement'!H39</f>
+        <v>239.10575461472399</v>
+      </c>
+      <c r="E8" s="68">
+        <f>$B$9*'[1]Income Statement'!I39</f>
+        <v>254.24485396145781</v>
+      </c>
+      <c r="F8" s="68">
+        <f>$B$9*'[1]Income Statement'!J39</f>
+        <v>270.39244614722719</v>
+      </c>
+      <c r="G8" s="69">
+        <f>$B$9*'[1]Income Statement'!K39</f>
+        <v>287.61879333642975</v>
+      </c>
+      <c r="H8" s="67">
+        <v>98</v>
+      </c>
+      <c r="I8" s="65">
+        <f>$H$9*'[1]Income Statement'!G39</f>
+        <v>103.47954099790184</v>
+      </c>
+      <c r="J8" s="65">
+        <f>$H$9*'[1]Income Statement'!H39</f>
+        <v>110.01109836733779</v>
+      </c>
+      <c r="K8" s="65">
+        <f>$H$9*'[1]Income Statement'!I39</f>
+        <v>116.97650557851111</v>
+      </c>
+      <c r="L8" s="65">
+        <f>$H$9*'[1]Income Statement'!J39</f>
+        <v>124.40591418980407</v>
+      </c>
+      <c r="M8" s="66">
+        <f>$H$9*'[1]Income Statement'!K39</f>
+        <v>132.33165139422587</v>
+      </c>
+      <c r="N8" s="67">
+        <v>62</v>
+      </c>
+      <c r="O8" s="65">
+        <f>$N$9*'[1]Income Statement'!G39</f>
+        <v>65.466648386427678</v>
+      </c>
+      <c r="P8" s="65">
+        <f>$N$9*'[1]Income Statement'!H39</f>
+        <v>69.598858150764727</v>
+      </c>
+      <c r="Q8" s="65">
+        <f>$N$9*'[1]Income Statement'!I39</f>
+        <v>74.00554434558866</v>
+      </c>
+      <c r="R8" s="65">
+        <f>$N$9*'[1]Income Statement'!J39</f>
+        <v>78.705782446610726</v>
+      </c>
+      <c r="S8" s="66">
+        <f>$N$9*'[1]Income Statement'!K39</f>
+        <v>83.720024351449027</v>
+      </c>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="7">
-        <f>X9*'[1]Income Statement'!$H$25</f>
-        <v>31518.479999999996</v>
-      </c>
-      <c r="Y8" s="7">
-        <f>Y9*'[1]Income Statement'!$H$25</f>
-        <v>31518.479999999996</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>Z9*'[1]Income Statement'!$H$25</f>
-        <v>31518.479999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="40"/>
-      <c r="W9" s="34" t="s">
+      <c r="W8" s="7">
+        <f>W9*('[1]Income Statement'!$F$25*'[1]Income Statement'!$N$8)</f>
+        <v>16127.16</v>
+      </c>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+    </row>
+    <row r="9" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="10">
+        <f>B8/'[1]Income Statement'!F39</f>
+        <v>0.47438752783964366</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="10">
+        <f>H8/'[1]Income Statement'!F39</f>
+        <v>0.21826280623608019</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="10">
+        <f>N8/'[1]Income Statement'!F39</f>
+        <v>0.13808463251670378</v>
+      </c>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="67"/>
+      <c r="V9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="2">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>35.979999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="40"/>
-      <c r="W10" s="34" t="s">
+      <c r="W9" s="2">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="59"/>
+      <c r="V10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="2">
+      <c r="W10" s="2">
         <v>0.67</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="40"/>
-      <c r="W11" s="34" t="s">
+    </row>
+    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <f>'[1]Balance Sheet'!F53*$B$13</f>
+        <v>-165.05415162454872</v>
+      </c>
+      <c r="C11" s="1">
+        <f>'[1]Balance Sheet'!G53*$B$13</f>
+        <v>-206.86054987391296</v>
+      </c>
+      <c r="D11" s="1">
+        <f>'[1]Balance Sheet'!H53*$B$13</f>
+        <v>-219.91744533310253</v>
+      </c>
+      <c r="E11" s="1">
+        <f>'[1]Balance Sheet'!I53*$B$13</f>
+        <v>-233.84162736854699</v>
+      </c>
+      <c r="F11" s="1">
+        <f>'[1]Balance Sheet'!J53*$B$13</f>
+        <v>-248.69337038701681</v>
+      </c>
+      <c r="G11" s="39">
+        <f>'[1]Balance Sheet'!K53*$B$13</f>
+        <v>-264.53729799291983</v>
+      </c>
+      <c r="H11" s="1">
+        <f>'[1]Balance Sheet'!F53*$H$13</f>
+        <v>-112.2206413251221</v>
+      </c>
+      <c r="I11" s="1">
+        <f>'[1]Balance Sheet'!G53*$H$13</f>
+        <v>-140.64489346819474</v>
+      </c>
+      <c r="J11" s="1">
+        <f>'[1]Balance Sheet'!H53*$H$13</f>
+        <v>-149.52230229265354</v>
+      </c>
+      <c r="K11" s="1">
+        <f>'[1]Balance Sheet'!I53*$H$13</f>
+        <v>-158.98938096086994</v>
+      </c>
+      <c r="L11" s="1">
+        <f>'[1]Balance Sheet'!J53*$H$13</f>
+        <v>-169.08711016019231</v>
+      </c>
+      <c r="M11" s="39">
+        <f>'[1]Balance Sheet'!K53*$H$13</f>
+        <v>-179.85942760597047</v>
+      </c>
+      <c r="N11" s="1">
+        <f>'[1]Balance Sheet'!F53*$N$13</f>
+        <v>-103.72520705032916</v>
+      </c>
+      <c r="O11" s="1">
+        <f>'[1]Balance Sheet'!G53*$N$13</f>
+        <v>-129.99765928350806</v>
+      </c>
+      <c r="P11" s="1">
+        <f>'[1]Balance Sheet'!H53*$N$13</f>
+        <v>-138.20302201815562</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>'[1]Balance Sheet'!I53*$N$13</f>
+        <v>-146.9534148463124</v>
+      </c>
+      <c r="R11" s="1">
+        <f>'[1]Balance Sheet'!J53*$N$13</f>
+        <v>-156.28671609615469</v>
+      </c>
+      <c r="S11" s="39">
+        <f>'[1]Balance Sheet'!K53*$N$13</f>
+        <v>-166.24353726809963</v>
+      </c>
+      <c r="T11" s="67"/>
+      <c r="V11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="8">
+      <c r="W11" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Y11" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="40"/>
-      <c r="W12" s="34" t="s">
+    </row>
+    <row r="12" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <f>DCF!B6*$B$13</f>
+        <v>-64.703158750699558</v>
+      </c>
+      <c r="C12" s="1">
+        <f>DCF!B6*$B$13</f>
+        <v>-64.703158750699558</v>
+      </c>
+      <c r="D12" s="1">
+        <f>DCF!C6*$B$13</f>
+        <v>-64.703158750699558</v>
+      </c>
+      <c r="E12" s="1">
+        <f>DCF!D6*$B$13</f>
+        <v>-64.703158750699558</v>
+      </c>
+      <c r="F12" s="1">
+        <f>DCF!E6*$B$13</f>
+        <v>-64.703158750699558</v>
+      </c>
+      <c r="G12" s="39">
+        <f>DCF!F6*$B$13</f>
+        <v>-64.703158750699558</v>
+      </c>
+      <c r="H12" s="1">
+        <f>DCF!B6*$H$13</f>
+        <v>-43.991804503539356</v>
+      </c>
+      <c r="I12" s="1">
+        <f>DCF!B6*$H$13</f>
+        <v>-43.991804503539356</v>
+      </c>
+      <c r="J12" s="1">
+        <f>DCF!C6*$H$13</f>
+        <v>-43.991804503539356</v>
+      </c>
+      <c r="K12" s="1">
+        <f>DCF!D6*$H$13</f>
+        <v>-43.991804503539356</v>
+      </c>
+      <c r="L12" s="1">
+        <f>DCF!E6*$H$13</f>
+        <v>-43.991804503539356</v>
+      </c>
+      <c r="M12" s="39">
+        <f>DCF!F6*$H$13</f>
+        <v>-43.991804503539356</v>
+      </c>
+      <c r="N12" s="1">
+        <f>DCF!B6*$N$13</f>
+        <v>-40.661494861959234</v>
+      </c>
+      <c r="O12" s="1">
+        <f>DCF!B6*$N$13</f>
+        <v>-40.661494861959234</v>
+      </c>
+      <c r="P12" s="1">
+        <f>DCF!C6*$N$13</f>
+        <v>-40.661494861959234</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>DCF!D6*$N$13</f>
+        <v>-40.661494861959234</v>
+      </c>
+      <c r="R12" s="1">
+        <f>DCF!E6*$N$13</f>
+        <v>-40.661494861959234</v>
+      </c>
+      <c r="S12" s="39">
+        <f>DCF!F6*$N$13</f>
+        <v>-40.661494861959234</v>
+      </c>
+      <c r="T12" s="67"/>
+      <c r="V12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X12" s="8">
+      <c r="W12" s="8">
         <v>0.02</v>
       </c>
-      <c r="Y12" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="40"/>
-      <c r="W13" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13" s="31">
-        <f>X8/'[1]Income Statement'!$F$41</f>
-        <v>22.922530909090906</v>
-      </c>
-      <c r="Y13" s="31">
-        <f>Y8/'[1]Income Statement'!$F$41</f>
-        <v>22.922530909090906</v>
-      </c>
-      <c r="Z13" s="31">
-        <f>Z8/'[1]Income Statement'!$F$41</f>
-        <v>22.922530909090906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="40"/>
-      <c r="W15" s="51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="40"/>
-      <c r="W16" s="51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+    </row>
+    <row r="13" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="10">
+        <f>(B3-B4)/((B3-B4)+(H3-H4)+(N3-N4))</f>
+        <v>0.43321299638989169</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="10">
+        <f>(H3-H4)/((B3-B4)+(H3-H4)+(N3-N4))</f>
+        <v>0.29454236568273517</v>
+      </c>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="10">
+        <f>(N3-N4)/((B3-B4)+(H3-H4)+(N3-N4))</f>
+        <v>0.27224463792737313</v>
+      </c>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="67"/>
+      <c r="V13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" s="31">
+        <f>W8/'[1]Income Statement'!$F$40</f>
+        <v>12.080269662921348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
+      <c r="U14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:S15" si="3">SUM(C12,C11,C8,C6)</f>
+        <v>201.51828811100489</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="3"/>
+        <v>214.36083940975044</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="3"/>
+        <v>227.83096771892707</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>241.95995880658955</v>
+      </c>
+      <c r="G15" s="40">
+        <f t="shared" si="3"/>
+        <v>256.78070528418471</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>341.53625527306815</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>373.66323006398613</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>408.44582149928374</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
+        <v>446.10248759809065</v>
+      </c>
+      <c r="M15" s="40">
+        <f t="shared" si="3"/>
+        <v>486.86960453478866</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
+        <f t="shared" si="3"/>
+        <v>274.59648499333781</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="3"/>
+        <v>294.9531108673541</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="3"/>
+        <v>316.61061908337911</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="3"/>
+        <v>339.65128879765717</v>
+      </c>
+      <c r="S15" s="40">
+        <f t="shared" si="3"/>
+        <v>364.16254447692188</v>
+      </c>
+      <c r="T15" s="59"/>
+      <c r="U15"/>
+      <c r="V15" s="64"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76">
+        <f>C15/((1+$W$4)^(C2-2024))</f>
+        <v>190.47540270667787</v>
+      </c>
+      <c r="D16" s="76">
+        <f>D15/((1+$W$4)^(D2-2024))</f>
+        <v>191.51126259893149</v>
+      </c>
+      <c r="E16" s="76">
+        <f>E15/((1+$W$4)^(E2-2024))</f>
+        <v>192.39157969931165</v>
+      </c>
+      <c r="F16" s="76">
+        <f>F15/((1+$W$4)^(F2-2024))</f>
+        <v>193.12622116425743</v>
+      </c>
+      <c r="G16" s="77">
+        <f>G15/((1+$W$4)^(G2-2024))</f>
+        <v>193.72450666737925</v>
+      </c>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76">
+        <f>I15/((1+$W$4)^(I2-2024))</f>
+        <v>322.82060537470289</v>
+      </c>
+      <c r="J16" s="76">
+        <f>J15/((1+$W$4)^(J2-2024))</f>
+        <v>333.83297608552834</v>
+      </c>
+      <c r="K16" s="76">
+        <f>K15/((1+$W$4)^(K2-2024))</f>
+        <v>344.91157021628231</v>
+      </c>
+      <c r="L16" s="76">
+        <f>L15/((1+$W$4)^(L2-2024))</f>
+        <v>356.06754153343797</v>
+      </c>
+      <c r="M16" s="77">
+        <f>M15/((1+$W$4)^(M2-2024))</f>
+        <v>367.3117645091736</v>
+      </c>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76">
+        <f>O15/((1+$W$4)^(O2-2024))</f>
+        <v>259.54902927784417</v>
+      </c>
+      <c r="P16" s="76">
+        <f>P15/((1+$W$4)^(P2-2024))</f>
+        <v>263.51288241466108</v>
+      </c>
+      <c r="Q16" s="76">
+        <f>Q15/((1+$W$4)^(Q2-2024))</f>
+        <v>267.36144679934995</v>
+      </c>
+      <c r="R16" s="76">
+        <f>R15/((1+$W$4)^(R2-2024))</f>
+        <v>271.10093026381759</v>
+      </c>
+      <c r="S16" s="77">
+        <f>S15/((1+$W$4)^(S2-2024))</f>
+        <v>274.73718945297367</v>
+      </c>
+      <c r="T16" s="67"/>
+      <c r="U16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="58"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="40"/>
-      <c r="W17" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="58"/>
+      <c r="V17" s="64"/>
+    </row>
+    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5">
+        <f>((G16*(1+$W$12))/($W$4-$W$12))/((1+$W$4)^5)</f>
+        <v>3925.587753420532</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="5">
+        <f>((M16*(1+$W$12))/($W$4-$W$12))/((1+$W$4)^5)</f>
+        <v>7443.119041826928</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="5">
+        <f>((S16*(1+$W$12))/($W$4-$W$12))/((1+$W$4)^5)</f>
+        <v>5567.2096673733668</v>
+      </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="40"/>
-      <c r="W18" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="58"/>
+      <c r="V18" s="64"/>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="78">
+        <f>B18+SUM(C16:G16)</f>
+        <v>4886.8167262570896</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="78">
+        <f>H18+SUM(I16:M16)</f>
+        <v>9168.0634995460532</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="78">
+        <f>N18+SUM(O16:S16)</f>
+        <v>6903.4711455820134</v>
+      </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="40"/>
-      <c r="W19" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="58"/>
+      <c r="V19" s="64"/>
+    </row>
+    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="58"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="58"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="40"/>
-      <c r="W20" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="58"/>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="58"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="40"/>
-      <c r="W21" s="51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="40"/>
-      <c r="W22" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="40"/>
-      <c r="W23" s="51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="40"/>
-      <c r="W24" s="51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="58"/>
+    </row>
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="26">
+        <f>B19</f>
+        <v>4886.8167262570896</v>
+      </c>
+      <c r="C22" s="25">
+        <f>D22-0.005</f>
+        <v>4.797538814674393E-2</v>
+      </c>
+      <c r="D22" s="25">
+        <f>E22-0.005</f>
+        <v>5.2975388146743928E-2</v>
+      </c>
+      <c r="E22" s="25">
+        <v>5.7975388146743925E-2</v>
+      </c>
+      <c r="F22" s="25">
+        <f>E22+0.005</f>
+        <v>6.297538814674393E-2</v>
+      </c>
+      <c r="G22" s="25">
+        <f>F22+0.005</f>
+        <v>6.7975388146743934E-2</v>
+      </c>
+      <c r="H22" s="26">
+        <f>H19</f>
+        <v>9168.0634995460532</v>
+      </c>
+      <c r="I22" s="25">
+        <f>J22-0.005</f>
+        <v>4.797538814674393E-2</v>
+      </c>
+      <c r="J22" s="25">
+        <f>K22-0.005</f>
+        <v>5.2975388146743928E-2</v>
+      </c>
+      <c r="K22" s="25">
+        <v>5.7975388146743925E-2</v>
+      </c>
+      <c r="L22" s="25">
+        <f>K22+0.005</f>
+        <v>6.297538814674393E-2</v>
+      </c>
+      <c r="M22" s="25">
+        <f>L22+0.005</f>
+        <v>6.7975388146743934E-2</v>
+      </c>
+      <c r="N22" s="26">
+        <f>N19</f>
+        <v>6903.4711455820134</v>
+      </c>
+      <c r="O22" s="25">
+        <f>P22-0.005</f>
+        <v>4.797538814674393E-2</v>
+      </c>
+      <c r="P22" s="25">
+        <f>Q22-0.005</f>
+        <v>5.2975388146743928E-2</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>5.7975388146743925E-2</v>
+      </c>
+      <c r="R22" s="25">
+        <f>Q22+0.005</f>
+        <v>6.297538814674393E-2</v>
+      </c>
+      <c r="S22" s="25">
+        <f>R22+0.005</f>
+        <v>6.7975388146743934E-2</v>
+      </c>
+      <c r="T22" s="58"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="25">
+        <f>B24-0.005</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
+        <v>5263.5337170491621</v>
+      </c>
+      <c r="D23" s="13">
+        <v>4576.534153373429</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4038.1022966208466</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3605.8497866265707</v>
+      </c>
+      <c r="G23" s="15">
+        <v>3252.0302431630239</v>
+      </c>
+      <c r="H23" s="25">
+        <f>H24-0.005</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="dataTable" ref="I23:M27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
+        <v>9880.4455126833091</v>
+      </c>
+      <c r="J23" s="13">
+        <v>8578.8129624867179</v>
+      </c>
+      <c r="K23" s="13">
+        <v>7558.8566930507823</v>
+      </c>
+      <c r="L23" s="13">
+        <v>6740.2065210509136</v>
+      </c>
+      <c r="M23" s="15">
+        <v>6070.2542104668173</v>
+      </c>
+      <c r="N23" s="25">
+        <f>N24-0.005</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="dataTable" ref="O23:S27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
+        <v>7437.2030569098843</v>
+      </c>
+      <c r="P23" s="13">
+        <v>6463.1740032007383</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>5699.8370723421285</v>
+      </c>
+      <c r="R23" s="13">
+        <v>5087.0778264244991</v>
+      </c>
+      <c r="S23" s="15">
+        <v>4585.5468610883636</v>
+      </c>
+      <c r="T23" s="58"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
+        <f>B25-0.005</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="13">
+        <v>5936.01546931757</v>
+      </c>
+      <c r="D24" s="22">
+        <v>5070.8976325053663</v>
+      </c>
+      <c r="E24" s="24">
+        <v>4413.0873901949299</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3897.4117494514321</v>
+      </c>
+      <c r="G24" s="15">
+        <v>3483.3237177024107</v>
+      </c>
+      <c r="H24" s="25">
+        <f>H25-0.005</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I24" s="13">
+        <v>11155.505974961536</v>
+      </c>
+      <c r="J24" s="22">
+        <v>9516.1518926646331</v>
+      </c>
+      <c r="K24" s="24">
+        <v>8269.8479803938171</v>
+      </c>
+      <c r="L24" s="17">
+        <v>7293.023203210988</v>
+      </c>
+      <c r="M24" s="15">
+        <v>6508.7986967273428</v>
+      </c>
+      <c r="N24" s="25">
+        <f>N25-0.005</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O24" s="13">
+        <v>8390.9065906287997</v>
+      </c>
+      <c r="P24" s="22">
+        <v>7164.2728737638836</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>6231.6353072045413</v>
+      </c>
+      <c r="R24" s="17">
+        <v>5500.5666286204441</v>
+      </c>
+      <c r="S24" s="15">
+        <v>4913.563797236091</v>
+      </c>
+      <c r="T24" s="58"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="C25" s="13">
+        <v>6848.8805716724655</v>
+      </c>
+      <c r="D25" s="23">
+        <v>5715.1800381202811</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4886.8167262570896</v>
+      </c>
+      <c r="F25" s="18">
+        <v>4256.817651656037</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3762.8280527421698</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="I25" s="13">
+        <v>12886.345801440162</v>
+      </c>
+      <c r="J25" s="23">
+        <v>10737.744923508979</v>
+      </c>
+      <c r="K25" s="12">
+        <v>9168.0634995460532</v>
+      </c>
+      <c r="L25" s="18">
+        <v>7974.475531493079</v>
+      </c>
+      <c r="M25" s="15">
+        <v>7038.7534879799077</v>
+      </c>
+      <c r="N25" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="O25" s="13">
+        <v>9685.5181856465642</v>
+      </c>
+      <c r="P25" s="23">
+        <v>8077.9845170541266</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>6903.4711455820134</v>
+      </c>
+      <c r="R25" s="18">
+        <v>6010.2706879733569</v>
+      </c>
+      <c r="S25" s="15">
+        <v>5309.9526525738038</v>
+      </c>
+      <c r="T25" s="58"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <f>B25+0.005</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C26" s="13">
+        <v>8159.0687122822173</v>
+      </c>
+      <c r="D26" s="20">
+        <v>6589.7657382722937</v>
+      </c>
+      <c r="E26" s="21">
+        <v>5504.2075512921783</v>
+      </c>
+      <c r="F26" s="19">
+        <v>4710.8653520736816</v>
+      </c>
+      <c r="G26" s="15">
+        <v>4107.3706217788749</v>
+      </c>
+      <c r="H26" s="25">
+        <f>H25+0.005</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I26" s="13">
+        <v>15370.530822970002</v>
+      </c>
+      <c r="J26" s="20">
+        <v>12396.005007706268</v>
+      </c>
+      <c r="K26" s="21">
+        <v>10338.668691612849</v>
+      </c>
+      <c r="L26" s="19">
+        <v>8835.3736433571103</v>
+      </c>
+      <c r="M26" s="15">
+        <v>7692.0241616726671</v>
+      </c>
+      <c r="N26" s="25">
+        <f>N25+0.005</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O26" s="13">
+        <v>11543.607353599795</v>
+      </c>
+      <c r="P26" s="20">
+        <v>9318.3088380657282</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>7779.0455526725273</v>
+      </c>
+      <c r="R26" s="19">
+        <v>6654.1943259078798</v>
+      </c>
+      <c r="S26" s="15">
+        <v>5798.5777557806932</v>
+      </c>
+      <c r="T26" s="58"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <f>B26+0.005</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="C27" s="14">
+        <v>10198.135767724796</v>
+      </c>
+      <c r="D27" s="14">
+        <v>7845.0134296672959</v>
+      </c>
+      <c r="E27" s="14">
+        <v>6342.2890855308679</v>
+      </c>
+      <c r="F27" s="14">
+        <v>5302.6059579992425</v>
+      </c>
+      <c r="G27" s="16">
+        <v>4542.6410505823678</v>
+      </c>
+      <c r="H27" s="25">
+        <f>H26+0.005</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="I27" s="14">
+        <v>19236.708267278118</v>
+      </c>
+      <c r="J27" s="14">
+        <v>14776.020073193089</v>
+      </c>
+      <c r="K27" s="14">
+        <v>11927.714974086126</v>
+      </c>
+      <c r="L27" s="14">
+        <v>9957.3446827126845</v>
+      </c>
+      <c r="M27" s="16">
+        <v>8517.3195875992678</v>
+      </c>
+      <c r="N27" s="25">
+        <f>N26+0.005</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="O27" s="14">
+        <v>14435.38166525314</v>
+      </c>
+      <c r="P27" s="14">
+        <v>11098.482285059294</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>8967.6002131549576</v>
+      </c>
+      <c r="R27" s="14">
+        <v>7493.3919770151942</v>
+      </c>
+      <c r="S27" s="16">
+        <v>6415.8717487745016</v>
+      </c>
+      <c r="T27" s="58"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="58"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="85">
+        <f>IF(B28="Bull",D26,IF(B28="Bear",F24,IF(B28="Central",E25,"Error")))</f>
+        <v>4886.8167262570896</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="85">
+        <f>IF(H28="Bull",J26,IF(H28="Bear",L24,IF(H28="Central",K25,"Error")))</f>
+        <v>9168.0634995460532</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="85">
+        <f>IF(N28="Bull",P26,IF(N28="Bear",R24,IF(N28="Central",Q25,"Error")))</f>
+        <v>6903.4711455820134</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="58"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="28">
+        <f>DCF!B25</f>
+        <v>2986</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="10"/>
+      <c r="G31"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="79">
+        <f>B29+H29+N29</f>
+        <v>20958.351371385157</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="80">
+        <f>B32/DCF!B36</f>
+        <v>23.925058643133742</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="56">
+        <f>B33*2</f>
+        <v>47.850117286267484</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="54">
+        <f>DCF!I9</f>
+        <v>36.82</v>
+      </c>
+      <c r="C35" s="58"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="82">
+        <f>B34-B35</f>
+        <v>11.030117286267483</v>
+      </c>
+      <c r="C36" s="10">
+        <f>B36/B35</f>
+        <v>0.29956863895348951</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 H28 N28" xr:uid="{B110F3C2-1E4E-45A0-BB92-5A75057DEE2A}">
+      <formula1>$AA$2:$AA$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B6:F6 G6:P6" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1785" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C8ACB2-AF82-42FA-8EB3-09D4F844166C}"/>
+  <xr:revisionPtr revIDLastSave="1929" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27701557-E3AD-46C5-8D1E-5FD29D8782C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="2" r:id="rId1"/>
@@ -40,8 +40,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Xavier Davis</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9B8EEDB9-D323-4045-B792-81FFBC96CAE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xavier Davis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+expected ebit margin
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{3003FE48-E7A5-4F44-8CCF-C960D9B03C62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Xavier Davis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+impact of growth eg 6% means a £1 increase in revenue increases NWC by 6pence</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>FY</t>
   </si>
@@ -245,6 +304,102 @@
   </si>
   <si>
     <t>Share Price</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Sports Med</t>
+  </si>
+  <si>
+    <t>Launch_Central</t>
+  </si>
+  <si>
+    <t>Success_Bear</t>
+  </si>
+  <si>
+    <t>Success_Central</t>
+  </si>
+  <si>
+    <t>Success_Bull</t>
+  </si>
+  <si>
+    <t>PriceErosion</t>
+  </si>
+  <si>
+    <t>EBITMargin</t>
+  </si>
+  <si>
+    <t>WACC:</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Launch Year</t>
+  </si>
+  <si>
+    <t>Peak Sales</t>
+  </si>
+  <si>
+    <t>Adoption Speed</t>
+  </si>
+  <si>
+    <t>How to:</t>
+  </si>
+  <si>
+    <t>timeline each product between 2025 and 2029</t>
+  </si>
+  <si>
+    <t>adjust by probability</t>
+  </si>
+  <si>
+    <t>costs, commerical modelling, profit shares etc to get eah ones NPV</t>
+  </si>
+  <si>
+    <t>discount to get rNPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum rNPVs for base portfolio or sum for segmental </t>
+  </si>
+  <si>
+    <t>adjust for overlap + correlations</t>
+  </si>
+  <si>
+    <t>equity bridge</t>
+  </si>
+  <si>
+    <t>scenario model</t>
+  </si>
+  <si>
+    <t>bridge into the SOTP as a separate operating asset</t>
+  </si>
+  <si>
+    <t>AGILI-C Cartilage Implant (CPT I adoption)</t>
+  </si>
+  <si>
+    <t>REGENETEN – Extra-articular Ligaments (broad uptake)</t>
+  </si>
+  <si>
+    <t>CORIOGRAPH Pre-Op Planning (Shoulder) – enterprise rollout</t>
+  </si>
+  <si>
+    <t>LEGION TKS Medial-Stabilised Insert – global mix-shift</t>
+  </si>
+  <si>
+    <t>CENTRIO PRP System – coverage &amp; site-of-care expansion</t>
+  </si>
+  <si>
+    <t>ALLEVYN COMPLETE CARE 5-Layer Foam – prevention protocols</t>
+  </si>
+  <si>
+    <t>Maintainance Capex</t>
+  </si>
+  <si>
+    <t>NWC pct of Sales change</t>
   </si>
 </sst>
 </file>
@@ -255,7 +410,7 @@
     <numFmt numFmtId="164" formatCode="0;\(0\);\-"/>
     <numFmt numFmtId="165" formatCode="[Color10]0.00%;[Red]\(0.00\)%;\-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +531,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -539,7 +707,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -618,34 +786,12 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -653,7 +799,7 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -661,20 +807,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -683,6 +819,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1920,7 +2060,7 @@
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27">
-        <f t="shared" ref="C28:D28" si="1">D27*2</f>
+        <f t="shared" ref="D28" si="1">D27*2</f>
         <v>35.795197659661483</v>
       </c>
       <c r="G28" s="26">
@@ -2163,61 +2303,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1EAA58-ADB1-46F6-8416-C90E04EF858D}">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N28" sqref="N28"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="54" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" style="54"/>
-    <col min="22" max="22" width="37.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.77734375" style="54" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="8.88671875" style="54"/>
-    <col min="27" max="27" width="6.88671875" style="54" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="54"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="22" max="22" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="34" t="s">
         <v>51</v>
       </c>
+      <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="35"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>52</v>
       </c>
+      <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>53</v>
       </c>
+      <c r="O1" s="34"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
       <c r="S1" s="35"/>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-    </row>
-    <row r="2" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -2275,10 +2412,10 @@
       <c r="S2" s="38">
         <v>2029</v>
       </c>
-      <c r="T2" s="71">
+      <c r="T2" s="57">
         <v>2024</v>
       </c>
-      <c r="U2" s="60"/>
+      <c r="U2" s="52"/>
       <c r="V2" s="33" t="s">
         <v>1</v>
       </c>
@@ -2286,17 +2423,17 @@
         <f>'[1]Balance Sheet'!$N$7</f>
         <v>0.10567499999999999</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="AA2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="53">
         <f>'[1]Income Statement'!$F$43</f>
         <v>2305</v>
       </c>
@@ -2320,7 +2457,7 @@
         <f>'[1]Income Statement'!K43</f>
         <v>2902.230826911697</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="45">
         <f>'[1]Income Statement'!$F$44</f>
         <v>1824</v>
       </c>
@@ -2344,7 +2481,7 @@
         <f>'[1]Income Statement'!K44</f>
         <v>2699.405880996329</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="45">
         <f>'[1]Income Statement'!$F$45</f>
         <v>1681</v>
       </c>
@@ -2368,28 +2505,28 @@
         <f>'[1]Income Statement'!K45</f>
         <v>2295.8221185186958</v>
       </c>
-      <c r="T3" s="73">
+      <c r="T3" s="59">
         <f>'[1]Income Statement'!F2</f>
         <v>5810</v>
       </c>
-      <c r="U3" s="60"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="W3" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
       <c r="AA3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="56">
         <v>265</v>
       </c>
       <c r="C4" s="5">
@@ -2412,7 +2549,7 @@
         <f t="shared" si="0"/>
         <v>333.66211242151832</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="56">
         <v>437</v>
       </c>
       <c r="I4" s="5">
@@ -2435,7 +2572,7 @@
         <f t="shared" si="1"/>
         <v>646.73265898870386</v>
       </c>
-      <c r="N4" s="70">
+      <c r="N4" s="56">
         <v>399</v>
       </c>
       <c r="O4" s="5">
@@ -2458,11 +2595,11 @@
         <f t="shared" si="2"/>
         <v>544.93338803626386</v>
       </c>
-      <c r="T4" s="74">
+      <c r="T4" s="60">
         <f>'[1]Income Statement'!F8</f>
         <v>886</v>
       </c>
-      <c r="U4" s="60"/>
+      <c r="U4" s="52"/>
       <c r="V4" s="33" t="s">
         <v>2</v>
       </c>
@@ -2470,14 +2607,14 @@
         <f>(((W8/(W8+W6))*W7)+((W6/(W8+W6))*W5))*(1-W2)</f>
         <v>5.7975388146743925E-2</v>
       </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="AA4" s="64" t="s">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="AA4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="10">
@@ -2507,8 +2644,8 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="40"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="33" t="s">
         <v>9</v>
       </c>
@@ -2516,87 +2653,87 @@
         <f>0.056</f>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-    </row>
-    <row r="6" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="5">
-        <f>B4*(1-$W$2)</f>
+        <f t="shared" ref="B6:S6" si="3">B4*(1-$W$2)</f>
         <v>236.99612500000001</v>
       </c>
       <c r="C6" s="5">
-        <f>C4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>248.17238211772872</v>
       </c>
       <c r="D6" s="5">
-        <f>D4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>259.87568887882856</v>
       </c>
       <c r="E6" s="5">
-        <f>E4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>272.13089987671583</v>
       </c>
       <c r="F6" s="5">
-        <f>F4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>284.96404179707872</v>
       </c>
       <c r="G6" s="40">
-        <f>G4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>298.40236869137436</v>
       </c>
       <c r="H6" s="5">
-        <f>H4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>390.82002500000004</v>
       </c>
       <c r="I6" s="5">
-        <f>I4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>422.69341224690044</v>
       </c>
       <c r="J6" s="5">
-        <f>J4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>457.16623849284122</v>
       </c>
       <c r="K6" s="5">
-        <f>K4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>494.45050138518189</v>
       </c>
       <c r="L6" s="5">
-        <f>L4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>534.77548807201822</v>
       </c>
       <c r="M6" s="40">
-        <f>M4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>578.38918525007261</v>
       </c>
       <c r="N6" s="5">
-        <f>N4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>356.83567500000004</v>
       </c>
       <c r="O6" s="5">
-        <f>O4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>379.7889907523774</v>
       </c>
       <c r="P6" s="5">
-        <f>P4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>404.21876959670419</v>
       </c>
       <c r="Q6" s="5">
-        <f>Q4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>430.21998444606209</v>
       </c>
       <c r="R6" s="5">
-        <f>R4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>457.89371730916037</v>
       </c>
       <c r="S6" s="40">
-        <f>S4*(1-$W$2)</f>
+        <f t="shared" si="3"/>
         <v>487.3475522555317</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="V6" s="33" t="s">
         <v>10</v>
       </c>
@@ -2604,30 +2741,30 @@
         <f>'[1]Balance Sheet'!$F$49</f>
         <v>2986</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-    </row>
-    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
-      <c r="B7" s="53"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="40"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="59"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="40"/>
-      <c r="T7" s="59"/>
+      <c r="T7" s="5"/>
       <c r="V7" s="33" t="s">
         <v>11</v>
       </c>
@@ -2636,81 +2773,81 @@
         <v>6.6460000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="28">
         <v>213</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="54">
         <f>$B$9*'[1]Income Statement'!G39</f>
         <v>224.90961461788868</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="54">
         <f>$B$9*'[1]Income Statement'!H39</f>
         <v>239.10575461472399</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="54">
         <f>$B$9*'[1]Income Statement'!I39</f>
         <v>254.24485396145781</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="54">
         <f>$B$9*'[1]Income Statement'!J39</f>
         <v>270.39244614722719</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="55">
         <f>$B$9*'[1]Income Statement'!K39</f>
         <v>287.61879333642975</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="1">
         <v>98</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="1">
         <f>$H$9*'[1]Income Statement'!G39</f>
         <v>103.47954099790184</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="1">
         <f>$H$9*'[1]Income Statement'!H39</f>
         <v>110.01109836733779</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="1">
         <f>$H$9*'[1]Income Statement'!I39</f>
         <v>116.97650557851111</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="1">
         <f>$H$9*'[1]Income Statement'!J39</f>
         <v>124.40591418980407</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="39">
         <f>$H$9*'[1]Income Statement'!K39</f>
         <v>132.33165139422587</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="1">
         <v>62</v>
       </c>
-      <c r="O8" s="65">
+      <c r="O8" s="1">
         <f>$N$9*'[1]Income Statement'!G39</f>
         <v>65.466648386427678</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="1">
         <f>$N$9*'[1]Income Statement'!H39</f>
         <v>69.598858150764727</v>
       </c>
-      <c r="Q8" s="65">
+      <c r="Q8" s="1">
         <f>$N$9*'[1]Income Statement'!I39</f>
         <v>74.00554434558866</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="1">
         <f>$N$9*'[1]Income Statement'!J39</f>
         <v>78.705782446610726</v>
       </c>
-      <c r="S8" s="66">
+      <c r="S8" s="39">
         <f>$N$9*'[1]Income Statement'!K39</f>
         <v>83.720024351449027</v>
       </c>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
       <c r="V8" s="33" t="s">
         <v>12</v>
       </c>
@@ -2718,11 +2855,11 @@
         <f>W9*('[1]Income Statement'!$F$25*'[1]Income Statement'!$N$8)</f>
         <v>16127.16</v>
       </c>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-    </row>
-    <row r="9" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="10">
@@ -2730,29 +2867,29 @@
         <v>0.47438752783964366</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="10">
         <f>H8/'[1]Income Statement'!F39</f>
         <v>0.21826280623608019</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="10">
         <f>N8/'[1]Income Statement'!F39</f>
         <v>0.13808463251670378</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="67"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="1"/>
       <c r="V9" s="33" t="s">
         <v>13</v>
       </c>
@@ -2760,27 +2897,27 @@
         <v>36.82</v>
       </c>
     </row>
-    <row r="10" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
-      <c r="B10" s="53"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="59"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="40"/>
-      <c r="N10" s="59"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="40"/>
-      <c r="T10" s="59"/>
+      <c r="T10" s="5"/>
       <c r="V10" s="33" t="s">
         <v>14</v>
       </c>
@@ -2788,8 +2925,8 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -2864,7 +3001,7 @@
         <f>'[1]Balance Sheet'!K53*$N$13</f>
         <v>-166.24353726809963</v>
       </c>
-      <c r="T11" s="67"/>
+      <c r="T11" s="1"/>
       <c r="V11" s="33" t="s">
         <v>15</v>
       </c>
@@ -2872,8 +3009,8 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
@@ -2948,7 +3085,7 @@
         <f>DCF!F6*$N$13</f>
         <v>-40.661494861959234</v>
       </c>
-      <c r="T12" s="67"/>
+      <c r="T12" s="1"/>
       <c r="V12" s="33" t="s">
         <v>17</v>
       </c>
@@ -2956,38 +3093,38 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="10">
         <f>(B3-B4)/((B3-B4)+(H3-H4)+(N3-N4))</f>
         <v>0.43321299638989169</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="10">
         <f>(H3-H4)/((B3-B4)+(H3-H4)+(N3-N4))</f>
         <v>0.29454236568273517</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="10">
         <f>(N3-N4)/((B3-B4)+(H3-H4)+(N3-N4))</f>
         <v>0.27224463792737313</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="67"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="1"/>
       <c r="V13" s="33" t="s">
         <v>49</v>
       </c>
@@ -2996,200 +3133,193 @@
         <v>12.080269662921348</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="67"/>
-      <c r="U14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-    </row>
-    <row r="15" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:S15" si="3">SUM(C12,C11,C8,C6)</f>
+        <f t="shared" ref="C15:S15" si="4">SUM(C12,C11,C8,C6)</f>
         <v>201.51828811100489</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214.36083940975044</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>227.83096771892707</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>241.95995880658955</v>
       </c>
       <c r="G15" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>256.78070528418471</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341.53625527306815</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>373.66323006398613</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>408.44582149928374</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>446.10248759809065</v>
       </c>
       <c r="M15" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>486.86960453478866</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>274.59648499333781</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>294.9531108673541</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>316.61061908337911</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>339.65128879765717</v>
       </c>
       <c r="S15" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>364.16254447692188</v>
       </c>
-      <c r="T15" s="59"/>
+      <c r="T15" s="5"/>
       <c r="U15"/>
-      <c r="V15" s="64"/>
+      <c r="V15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62">
         <f>C15/((1+$W$4)^(C2-2024))</f>
         <v>190.47540270667787</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="62">
         <f>D15/((1+$W$4)^(D2-2024))</f>
         <v>191.51126259893149</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="62">
         <f>E15/((1+$W$4)^(E2-2024))</f>
         <v>192.39157969931165</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="62">
         <f>F15/((1+$W$4)^(F2-2024))</f>
         <v>193.12622116425743</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="63">
         <f>G15/((1+$W$4)^(G2-2024))</f>
         <v>193.72450666737925</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76">
+      <c r="H16" s="62"/>
+      <c r="I16" s="62">
         <f>I15/((1+$W$4)^(I2-2024))</f>
         <v>322.82060537470289</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="62">
         <f>J15/((1+$W$4)^(J2-2024))</f>
         <v>333.83297608552834</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="62">
         <f>K15/((1+$W$4)^(K2-2024))</f>
         <v>344.91157021628231</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="62">
         <f>L15/((1+$W$4)^(L2-2024))</f>
         <v>356.06754153343797</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="63">
         <f>M15/((1+$W$4)^(M2-2024))</f>
         <v>367.3117645091736</v>
       </c>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76">
+      <c r="N16" s="62"/>
+      <c r="O16" s="62">
         <f>O15/((1+$W$4)^(O2-2024))</f>
         <v>259.54902927784417</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="62">
         <f>P15/((1+$W$4)^(P2-2024))</f>
         <v>263.51288241466108</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="62">
         <f>Q15/((1+$W$4)^(Q2-2024))</f>
         <v>267.36144679934995</v>
       </c>
-      <c r="R16" s="76">
+      <c r="R16" s="62">
         <f>R15/((1+$W$4)^(R2-2024))</f>
         <v>271.10093026381759</v>
       </c>
-      <c r="S16" s="77">
+      <c r="S16" s="63">
         <f>S15/((1+$W$4)^(S2-2024))</f>
         <v>274.73718945297367</v>
       </c>
-      <c r="T16" s="67"/>
-      <c r="U16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
-      <c r="B17" s="55"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="39"/>
-      <c r="N17" s="58"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="39"/>
-      <c r="T17" s="58"/>
-      <c r="V17" s="64"/>
-    </row>
-    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="5">
@@ -3219,14 +3349,13 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="58"/>
-      <c r="V18" s="64"/>
-    </row>
-    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="64">
         <f>B18+SUM(C16:G16)</f>
         <v>4886.8167262570896</v>
       </c>
@@ -3235,7 +3364,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="78">
+      <c r="H19" s="64">
         <f>H18+SUM(I16:M16)</f>
         <v>9168.0634995460532</v>
       </c>
@@ -3244,7 +3373,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="39"/>
-      <c r="N19" s="78">
+      <c r="N19" s="64">
         <f>N18+SUM(O16:S16)</f>
         <v>6903.4711455820134</v>
       </c>
@@ -3253,10 +3382,9 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="39"/>
-      <c r="T19" s="58"/>
-      <c r="V19" s="64"/>
-    </row>
-    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="1"/>
@@ -3264,43 +3392,41 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="39"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="39"/>
-      <c r="N20" s="58"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="58"/>
-    </row>
-    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="39"/>
-      <c r="H21" s="58"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="39"/>
-      <c r="N21" s="58"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="39"/>
-      <c r="T21" s="58"/>
-    </row>
-    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="26">
         <f>B19</f>
@@ -3371,16 +3497,16 @@
         <f>R22+0.005</f>
         <v>6.7975388146743934E-2</v>
       </c>
-      <c r="T22" s="58"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
       <c r="B23" s="25">
         <f>B24-0.005</f>
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="C23" s="13">
-        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
+        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
         <v>5263.5337170491621</v>
       </c>
       <c r="D23" s="13">
@@ -3400,7 +3526,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="I23" s="13">
-        <f t="dataTable" ref="I23:M27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
+        <f t="dataTable" ref="I23:M27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
         <v>9880.4455126833091</v>
       </c>
       <c r="J23" s="13">
@@ -3435,9 +3561,9 @@
       <c r="S23" s="15">
         <v>4585.5468610883636</v>
       </c>
-      <c r="T23" s="58"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <f>B25-0.005</f>
         <v>1.4999999999999999E-2</v>
@@ -3495,9 +3621,9 @@
       <c r="S24" s="15">
         <v>4913.563797236091</v>
       </c>
-      <c r="T24" s="58"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>0.02</v>
       </c>
@@ -3552,9 +3678,9 @@
       <c r="S25" s="15">
         <v>5309.9526525738038</v>
       </c>
-      <c r="T25" s="58"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <f>B25+0.005</f>
         <v>2.5000000000000001E-2</v>
@@ -3612,9 +3738,9 @@
       <c r="S26" s="15">
         <v>5798.5777557806932</v>
       </c>
-      <c r="T26" s="58"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <f>B26+0.005</f>
         <v>3.0000000000000002E-2</v>
@@ -3672,93 +3798,89 @@
       <c r="S27" s="16">
         <v>6415.8717487745016</v>
       </c>
-      <c r="T27" s="58"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="84"/>
+      <c r="K28" s="30"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
-      <c r="N28" s="83" t="s">
+      <c r="N28" s="66" t="s">
         <v>38</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="84"/>
+      <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
-      <c r="T28" s="58"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="85">
+      <c r="B29" s="67">
         <f>IF(B28="Bull",D26,IF(B28="Bear",F24,IF(B28="Central",E25,"Error")))</f>
         <v>4886.8167262570896</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85">
+      <c r="G29" s="68"/>
+      <c r="H29" s="67">
         <f>IF(H28="Bull",J26,IF(H28="Bear",L24,IF(H28="Central",K25,"Error")))</f>
         <v>9168.0634995460532</v>
       </c>
       <c r="I29" s="30"/>
-      <c r="J29" s="84"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="85">
+      <c r="M29" s="68"/>
+      <c r="N29" s="67">
         <f>IF(N28="Bull",P26,IF(N28="Bear",R24,IF(N28="Central",Q25,"Error")))</f>
         <v>6903.4711455820134</v>
       </c>
       <c r="O29" s="30"/>
-      <c r="P29" s="84"/>
+      <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="58"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D30" s="28"/>
       <c r="E30" s="27"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>25</v>
       </c>
@@ -3766,121 +3888,120 @@
         <f>DCF!B25</f>
         <v>2986</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="28"/>
       <c r="E31" s="27"/>
       <c r="F31" s="10"/>
-      <c r="G31"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="79">
+      <c r="B32" s="64">
         <f>B29+H29+N29</f>
         <v>20958.351371385157</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="80">
+      <c r="B33" s="65">
         <f>B32/DCF!B36</f>
         <v>23.925058643133742</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="3">
         <f>B33*2</f>
         <v>47.850117286267484</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35">
         <f>DCF!I9</f>
         <v>36.82</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="82">
+      <c r="B36" s="27">
         <f>B34-B35</f>
         <v>11.030117286267483</v>
       </c>
@@ -3890,7 +4011,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 H28 N28" xr:uid="{B110F3C2-1E4E-45A0-BB92-5A75057DEE2A}">
       <formula1>$AA$2:$AA$4</formula1>
     </dataValidation>
@@ -3900,13 +4021,383 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAC3436-3D57-4757-9CB9-CA7911356AEE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAC3436-3D57-4757-9CB9-CA7911356AEE}">
+  <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>2027</v>
+      </c>
+      <c r="E3">
+        <v>0.45</v>
+      </c>
+      <c r="F3">
+        <v>0.65</v>
+      </c>
+      <c r="G3">
+        <v>0.85</v>
+      </c>
+      <c r="H3" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="69">
+        <v>0.24</v>
+      </c>
+      <c r="J3" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="69">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>2028</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="I4" s="69">
+        <v>0.26</v>
+      </c>
+      <c r="J4" s="69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K4" s="69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>2027</v>
+      </c>
+      <c r="E5">
+        <v>0.45</v>
+      </c>
+      <c r="F5">
+        <v>0.65</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K5" s="69">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>2027</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="69">
+        <v>0.16</v>
+      </c>
+      <c r="J6" s="69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K6" s="69">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>2027</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="69">
+        <v>0.24</v>
+      </c>
+      <c r="J7" s="69">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>2028</v>
+      </c>
+      <c r="E8">
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="69">
+        <v>0.23</v>
+      </c>
+      <c r="J8" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="69">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="70"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <f>SOTP!W2</f>
+        <v>0.10567499999999999</v>
+      </c>
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="8">
+        <f>SOTP!W4</f>
+        <v>5.7975388146743925E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="71">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="71">
+        <v>0</v>
+      </c>
+      <c r="K14" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1929" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27701557-E3AD-46C5-8D1E-5FD29D8782C9}"/>
+  <xr:revisionPtr revIDLastSave="2735" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0087EF-CABA-46B6-95D3-42586F75BA02}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>Xavier Davis</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9B8EEDB9-D323-4045-B792-81FFBC96CAE3}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{E9CD2334-E6D0-4DCD-951C-AAF7CF2E3C5A}">
       <text>
         <r>
           <rPr>
@@ -66,32 +66,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-expected ebit margin
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{3003FE48-E7A5-4F44-8CCF-C960D9B03C62}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Xavier Davis:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-impact of growth eg 6% means a £1 increase in revenue increases NWC by 6pence</t>
+parameter limited form of A(t) = =L/s2t​−(L/st​)2 where L = years to fully adopt, s = adoption rate factor, t = years since launch</t>
         </r>
       </text>
     </comment>
@@ -100,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>FY</t>
   </si>
@@ -306,33 +281,6 @@
     <t>Share Price</t>
   </si>
   <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Sports Med</t>
-  </si>
-  <si>
-    <t>Launch_Central</t>
-  </si>
-  <si>
-    <t>Success_Bear</t>
-  </si>
-  <si>
-    <t>Success_Central</t>
-  </si>
-  <si>
-    <t>Success_Bull</t>
-  </si>
-  <si>
-    <t>PriceErosion</t>
-  </si>
-  <si>
-    <t>EBITMargin</t>
-  </si>
-  <si>
     <t>WACC:</t>
   </si>
   <si>
@@ -342,18 +290,9 @@
     <t>Launch Year</t>
   </si>
   <si>
-    <t>Peak Sales</t>
-  </si>
-  <si>
     <t>Adoption Speed</t>
   </si>
   <si>
-    <t>How to:</t>
-  </si>
-  <si>
-    <t>timeline each product between 2025 and 2029</t>
-  </si>
-  <si>
     <t>adjust by probability</t>
   </si>
   <si>
@@ -378,39 +317,112 @@
     <t>bridge into the SOTP as a separate operating asset</t>
   </si>
   <si>
-    <t>AGILI-C Cartilage Implant (CPT I adoption)</t>
-  </si>
-  <si>
-    <t>REGENETEN – Extra-articular Ligaments (broad uptake)</t>
-  </si>
-  <si>
-    <t>CORIOGRAPH Pre-Op Planning (Shoulder) – enterprise rollout</t>
-  </si>
-  <si>
-    <t>LEGION TKS Medial-Stabilised Insert – global mix-shift</t>
-  </si>
-  <si>
-    <t>CENTRIO PRP System – coverage &amp; site-of-care expansion</t>
-  </si>
-  <si>
-    <t>ALLEVYN COMPLETE CARE 5-Layer Foam – prevention protocols</t>
-  </si>
-  <si>
-    <t>Maintainance Capex</t>
-  </si>
-  <si>
-    <t>NWC pct of Sales change</t>
+    <t>AGILI-C Cartilage Implant (Sports Med)</t>
+  </si>
+  <si>
+    <t>REGENETEN – Extra-articular Ligaments (Sports Med)</t>
+  </si>
+  <si>
+    <t>CORIOGRAPH Pre-Op Planning (Orthopaedics)</t>
+  </si>
+  <si>
+    <t>LEGION TKS Medial-Stabilised Insert (Orthopaedics)</t>
+  </si>
+  <si>
+    <t>ALLEVYN COMPLETE CARE 5-Layer Foam (Advanced Wound)</t>
+  </si>
+  <si>
+    <t>CENTRIO PRP System (Advanced Wound)</t>
+  </si>
+  <si>
+    <t>Asset / Segment</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Targeted Launch</t>
+  </si>
+  <si>
+    <t>Bear Success Chance</t>
+  </si>
+  <si>
+    <t>Bull Success Chance</t>
+  </si>
+  <si>
+    <t>Central Success Chance</t>
+  </si>
+  <si>
+    <t>Annual Price Erosion</t>
+  </si>
+  <si>
+    <t>Estimated EBIT Margin</t>
+  </si>
+  <si>
+    <t>Maintainance CapEx</t>
+  </si>
+  <si>
+    <t>NWC increase per Sale</t>
+  </si>
+  <si>
+    <t>Segmental TAM</t>
+  </si>
+  <si>
+    <t>Segment Share</t>
+  </si>
+  <si>
+    <t>Fixed Cost Fraction</t>
+  </si>
+  <si>
+    <t>Variable Cost Fraction</t>
+  </si>
+  <si>
+    <t>Adoption Curve</t>
+  </si>
+  <si>
+    <t>Years to Fully Adopt</t>
+  </si>
+  <si>
+    <t>Modelled by:y=-x^2+2x</t>
+  </si>
+  <si>
+    <t>Implied  TAM</t>
+  </si>
+  <si>
+    <t>Sales multiplier</t>
+  </si>
+  <si>
+    <t>Novel Revenue</t>
+  </si>
+  <si>
+    <t>Retention Rate</t>
+  </si>
+  <si>
+    <t>Perpetual Growth</t>
+  </si>
+  <si>
+    <t>Returning Revenue</t>
+  </si>
+  <si>
+    <t>Total Annual Revenue</t>
+  </si>
+  <si>
+    <t>Fixed Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0;\(0\);\-"/>
     <numFmt numFmtId="165" formatCode="[Color10]0.00%;[Red]\(0.00\)%;\-"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]\(0\);\-"/>
+    <numFmt numFmtId="167" formatCode="[Color10]0%;[Red]\(0\)%;\-"/>
+    <numFmt numFmtId="168" formatCode="[Color10]0.0%;[Red]\(0.0\)%;\-"/>
+    <numFmt numFmtId="169" formatCode="0.0;\(0.0\);\-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +557,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -581,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -699,6 +717,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -707,7 +736,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -819,10 +848,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1398,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1815,7 +1860,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="H17" s="13">
-        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12"/>
+        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12" ca="1"/>
         <v>20738.04588044636</v>
       </c>
       <c r="I17" s="13">
@@ -2104,7 +2149,7 @@
         <v>10.08</v>
       </c>
       <c r="H29" s="13">
-        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13" ca="1"/>
+        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13"/>
         <v>16801.597649603467</v>
       </c>
       <c r="I29" s="13">
@@ -2303,11 +2348,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1EAA58-ADB1-46F6-8416-C90E04EF858D}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="topRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4010,6 +4055,20 @@
         <v>0.29956863895348951</v>
       </c>
     </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38">
+        <v>7250</v>
+      </c>
+      <c r="H38">
+        <v>16800</v>
+      </c>
+      <c r="N38">
+        <v>12140</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 H28 N28" xr:uid="{B110F3C2-1E4E-45A0-BB92-5A75057DEE2A}">
@@ -4022,379 +4081,3283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAC3436-3D57-4757-9CB9-CA7911356AEE}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="40" width="8.77734375" customWidth="1"/>
+    <col min="42" max="55" width="8.77734375" customWidth="1"/>
+    <col min="57" max="57" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BE1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF1" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="E2" s="37">
         <v>2027</v>
       </c>
-      <c r="E3">
-        <v>0.45</v>
-      </c>
-      <c r="F3">
-        <v>0.65</v>
-      </c>
-      <c r="G3">
-        <v>0.85</v>
-      </c>
-      <c r="H3" s="70">
-        <v>0.02</v>
-      </c>
-      <c r="I3" s="69">
-        <v>0.24</v>
-      </c>
-      <c r="J3" s="69">
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="69">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4">
+      <c r="F2" s="37">
         <v>2028</v>
       </c>
-      <c r="E4">
-        <v>0.35</v>
-      </c>
-      <c r="F4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G4">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="70">
-        <v>0.03</v>
-      </c>
-      <c r="I4" s="69">
-        <v>0.26</v>
-      </c>
-      <c r="J4" s="69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K4" s="69">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
+      <c r="G2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="H2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="I2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="J2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="M2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="N2" s="37">
         <v>2027</v>
       </c>
-      <c r="E5">
-        <v>0.45</v>
-      </c>
-      <c r="F5">
-        <v>0.65</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-      <c r="H5" s="70">
-        <v>0.02</v>
-      </c>
-      <c r="I5" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K5" s="69">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
+      <c r="O2" s="37">
+        <v>2028</v>
+      </c>
+      <c r="P2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="R2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="S2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="V2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="W2" s="37">
         <v>2027</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-      <c r="G6">
-        <v>0.85</v>
-      </c>
-      <c r="H6" s="70">
-        <v>0.02</v>
-      </c>
-      <c r="I6" s="69">
-        <v>0.16</v>
-      </c>
-      <c r="J6" s="69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K6" s="69">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7">
+      <c r="X2" s="37">
+        <v>2028</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="AA2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="AB2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="AE2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="AF2" s="37">
         <v>2027</v>
       </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-      <c r="F7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G7">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="70">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0.24</v>
-      </c>
-      <c r="J7" s="69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K7" s="69">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8">
+      <c r="AG2" s="37">
         <v>2028</v>
       </c>
-      <c r="E8">
-        <v>0.4</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-      <c r="G8">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="70">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="69">
-        <v>0.23</v>
-      </c>
-      <c r="J8" s="69">
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="69">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H10" s="8" t="s">
+      <c r="AH2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="AI2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="AJ2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="AK2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="AN2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="AO2" s="37">
+        <v>2027</v>
+      </c>
+      <c r="AP2" s="37">
+        <v>2028</v>
+      </c>
+      <c r="AQ2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="AR2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="AS2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="AT2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="AU2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="AW2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="AX2" s="37">
+        <v>2027</v>
+      </c>
+      <c r="AY2" s="37">
+        <v>2028</v>
+      </c>
+      <c r="AZ2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="BA2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="BB2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="BC2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="BE2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="BF2" s="8">
         <f>SOTP!W2</f>
         <v>0.10567499999999999</v>
       </c>
-      <c r="J10" s="69"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="8">
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="72">
+        <v>2027</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72">
+        <v>2028</v>
+      </c>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72">
+        <v>2027</v>
+      </c>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72">
+        <v>2027</v>
+      </c>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72">
+        <v>2027</v>
+      </c>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72">
+        <v>2028</v>
+      </c>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BE3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF3" s="8">
         <f>SOTP!W4</f>
         <v>5.7975388146743925E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H13" s="2" t="s">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="74">
+        <v>0.45</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74">
+        <v>0.45</v>
+      </c>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BE4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="74">
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74">
+        <v>0.65</v>
+      </c>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74">
+        <v>0.7</v>
+      </c>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5"/>
+      <c r="BE5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF5" s="69">
+        <v>-1</v>
+      </c>
+      <c r="BG5" s="69">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="74">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74">
+        <v>0.85</v>
+      </c>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74">
+        <v>0.75</v>
+      </c>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BE6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF6" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="BG6" s="80">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="80">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="74">
+        <v>0.24</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74">
+        <v>0.26</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74">
+        <v>0.16</v>
+      </c>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74">
+        <v>0.24</v>
+      </c>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74">
+        <v>0.23</v>
+      </c>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BE8" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF8" s="82">
+        <v>0.75</v>
+      </c>
+      <c r="BG8" s="82">
+        <v>0.85</v>
+      </c>
+      <c r="BH8" s="82">
+        <v>0.95</v>
+      </c>
+      <c r="BN8" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BN9" s="70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74">
+        <v>0.7</v>
+      </c>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74">
+        <v>0.7</v>
+      </c>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74">
+        <v>0.65</v>
+      </c>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74">
+        <v>0.85</v>
+      </c>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BN10" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="72"/>
+      <c r="BN11" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="74">
+        <v>0.08</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="74">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BN12" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
+      <c r="BN13" s="70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="72">
+        <f>B13*SOTP!B38</f>
+        <v>290</v>
+      </c>
+      <c r="C14" s="72">
+        <f>B14*(1+$BF$1)</f>
+        <v>295.8</v>
+      </c>
+      <c r="D14" s="72">
+        <f t="shared" ref="D14:J14" si="0">C14*(1+$BF$1)</f>
+        <v>301.71600000000001</v>
+      </c>
+      <c r="E14" s="72">
+        <f t="shared" si="0"/>
+        <v>307.75031999999999</v>
+      </c>
+      <c r="F14" s="72">
+        <f t="shared" si="0"/>
+        <v>313.90532639999998</v>
+      </c>
+      <c r="G14" s="72">
+        <f t="shared" si="0"/>
+        <v>320.183432928</v>
+      </c>
+      <c r="H14" s="72">
+        <f t="shared" si="0"/>
+        <v>326.58710158655998</v>
+      </c>
+      <c r="I14" s="72">
+        <f t="shared" si="0"/>
+        <v>333.11884361829118</v>
+      </c>
+      <c r="J14" s="72">
+        <f t="shared" si="0"/>
+        <v>339.78122049065701</v>
+      </c>
+      <c r="K14" s="72">
+        <f>K13*SOTP!B38</f>
+        <v>217.5</v>
+      </c>
+      <c r="L14" s="72">
+        <f>K14*(1+$BF$1)</f>
+        <v>221.85</v>
+      </c>
+      <c r="M14" s="72">
+        <f t="shared" ref="M14:S14" si="1">L14*(1+$BF$1)</f>
+        <v>226.28700000000001</v>
+      </c>
+      <c r="N14" s="72">
+        <f t="shared" si="1"/>
+        <v>230.81274000000002</v>
+      </c>
+      <c r="O14" s="72">
+        <f t="shared" si="1"/>
+        <v>235.42899480000003</v>
+      </c>
+      <c r="P14" s="72">
+        <f t="shared" si="1"/>
+        <v>240.13757469600003</v>
+      </c>
+      <c r="Q14" s="72">
+        <f t="shared" si="1"/>
+        <v>244.94032618992003</v>
+      </c>
+      <c r="R14" s="72">
+        <f t="shared" si="1"/>
+        <v>249.83913271371844</v>
+      </c>
+      <c r="S14" s="72">
+        <f t="shared" si="1"/>
+        <v>254.83591536799281</v>
+      </c>
+      <c r="T14" s="72">
+        <f>T13*SOTP!H38</f>
+        <v>336</v>
+      </c>
+      <c r="U14" s="72">
+        <f>T14*(1+$BF$1)</f>
+        <v>342.72</v>
+      </c>
+      <c r="V14" s="72">
+        <f t="shared" ref="V14:AB14" si="2">U14*(1+$BF$1)</f>
+        <v>349.57440000000003</v>
+      </c>
+      <c r="W14" s="72">
+        <f t="shared" si="2"/>
+        <v>356.56588800000003</v>
+      </c>
+      <c r="X14" s="72">
+        <f t="shared" si="2"/>
+        <v>363.69720576000003</v>
+      </c>
+      <c r="Y14" s="72">
+        <f t="shared" si="2"/>
+        <v>370.97114987520001</v>
+      </c>
+      <c r="Z14" s="72">
+        <f t="shared" si="2"/>
+        <v>378.39057287270401</v>
+      </c>
+      <c r="AA14" s="72">
+        <f t="shared" si="2"/>
+        <v>385.95838433015808</v>
+      </c>
+      <c r="AB14" s="72">
+        <f t="shared" si="2"/>
+        <v>393.67755201676124</v>
+      </c>
+      <c r="AC14" s="72">
+        <f>AC13*SOTP!H38</f>
+        <v>420</v>
+      </c>
+      <c r="AD14" s="72">
+        <f>AC14*(1+$BF$1)</f>
+        <v>428.40000000000003</v>
+      </c>
+      <c r="AE14" s="72">
+        <f t="shared" ref="AE14:AK14" si="3">AD14*(1+$BF$1)</f>
+        <v>436.96800000000002</v>
+      </c>
+      <c r="AF14" s="72">
+        <f t="shared" si="3"/>
+        <v>445.70736000000005</v>
+      </c>
+      <c r="AG14" s="72">
+        <f t="shared" si="3"/>
+        <v>454.62150720000005</v>
+      </c>
+      <c r="AH14" s="72">
+        <f t="shared" si="3"/>
+        <v>463.71393734400004</v>
+      </c>
+      <c r="AI14" s="72">
+        <f t="shared" si="3"/>
+        <v>472.98821609088003</v>
+      </c>
+      <c r="AJ14" s="72">
+        <f t="shared" si="3"/>
+        <v>482.44798041269763</v>
+      </c>
+      <c r="AK14" s="72">
+        <f t="shared" si="3"/>
+        <v>492.09694002095159</v>
+      </c>
+      <c r="AL14" s="72">
+        <f>AL13*SOTP!N38</f>
+        <v>182.1</v>
+      </c>
+      <c r="AM14" s="72">
+        <f>AL14*(1+$BF$1)</f>
+        <v>185.74199999999999</v>
+      </c>
+      <c r="AN14" s="72">
+        <f t="shared" ref="AN14:AT14" si="4">AM14*(1+$BF$1)</f>
+        <v>189.45684</v>
+      </c>
+      <c r="AO14" s="72">
+        <f t="shared" si="4"/>
+        <v>193.24597679999999</v>
+      </c>
+      <c r="AP14" s="72">
+        <f t="shared" si="4"/>
+        <v>197.110896336</v>
+      </c>
+      <c r="AQ14" s="72">
+        <f t="shared" si="4"/>
+        <v>201.05311426271999</v>
+      </c>
+      <c r="AR14" s="72">
+        <f t="shared" si="4"/>
+        <v>205.07417654797439</v>
+      </c>
+      <c r="AS14" s="72">
+        <f t="shared" si="4"/>
+        <v>209.17566007893387</v>
+      </c>
+      <c r="AT14" s="72">
+        <f t="shared" si="4"/>
+        <v>213.35917328051255</v>
+      </c>
+      <c r="AU14" s="72">
+        <f>AU13*SOTP!N38</f>
+        <v>364.2</v>
+      </c>
+      <c r="AV14" s="72">
+        <f>AU14*(1+$BF$1)</f>
+        <v>371.48399999999998</v>
+      </c>
+      <c r="AW14" s="72">
+        <f t="shared" ref="AW14:BC14" si="5">AV14*(1+$BF$1)</f>
+        <v>378.91368</v>
+      </c>
+      <c r="AX14" s="72">
+        <f t="shared" si="5"/>
+        <v>386.49195359999999</v>
+      </c>
+      <c r="AY14" s="72">
+        <f t="shared" si="5"/>
+        <v>394.22179267199999</v>
+      </c>
+      <c r="AZ14" s="72">
+        <f t="shared" si="5"/>
+        <v>402.10622852543997</v>
+      </c>
+      <c r="BA14" s="72">
+        <f t="shared" si="5"/>
+        <v>410.14835309594878</v>
+      </c>
+      <c r="BB14" s="72">
+        <f t="shared" si="5"/>
+        <v>418.35132015786775</v>
+      </c>
+      <c r="BC14" s="72">
+        <f t="shared" si="5"/>
+        <v>426.7183465610251</v>
+      </c>
+      <c r="BN14" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="78">
+        <v>5</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78">
+        <v>4</v>
+      </c>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78">
+        <v>3</v>
+      </c>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+      <c r="BA15" s="78"/>
+      <c r="BB15" s="78"/>
+      <c r="BC15" s="78"/>
+      <c r="BN15" s="79"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BN16" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="71">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="71">
-        <v>0</v>
-      </c>
-      <c r="K14" s="71">
+    </row>
+    <row r="17" spans="1:55" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="73">
+        <f>IF(C2&lt;$B$3,0,IF(B17&gt;=1,1,MIN(1,MAX(0,-((((C2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="73">
+        <f>IF(D2&lt;$B$3,0,IF(C17&gt;=1,1,MIN(1,MAX(0,-((((D2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="73">
+        <f>IF(E2&lt;$B$3,0,IF(D17&gt;=1,1,MIN(1,MAX(0,-((((E2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="73">
+        <f>IF(F2&lt;$B$3,0,IF(E17&gt;=1,1,MIN(1,MAX(0,-((((F2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="G17" s="73">
+        <f>IF(G2&lt;$B$3,0,IF(F17&gt;=1,1,MIN(1,MAX(0,-((((G2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.64</v>
+      </c>
+      <c r="H17" s="73">
+        <f>IF(H2&lt;$B$3,0,IF(G17&gt;=1,1,MIN(1,MAX(0,-((((H2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.84</v>
+      </c>
+      <c r="I17" s="73">
+        <f>IF(I2&lt;$B$3,0,IF(H17&gt;=1,1,MIN(1,MAX(0,-((((I2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.96</v>
+      </c>
+      <c r="J17" s="73">
+        <f>IF(J2&lt;$B$3,0,IF(I17&gt;=1,1,MIN(1,MAX(0,-((((J2-$B$3)/$B$15/$BG$7)-1)^2)+1))))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="K17" s="73"/>
+      <c r="L17" s="73">
+        <f>IF(L2&lt;$K$3,0,IF(K17&gt;=1,1,MIN(1,MAX(0,-((((L2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="73">
+        <f>IF(M2&lt;$K$3,0,IF(L17&gt;=1,1,MIN(1,MAX(0,-((((M2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="73">
+        <f>IF(N2&lt;$K$3,0,IF(M17&gt;=1,1,MIN(1,MAX(0,-((((N2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="73">
+        <f>IF(O2&lt;$K$3,0,IF(N17&gt;=1,1,MIN(1,MAX(0,-((((O2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="73">
+        <f>IF(P2&lt;$K$3,0,IF(O17&gt;=1,1,MIN(1,MAX(0,-((((P2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.4375</v>
+      </c>
+      <c r="Q17" s="73">
+        <f>IF(Q2&lt;$K$3,0,IF(P17&gt;=1,1,MIN(1,MAX(0,-((((Q2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.75</v>
+      </c>
+      <c r="R17" s="73">
+        <f>IF(R2&lt;$K$3,0,IF(Q17&gt;=1,1,MIN(1,MAX(0,-((((R2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.9375</v>
+      </c>
+      <c r="S17" s="73">
+        <f>IF(S2&lt;$K$3,0,IF(R17&gt;=1,1,MIN(1,MAX(0,-((((S2-$K$3)/$K$15/$BG$7)-1)^2)+1))))</f>
         <v>1</v>
       </c>
-      <c r="K16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26" s="72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H27" s="72" t="s">
-        <v>90</v>
-      </c>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73">
+        <f>IF(U2&lt;$T$3,0,IF(T17&gt;=1,1,MIN(1,MAX(0,-((((U2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="73">
+        <f>IF(V2&lt;$T$3,0,IF(U17&gt;=1,1,MIN(1,MAX(0,-((((V2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="73">
+        <f>IF(W2&lt;$T$3,0,IF(V17&gt;=1,1,MIN(1,MAX(0,-((((W2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="73">
+        <f>IF(X2&lt;$T$3,0,IF(W17&gt;=1,1,MIN(1,MAX(0,-((((X2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="Y17" s="73">
+        <f>IF(Y2&lt;$T$3,0,IF(X17&gt;=1,1,MIN(1,MAX(0,-((((Y2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Z17" s="73">
+        <f>IF(Z2&lt;$T$3,0,IF(Y17&gt;=1,1,MIN(1,MAX(0,-((((Z2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="73">
+        <f>IF(AA2&lt;$T$3,0,IF(Z17&gt;=1,1,MIN(1,MAX(0,-((((AA2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="73">
+        <f>IF(AB2&lt;$T$3,0,IF(AA17&gt;=1,1,MIN(1,MAX(0,-((((AB2-$T$3)/$T$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73">
+        <f>IF(AD2&lt;$AC$3,0,IF(AC17&gt;=1,1,MIN(1,MAX(0,-((((AD2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="73">
+        <f>IF(AE2&lt;$AC$3,0,IF(AD17&gt;=1,1,MIN(1,MAX(0,-((((AE2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="73">
+        <f>IF(AF2&lt;$AC$3,0,IF(AE17&gt;=1,1,MIN(1,MAX(0,-((((AF2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="73">
+        <f>IF(AG2&lt;$AC$3,0,IF(AF17&gt;=1,1,MIN(1,MAX(0,-((((AG2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="AH17" s="73">
+        <f>IF(AH2&lt;$AC$3,0,IF(AG17&gt;=1,1,MIN(1,MAX(0,-((((AH2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AI17" s="73">
+        <f>IF(AI2&lt;$AC$3,0,IF(AH17&gt;=1,1,MIN(1,MAX(0,-((((AI2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="73">
+        <f>IF(AJ2&lt;$AC$3,0,IF(AI17&gt;=1,1,MIN(1,MAX(0,-((((AJ2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AK17" s="73">
+        <f>IF(AK2&lt;$AC$3,0,IF(AJ17&gt;=1,1,MIN(1,MAX(0,-((((AK2-$AC$3)/$AC$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73">
+        <f>IF(AM2&lt;$AL$3,0,IF(AL17&gt;=1,1,MIN(1,MAX(0,-((((AM2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="73">
+        <f>IF(AN2&lt;$AL$3,0,IF(AM17&gt;=1,1,MIN(1,MAX(0,-((((AN2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="73">
+        <f>IF(AO2&lt;$AL$3,0,IF(AN17&gt;=1,1,MIN(1,MAX(0,-((((AO2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="73">
+        <f>IF(AP2&lt;$AL$3,0,IF(AO17&gt;=1,1,MIN(1,MAX(0,-((((AP2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.4375</v>
+      </c>
+      <c r="AQ17" s="73">
+        <f>IF(AQ2&lt;$AL$3,0,IF(AP17&gt;=1,1,MIN(1,MAX(0,-((((AQ2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.75</v>
+      </c>
+      <c r="AR17" s="73">
+        <f>IF(AR2&lt;$AL$3,0,IF(AQ17&gt;=1,1,MIN(1,MAX(0,-((((AR2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.9375</v>
+      </c>
+      <c r="AS17" s="73">
+        <f>IF(AS2&lt;$AL$3,0,IF(AR17&gt;=1,1,MIN(1,MAX(0,-((((AS2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT17" s="73">
+        <f>IF(AT2&lt;$AL$3,0,IF(AS17&gt;=1,1,MIN(1,MAX(0,-((((AT2-$AL$3)/$AL$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73">
+        <f>IF(AV2&lt;$AU$3,0,IF(AU17&gt;=1,1,MIN(1,MAX(0,-((((AV2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="73">
+        <f>IF(AW2&lt;$AU$3,0,IF(AV17&gt;=1,1,MIN(1,MAX(0,-((((AW2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="73">
+        <f>IF(AX2&lt;$AU$3,0,IF(AW17&gt;=1,1,MIN(1,MAX(0,-((((AX2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="73">
+        <f>IF(AY2&lt;$AU$3,0,IF(AX17&gt;=1,1,MIN(1,MAX(0,-((((AY2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="73">
+        <f>IF(AZ2&lt;$AU$3,0,IF(AY17&gt;=1,1,MIN(1,MAX(0,-((((AZ2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>0.75</v>
+      </c>
+      <c r="BA17" s="73">
+        <f>IF(BA2&lt;$AU$3,0,IF(AZ17&gt;=1,1,MIN(1,MAX(0,-((((BA2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="BB17" s="73">
+        <f>IF(BB2&lt;$AU$3,0,IF(BA17&gt;=1,1,MIN(1,MAX(0,-((((BB2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+      <c r="BC17" s="73">
+        <f>IF(BC2&lt;$AU$3,0,IF(BB17&gt;=1,1,MIN(1,MAX(0,-((((BC2-$AU$3)/$AU$15/$BG$7)-1)^2)+1))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72">
+        <f>C14*(C17-B17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="72">
+        <f>D14*(D17-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="72">
+        <f>E14*(E17-D17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <f>F14*(F17-E17)</f>
+        <v>113.00591750399995</v>
+      </c>
+      <c r="G18" s="72">
+        <f>G14*(G17-F17)</f>
+        <v>89.651361219840041</v>
+      </c>
+      <c r="H18" s="72">
+        <f>H14*(H17-G17)</f>
+        <v>65.317420317311985</v>
+      </c>
+      <c r="I18" s="72">
+        <f>I14*(I17-H17)</f>
+        <v>39.974261234194941</v>
+      </c>
+      <c r="J18" s="72">
+        <f>J14*(J17-I17)</f>
+        <v>13.591248819626292</v>
+      </c>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72">
+        <f>L14*(L17-K17)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="72">
+        <f>M14*(M17-L17)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="72">
+        <f>N14*(N17-M17)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="72">
+        <f>O14*(O17-N17)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="72">
+        <f>P14*(P17-O17)</f>
+        <v>105.06018892950001</v>
+      </c>
+      <c r="Q18" s="72">
+        <f>Q14*(Q17-P17)</f>
+        <v>76.543851934350016</v>
+      </c>
+      <c r="R18" s="72">
+        <f>R14*(R17-Q17)</f>
+        <v>46.84483738382221</v>
+      </c>
+      <c r="S18" s="72">
+        <f>S14*(S17-R17)</f>
+        <v>15.927244710499551</v>
+      </c>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72">
+        <f>U14*(U17-T17)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="72">
+        <f>V14*(V17-U17)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="72">
+        <f>W14*(W17-V17)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="72">
+        <f>X14*(X17-W17)</f>
+        <v>202.05400319999998</v>
+      </c>
+      <c r="Y18" s="72">
+        <f>Y14*(Y17-X17)</f>
+        <v>123.65704995840002</v>
+      </c>
+      <c r="Z18" s="72">
+        <f>Z14*(Z17-Y17)</f>
+        <v>42.04339698585602</v>
+      </c>
+      <c r="AA18" s="72">
+        <f>AA14*(AA17-Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="72">
+        <f>AB14*(AB17-AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72">
+        <f>AD14*(AD17-AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="72">
+        <f>AE14*(AE17-AD17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="72">
+        <f>AF14*(AF17-AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="72">
+        <f>AG14*(AG17-AF17)</f>
+        <v>252.56750399999999</v>
+      </c>
+      <c r="AH18" s="72">
+        <f>AH14*(AH17-AG17)</f>
+        <v>154.57131244800004</v>
+      </c>
+      <c r="AI18" s="72">
+        <f>AI14*(AI17-AH17)</f>
+        <v>52.554246232320025</v>
+      </c>
+      <c r="AJ18" s="72">
+        <f>AJ14*(AJ17-AI17)</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="72">
+        <f>AK14*(AK17-AJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72">
+        <f>AM14*(AM17-AL17)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="72">
+        <f>AN14*(AN17-AM17)</f>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="72">
+        <f>AO14*(AO17-AN17)</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="72">
+        <f>AP14*(AP17-AO17)</f>
+        <v>86.236017146999998</v>
+      </c>
+      <c r="AQ18" s="72">
+        <f>AQ14*(AQ17-AP17)</f>
+        <v>62.829098207099996</v>
+      </c>
+      <c r="AR18" s="72">
+        <f>AR14*(AR17-AQ17)</f>
+        <v>38.451408102745198</v>
+      </c>
+      <c r="AS18" s="72">
+        <f>AS14*(AS17-AR17)</f>
+        <v>13.073478754933367</v>
+      </c>
+      <c r="AT18" s="72">
+        <f>AT14*(AT17-AS17)</f>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72">
+        <f>AV14*(AV17-AU17)</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="72">
+        <f>AW14*(AW17-AV17)</f>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="72">
+        <f>AX14*(AX17-AW17)</f>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="72">
+        <f>AY14*(AY17-AX17)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="72">
+        <f>AZ14*(AZ17-AY17)</f>
+        <v>301.57967139407998</v>
+      </c>
+      <c r="BA18" s="72">
+        <f>BA14*(BA17-AZ17)</f>
+        <v>102.53708827398719</v>
+      </c>
+      <c r="BB18" s="72">
+        <f>BB14*(BB17-BA17)</f>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="72">
+        <f>BC14*(BC17-BB17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72">
+        <f>B18*$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="72">
+        <f>(C18*$BG$8)+C19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="72">
+        <f t="shared" ref="E19:J19" si="6">(D18*$BG$8)+D19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="72">
+        <f t="shared" si="6"/>
+        <v>96.055029878399964</v>
+      </c>
+      <c r="H19" s="72">
+        <f t="shared" si="6"/>
+        <v>172.25868691526398</v>
+      </c>
+      <c r="I19" s="72">
+        <f t="shared" si="6"/>
+        <v>227.77849418497917</v>
+      </c>
+      <c r="J19" s="72">
+        <f t="shared" si="6"/>
+        <v>261.75661623404488</v>
+      </c>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72">
+        <f>K18*$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="72">
+        <f>(L18*$BG$8)+L19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="72">
+        <f t="shared" ref="N19:S19" si="7">(M18*$BG$8)+M19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="72">
+        <f t="shared" si="7"/>
+        <v>89.301160590075014</v>
+      </c>
+      <c r="R19" s="72">
+        <f t="shared" si="7"/>
+        <v>154.36343473427252</v>
+      </c>
+      <c r="S19" s="72">
+        <f t="shared" si="7"/>
+        <v>194.1815465105214</v>
+      </c>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72">
+        <f>T18*$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="72">
+        <f>(U18*$BG$8)+U19</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="72">
+        <f t="shared" ref="W19:AB19" si="8">(V18*$BG$8)+V19</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="72">
+        <f t="shared" si="8"/>
+        <v>171.74590271999998</v>
+      </c>
+      <c r="Z19" s="72">
+        <f t="shared" si="8"/>
+        <v>276.85439518464</v>
+      </c>
+      <c r="AA19" s="72">
+        <f t="shared" si="8"/>
+        <v>312.5912826226176</v>
+      </c>
+      <c r="AB19" s="72">
+        <f t="shared" si="8"/>
+        <v>312.5912826226176</v>
+      </c>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72">
+        <f>AC18*$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="72">
+        <f>(AD18*$BG$8)+AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="72">
+        <f t="shared" ref="AF19:AK19" si="9">(AE18*$BG$8)+AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="72">
+        <f t="shared" si="9"/>
+        <v>214.68237839999998</v>
+      </c>
+      <c r="AI19" s="72">
+        <f t="shared" si="9"/>
+        <v>346.0679939808</v>
+      </c>
+      <c r="AJ19" s="72">
+        <f t="shared" si="9"/>
+        <v>390.73910327827201</v>
+      </c>
+      <c r="AK19" s="72">
+        <f t="shared" si="9"/>
+        <v>390.73910327827201</v>
+      </c>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72">
+        <f>AL18*$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="72">
+        <f>(AM18*$BG$8)+AM19</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="72">
+        <f t="shared" ref="AO19:AT19" si="10">(AN18*$BG$8)+AN19</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="72">
+        <f t="shared" si="10"/>
+        <v>73.300614574950004</v>
+      </c>
+      <c r="AR19" s="72">
+        <f t="shared" si="10"/>
+        <v>126.70534805098501</v>
+      </c>
+      <c r="AS19" s="72">
+        <f t="shared" si="10"/>
+        <v>159.38904493831842</v>
+      </c>
+      <c r="AT19" s="72">
+        <f t="shared" si="10"/>
+        <v>170.50150188001177</v>
+      </c>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72">
+        <f>AU18*$BG$8</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="72">
+        <f>(AV18*$BG$8)+AV19</f>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="72">
+        <f t="shared" ref="AX19:BC19" si="11">(AW18*$BG$8)+AW19</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="72">
+        <f t="shared" si="11"/>
+        <v>256.34272068496796</v>
+      </c>
+      <c r="BB19" s="72">
+        <f t="shared" si="11"/>
+        <v>343.49924571785709</v>
+      </c>
+      <c r="BC19" s="72">
+        <f t="shared" si="11"/>
+        <v>343.49924571785709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="83">
+        <f>SUM(C17:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="83">
+        <f t="shared" ref="D20:BC20" si="12">SUM(D17:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="83">
+        <f t="shared" si="12"/>
+        <v>113.36591750399995</v>
+      </c>
+      <c r="G20" s="83">
+        <f t="shared" si="12"/>
+        <v>186.34639109824002</v>
+      </c>
+      <c r="H20" s="83">
+        <f t="shared" si="12"/>
+        <v>238.41610723257597</v>
+      </c>
+      <c r="I20" s="83">
+        <f t="shared" si="12"/>
+        <v>268.71275541917413</v>
+      </c>
+      <c r="J20" s="83">
+        <f t="shared" si="12"/>
+        <v>276.34786505367117</v>
+      </c>
+      <c r="L20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="83">
+        <f t="shared" si="12"/>
+        <v>105.49768892950001</v>
+      </c>
+      <c r="Q20" s="83">
+        <f t="shared" si="12"/>
+        <v>166.59501252442504</v>
+      </c>
+      <c r="R20" s="83">
+        <f t="shared" si="12"/>
+        <v>202.14577211809473</v>
+      </c>
+      <c r="S20" s="83">
+        <f t="shared" si="12"/>
+        <v>211.10879122102097</v>
+      </c>
+      <c r="U20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="83">
+        <f t="shared" si="12"/>
+        <v>202.60955875555553</v>
+      </c>
+      <c r="Y20" s="83">
+        <f t="shared" si="12"/>
+        <v>296.29184156728888</v>
+      </c>
+      <c r="Z20" s="83">
+        <f t="shared" si="12"/>
+        <v>319.89779217049602</v>
+      </c>
+      <c r="AA20" s="83">
+        <f t="shared" si="12"/>
+        <v>313.5912826226176</v>
+      </c>
+      <c r="AB20" s="83">
+        <f t="shared" si="12"/>
+        <v>313.5912826226176</v>
+      </c>
+      <c r="AD20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="83">
+        <f t="shared" si="12"/>
+        <v>253.12305955555553</v>
+      </c>
+      <c r="AH20" s="83">
+        <f t="shared" si="12"/>
+        <v>370.14257973688893</v>
+      </c>
+      <c r="AI20" s="83">
+        <f t="shared" si="12"/>
+        <v>399.62224021311999</v>
+      </c>
+      <c r="AJ20" s="83">
+        <f t="shared" si="12"/>
+        <v>391.73910327827201</v>
+      </c>
+      <c r="AK20" s="83">
+        <f t="shared" si="12"/>
+        <v>391.73910327827201</v>
+      </c>
+      <c r="AL20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="83">
+        <f t="shared" si="12"/>
+        <v>86.673517146999998</v>
+      </c>
+      <c r="AQ20" s="83">
+        <f t="shared" si="12"/>
+        <v>136.87971278205001</v>
+      </c>
+      <c r="AR20" s="83">
+        <f t="shared" si="12"/>
+        <v>166.09425615373021</v>
+      </c>
+      <c r="AS20" s="83">
+        <f t="shared" si="12"/>
+        <v>173.4625236932518</v>
+      </c>
+      <c r="AT20" s="83">
+        <f t="shared" si="12"/>
+        <v>171.50150188001177</v>
+      </c>
+      <c r="AU20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="83">
+        <f t="shared" si="12"/>
+        <v>302.32967139407998</v>
+      </c>
+      <c r="BA20" s="83">
+        <f t="shared" si="12"/>
+        <v>359.87980895895515</v>
+      </c>
+      <c r="BB20" s="83">
+        <f t="shared" si="12"/>
+        <v>344.49924571785709</v>
+      </c>
+      <c r="BC20" s="83">
+        <f t="shared" si="12"/>
+        <v>344.49924571785709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="72">
+        <f>-(1-$B$8)*$J$19*$B$9</f>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="D22" s="84">
+        <f t="shared" ref="D22:J22" si="13">-(1-$B$8)*$J$19*$B$9</f>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="E22" s="72">
+        <f t="shared" si="13"/>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="F22" s="72">
+        <f t="shared" si="13"/>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="G22" s="72">
+        <f t="shared" si="13"/>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="H22" s="72">
+        <f t="shared" si="13"/>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="I22" s="72">
+        <f t="shared" si="13"/>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="J22" s="72">
+        <f t="shared" si="13"/>
+        <v>-39.787005667574824</v>
+      </c>
+      <c r="L22" s="72">
+        <f>-(1-$K$8)*$S$19*$K$9</f>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="M22" s="72">
+        <f t="shared" ref="M22:S22" si="14">-(1-$K$8)*$S$19*$K$9</f>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="N22" s="72">
+        <f t="shared" si="14"/>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="O22" s="72">
+        <f t="shared" si="14"/>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="P22" s="72">
+        <f t="shared" si="14"/>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="Q22" s="72">
+        <f t="shared" si="14"/>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="R22" s="72">
+        <f t="shared" si="14"/>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="S22" s="72">
+        <f t="shared" si="14"/>
+        <v>-35.923586104446457</v>
+      </c>
+      <c r="U22" s="72">
+        <f>-(1-$T$8)*$AB$19*$T$9</f>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="V22" s="72">
+        <f t="shared" ref="V22:AB22" si="15">-(1-$T$8)*$AB$19*$T$9</f>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="W22" s="72">
+        <f t="shared" si="15"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="X22" s="72">
+        <f t="shared" si="15"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="Y22" s="72">
+        <f t="shared" si="15"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="Z22" s="72">
+        <f t="shared" si="15"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AA22" s="72">
+        <f t="shared" si="15"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AB22" s="72">
+        <f t="shared" si="15"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AD22" s="72">
+        <f>-(1-$T$8)*$AB$19*$T$9</f>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AE22" s="72">
+        <f t="shared" ref="AE22:AK22" si="16">-(1-$T$8)*$AB$19*$T$9</f>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AF22" s="72">
+        <f t="shared" si="16"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AG22" s="72">
+        <f t="shared" si="16"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AH22" s="72">
+        <f t="shared" si="16"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AI22" s="72">
+        <f t="shared" si="16"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AJ22" s="72">
+        <f t="shared" si="16"/>
+        <v>-75.02190782942823</v>
+      </c>
+      <c r="AK22" s="72">
+        <f t="shared" si="16"/>
+        <v>-75.02190782942823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="72"/>
+      <c r="BA29" s="72"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="72"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="72"/>
+      <c r="AN30" s="72"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="72"/>
+      <c r="BA30" s="72"/>
+      <c r="BB30" s="72"/>
+      <c r="BC30" s="72"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="72"/>
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="72"/>
+      <c r="BA31" s="72"/>
+      <c r="BB31" s="72"/>
+      <c r="BC31" s="72"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="72"/>
+      <c r="AN32" s="72"/>
+      <c r="AO32" s="72"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="72"/>
+      <c r="BA32" s="72"/>
+      <c r="BB32" s="72"/>
+      <c r="BC32" s="72"/>
+    </row>
+    <row r="33" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="72"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="72"/>
+      <c r="BA33" s="72"/>
+      <c r="BB33" s="72"/>
+      <c r="BC33" s="72"/>
+    </row>
+    <row r="34" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="72"/>
+      <c r="BA34" s="72"/>
+      <c r="BB34" s="72"/>
+      <c r="BC34" s="72"/>
+    </row>
+    <row r="35" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="72"/>
+      <c r="AN35" s="72"/>
+      <c r="AO35" s="72"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="72"/>
+      <c r="BA35" s="72"/>
+      <c r="BB35" s="72"/>
+      <c r="BC35" s="72"/>
+    </row>
+    <row r="36" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="72"/>
+      <c r="AM36" s="72"/>
+      <c r="AN36" s="72"/>
+      <c r="AO36" s="72"/>
+      <c r="AP36" s="72"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="72"/>
+      <c r="AV36" s="72"/>
+      <c r="AW36" s="72"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="72"/>
+      <c r="BA36" s="72"/>
+      <c r="BB36" s="72"/>
+      <c r="BC36" s="72"/>
+    </row>
+    <row r="37" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="72"/>
+      <c r="AM37" s="72"/>
+      <c r="AN37" s="72"/>
+      <c r="AO37" s="72"/>
+      <c r="AP37" s="72"/>
+      <c r="AQ37" s="72"/>
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="72"/>
+      <c r="AT37" s="72"/>
+      <c r="AU37" s="72"/>
+      <c r="AV37" s="72"/>
+      <c r="AW37" s="72"/>
+      <c r="AX37" s="72"/>
+      <c r="AY37" s="72"/>
+      <c r="AZ37" s="72"/>
+      <c r="BA37" s="72"/>
+      <c r="BB37" s="72"/>
+      <c r="BC37" s="72"/>
+    </row>
+    <row r="38" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="72"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="72"/>
+      <c r="AO38" s="72"/>
+      <c r="AP38" s="72"/>
+      <c r="AQ38" s="72"/>
+      <c r="AR38" s="72"/>
+      <c r="AS38" s="72"/>
+      <c r="AT38" s="72"/>
+      <c r="AU38" s="72"/>
+      <c r="AV38" s="72"/>
+      <c r="AW38" s="72"/>
+      <c r="AX38" s="72"/>
+      <c r="AY38" s="72"/>
+      <c r="AZ38" s="72"/>
+      <c r="BA38" s="72"/>
+      <c r="BB38" s="72"/>
+      <c r="BC38" s="72"/>
+    </row>
+    <row r="39" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="72"/>
+      <c r="AO39" s="72"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="72"/>
+      <c r="AR39" s="72"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="72"/>
+      <c r="AU39" s="72"/>
+      <c r="AV39" s="72"/>
+      <c r="AW39" s="72"/>
+      <c r="AX39" s="72"/>
+      <c r="AY39" s="72"/>
+      <c r="AZ39" s="72"/>
+      <c r="BA39" s="72"/>
+      <c r="BB39" s="72"/>
+      <c r="BC39" s="72"/>
+    </row>
+    <row r="40" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="72"/>
+      <c r="AM40" s="72"/>
+      <c r="AN40" s="72"/>
+      <c r="AO40" s="72"/>
+      <c r="AP40" s="72"/>
+      <c r="AQ40" s="72"/>
+      <c r="AR40" s="72"/>
+      <c r="AS40" s="72"/>
+      <c r="AT40" s="72"/>
+      <c r="AU40" s="72"/>
+      <c r="AV40" s="72"/>
+      <c r="AW40" s="72"/>
+      <c r="AX40" s="72"/>
+      <c r="AY40" s="72"/>
+      <c r="AZ40" s="72"/>
+      <c r="BA40" s="72"/>
+      <c r="BB40" s="72"/>
+      <c r="BC40" s="72"/>
+    </row>
+    <row r="41" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="72"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="72"/>
+      <c r="AF41" s="72"/>
+      <c r="AG41" s="72"/>
+      <c r="AH41" s="72"/>
+      <c r="AI41" s="72"/>
+      <c r="AJ41" s="72"/>
+      <c r="AK41" s="72"/>
+      <c r="AL41" s="72"/>
+      <c r="AM41" s="72"/>
+      <c r="AN41" s="72"/>
+      <c r="AO41" s="72"/>
+      <c r="AP41" s="72"/>
+      <c r="AQ41" s="72"/>
+      <c r="AR41" s="72"/>
+      <c r="AS41" s="72"/>
+      <c r="AT41" s="72"/>
+      <c r="AU41" s="72"/>
+      <c r="AV41" s="72"/>
+      <c r="AW41" s="72"/>
+      <c r="AX41" s="72"/>
+      <c r="AY41" s="72"/>
+      <c r="AZ41" s="72"/>
+      <c r="BA41" s="72"/>
+      <c r="BB41" s="72"/>
+      <c r="BC41" s="72"/>
+    </row>
+    <row r="42" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="72"/>
+      <c r="AI42" s="72"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="72"/>
+      <c r="AL42" s="72"/>
+      <c r="AM42" s="72"/>
+      <c r="AN42" s="72"/>
+      <c r="AO42" s="72"/>
+      <c r="AP42" s="72"/>
+      <c r="AQ42" s="72"/>
+      <c r="AR42" s="72"/>
+      <c r="AS42" s="72"/>
+      <c r="AT42" s="72"/>
+      <c r="AU42" s="72"/>
+      <c r="AV42" s="72"/>
+      <c r="AW42" s="72"/>
+      <c r="AX42" s="72"/>
+      <c r="AY42" s="72"/>
+      <c r="AZ42" s="72"/>
+      <c r="BA42" s="72"/>
+      <c r="BB42" s="72"/>
+      <c r="BC42" s="72"/>
+    </row>
+    <row r="43" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="72"/>
+      <c r="AE43" s="72"/>
+      <c r="AF43" s="72"/>
+      <c r="AG43" s="72"/>
+      <c r="AH43" s="72"/>
+      <c r="AI43" s="72"/>
+      <c r="AJ43" s="72"/>
+      <c r="AK43" s="72"/>
+      <c r="AL43" s="72"/>
+      <c r="AM43" s="72"/>
+      <c r="AN43" s="72"/>
+      <c r="AO43" s="72"/>
+      <c r="AP43" s="72"/>
+      <c r="AQ43" s="72"/>
+      <c r="AR43" s="72"/>
+      <c r="AS43" s="72"/>
+      <c r="AT43" s="72"/>
+      <c r="AU43" s="72"/>
+      <c r="AV43" s="72"/>
+      <c r="AW43" s="72"/>
+      <c r="AX43" s="72"/>
+      <c r="AY43" s="72"/>
+      <c r="AZ43" s="72"/>
+      <c r="BA43" s="72"/>
+      <c r="BB43" s="72"/>
+      <c r="BC43" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4227" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74E0B3B-DE13-4263-B3AB-F171D2B40EC6}"/>
+  <xr:revisionPtr revIDLastSave="4230" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FF4F57-071C-42C2-843C-D8958B9DFD93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -4317,10 +4317,10 @@
   <dimension ref="A1:BL57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10703,7 +10703,7 @@
         <v>39</v>
       </c>
       <c r="E50" s="114">
-        <f>E46</f>
+        <f>B41</f>
         <v>10561.591075729297</v>
       </c>
       <c r="F50" s="71"/>
@@ -10714,7 +10714,7 @@
         <v>39</v>
       </c>
       <c r="K50" s="114">
-        <f>K46</f>
+        <f>H41</f>
         <v>6609.243006585777</v>
       </c>
       <c r="L50" s="71"/>
@@ -10725,7 +10725,7 @@
         <v>39</v>
       </c>
       <c r="Q50" s="114">
-        <f>Q46</f>
+        <f>N41</f>
         <v>8314.0373780901973</v>
       </c>
       <c r="R50" s="71"/>

--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4230" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FF4F57-071C-42C2-843C-D8958B9DFD93}"/>
+  <xr:revisionPtr revIDLastSave="4235" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519D48C8-EC6A-4AA6-B0C7-A4444671E752}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -1678,9 +1678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+      <selection pane="topRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,7 +2095,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="H17" s="13">
-        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12"/>
+        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12" ca="1"/>
         <v>20738.04588044636</v>
       </c>
       <c r="I17" s="13">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="L23" s="27">
         <f>I23-B25</f>
-        <v>22984.559034191887</v>
+        <v>17012.559034191887</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="J24" s="83">
         <f>L23/B36*2</f>
-        <v>52.476162178520291</v>
+        <v>38.841458982173258</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2281,19 +2281,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>-(SUM(B15:B22)+(-1*SUM(B23:B24)))</f>
-        <v>-2986</v>
+        <f>(SUM(B15:B22)+(-1*SUM(B23:B24)))</f>
+        <v>2986</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="83">
         <f>J24-B29</f>
-        <v>15.65616217852029</v>
+        <v>2.0214589821732574</v>
       </c>
       <c r="K25" s="10">
         <f>J25/B29</f>
-        <v>0.42520809827594486</v>
+        <v>5.4901113041098785E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2301,11 +2301,11 @@
         <v>19</v>
       </c>
       <c r="B26" s="5">
-        <f>B12+B25</f>
+        <f>B12-B25</f>
         <v>17012.559034191887</v>
       </c>
       <c r="D26" s="5">
-        <f>D12+B25</f>
+        <f>D12-B25</f>
         <v>15678.29657493173</v>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
         <v>10.08</v>
       </c>
       <c r="H29" s="13">
-        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13" ca="1"/>
+        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13"/>
         <v>16801.597649603467</v>
       </c>
       <c r="I29" s="13">
@@ -2588,7 +2588,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <selection pane="topRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3784,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="C23" s="13">
-        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
+        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
         <v>5263.5337170491621</v>
       </c>
       <c r="D23" s="13">
@@ -3824,7 +3824,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="O23" s="13">
-        <f t="dataTable" ref="O23:S27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
+        <f t="dataTable" ref="O23:S27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
         <v>7437.2030569098843</v>
       </c>
       <c r="P23" s="13">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B31" s="1">
         <f>DCF!B25</f>
-        <v>-2986</v>
+        <v>2986</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="28"/>
@@ -4189,7 +4189,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="63">
-        <f>B29+H29+N29+B31</f>
+        <f>B29+H29+N29-B31</f>
         <v>17972.351371385157</v>
       </c>
       <c r="C32" s="1"/>
@@ -4317,10 +4317,10 @@
   <dimension ref="A1:BL57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B52" s="113">
         <f>SOTP!B31</f>
-        <v>-2986</v>
+        <v>2986</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
@@ -10893,7 +10893,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="113">
-        <f>E50+K50+Q50+B52</f>
+        <f>E50+K50+Q50-B52</f>
         <v>22498.871460405269</v>
       </c>
       <c r="C53" s="71"/>

--- a/models/DCF_SN.xlsx
+++ b/models/DCF_SN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb10f4a09bcef627/Documents/GitHub/XD_Grad_Portfolio/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4235" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519D48C8-EC6A-4AA6-B0C7-A4444671E752}"/>
+  <xr:revisionPtr revIDLastSave="4249" documentId="8_{4CAA811A-3924-48A6-9DA9-F0A76AB10370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DE6722-2832-41B2-B048-4F5F0A877EAC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{074DC5BB-03BC-4711-88CA-6F8F6CA366FE}"/>
   </bookViews>
@@ -1678,9 +1678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2E0D3-EC22-43DB-ABCF-85A4F712E8DB}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L35" sqref="L35"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,7 +2095,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="H17" s="13">
-        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12" ca="1"/>
+        <f t="dataTable" ref="H17:L21" dt2D="1" dtr="1" r1="I4" r2="I12"/>
         <v>20738.04588044636</v>
       </c>
       <c r="I17" s="13">
@@ -2234,7 +2234,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="I23" s="27">
         <f>IF(J22="Bull",I20,IF(J22="Bear",K18,IF(J22="Central",J19,"Error")))</f>
-        <v>19998.559034191887</v>
+        <v>16045.224202434993</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>38</v>
       </c>
       <c r="L23" s="27">
         <f>I23-B25</f>
-        <v>17012.559034191887</v>
+        <v>13059.224202434993</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="J24" s="83">
         <f>L23/B36*2</f>
-        <v>38.841458982173258</v>
+        <v>29.815580370856146</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2289,11 +2289,11 @@
       </c>
       <c r="J25" s="83">
         <f>J24-B29</f>
-        <v>2.0214589821732574</v>
+        <v>-7.0044196291438539</v>
       </c>
       <c r="K25" s="10">
         <f>J25/B29</f>
-        <v>5.4901113041098785E-2</v>
+        <v>-0.19023410182357017</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2385,7 +2385,7 @@
         <v>10.08</v>
       </c>
       <c r="H29" s="13">
-        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13"/>
+        <f t="dataTable" ref="H29:L33" dt2D="1" dtr="1" r1="I4" r2="I13" ca="1"/>
         <v>16801.597649603467</v>
       </c>
       <c r="I29" s="13">
@@ -2515,7 +2515,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2530,14 +2530,14 @@
       </c>
       <c r="I35" s="27">
         <f>IF(J34="Bull",I32,IF(J34="Bear",K30,IF(J34="Central",J31,"Error")))</f>
-        <v>18663.947972395497</v>
+        <v>16994.250037204187</v>
       </c>
       <c r="K35" s="28" t="s">
         <v>38</v>
       </c>
       <c r="L35" s="27">
         <f>I35-B37</f>
-        <v>18663.947972395497</v>
+        <v>16994.250037204187</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="J36" s="83">
         <f>L35/B36*2</f>
-        <v>42.611753361633554</v>
+        <v>38.799657619187641</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2562,11 +2562,11 @@
       </c>
       <c r="J37" s="83">
         <f>J36-B29</f>
-        <v>5.7917533616335533</v>
+        <v>1.9796576191876412</v>
       </c>
       <c r="K37" s="10">
         <f>J37/B29</f>
-        <v>0.15729911356962392</v>
+        <v>5.3765823443444896E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2586,9 +2586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1EAA58-ADB1-46F6-8416-C90E04EF858D}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+      <selection pane="topRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3784,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="C23" s="13">
-        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
+        <f t="dataTable" ref="C23:G27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
         <v>5263.5337170491621</v>
       </c>
       <c r="D23" s="13">
@@ -3804,7 +3804,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="I23" s="13">
-        <f t="dataTable" ref="I23:M27" dt2D="1" dtr="1" r1="W4" r2="W12" ca="1"/>
+        <f t="dataTable" ref="I23:M27" dt2D="1" dtr="1" r1="W4" r2="W12"/>
         <v>9880.4455126833091</v>
       </c>
       <c r="J23" s="13">
@@ -4083,7 +4083,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -4091,7 +4091,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="65" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -4099,7 +4099,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="N28" s="65" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B29" s="66">
         <f>IF(B28="Bull",D26,IF(B28="Bear",F24,IF(B28="Central",E25,"Error")))</f>
-        <v>4886.8167262570896</v>
+        <v>6589.7657382722937</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -4123,7 +4123,7 @@
       <c r="G29" s="67"/>
       <c r="H29" s="66">
         <f>IF(H28="Bull",J26,IF(H28="Bear",L24,IF(H28="Central",K25,"Error")))</f>
-        <v>9168.0634995460532</v>
+        <v>12396.005007706268</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -4132,7 +4132,7 @@
       <c r="M29" s="67"/>
       <c r="N29" s="66">
         <f>IF(N28="Bull",P26,IF(N28="Bear",R24,IF(N28="Central",Q25,"Error")))</f>
-        <v>6903.4711455820134</v>
+        <v>9318.3088380657282</v>
       </c>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B32" s="63">
         <f>B29+H29+N29-B31</f>
-        <v>17972.351371385157</v>
+        <v>25318.079584044288</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B33" s="64">
         <f>B32/DCF!B36</f>
-        <v>20.516382844046984</v>
+        <v>28.901917333383889</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="B34" s="84">
         <f>B33*2</f>
-        <v>41.032765688093967</v>
+        <v>57.803834666767777</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
@@ -4281,11 +4281,11 @@
       </c>
       <c r="B36" s="85">
         <f>B34-B35</f>
-        <v>4.2127656880939668</v>
+        <v>20.983834666767777</v>
       </c>
       <c r="C36" s="10">
         <f>B36/B35</f>
-        <v>0.11441514633606645</v>
+        <v>0.56990316857055345</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -4317,10 +4317,10 @@
   <dimension ref="A1:BL57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4346,7 +4346,7 @@
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" s="115" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
@@ -4590,195 +4590,195 @@
       </c>
       <c r="B4" s="71">
         <f>BG17*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.88400000000001</v>
+        <v>291.363</v>
       </c>
       <c r="C4" s="71">
         <f>B4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.7680464</v>
+        <v>292.73240609999999</v>
       </c>
       <c r="D4" s="71">
         <f>C4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.65213918143996</v>
+        <v>294.10824840867002</v>
       </c>
       <c r="E4" s="71">
         <f>D4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.53627832576734</v>
+        <v>295.4905571761908</v>
       </c>
       <c r="F4" s="71">
         <f>E4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.42046381443703</v>
+        <v>296.8793627949189</v>
       </c>
       <c r="G4" s="71">
         <f>F4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.30469562891125</v>
+        <v>298.27469580005504</v>
       </c>
       <c r="H4" s="71">
         <f>G4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.18897375065967</v>
+        <v>299.6765868703153</v>
       </c>
       <c r="I4" s="71">
         <f>H4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>289.07329816115941</v>
+        <v>301.08506682860582</v>
       </c>
       <c r="J4" s="71">
         <f>BH17*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>217.41299999999998</v>
+        <v>218.52224999999999</v>
       </c>
       <c r="K4" s="71">
         <f>J4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>217.3260348</v>
+        <v>219.54930457499998</v>
       </c>
       <c r="L4" s="71">
         <f>K4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>217.23910438607999</v>
+        <v>220.58118630650247</v>
       </c>
       <c r="M4" s="71">
         <f>L4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>217.15220874432555</v>
+        <v>221.61791788214302</v>
       </c>
       <c r="N4" s="71">
         <f>M4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>217.06534786082781</v>
+        <v>222.65952209618911</v>
       </c>
       <c r="O4" s="71">
         <f>N4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>216.97852172168351</v>
+        <v>223.7060218500412</v>
       </c>
       <c r="P4" s="71">
         <f>O4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>216.89173031299484</v>
+        <v>224.75744015273639</v>
       </c>
       <c r="Q4" s="71">
         <f>P4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>216.80497362086962</v>
+        <v>225.81380012145425</v>
       </c>
       <c r="R4" s="71">
         <f>BI17*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.86560000000003</v>
+        <v>337.57920000000001</v>
       </c>
       <c r="S4" s="71">
         <f>R4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.73125376000002</v>
+        <v>339.16582224000001</v>
       </c>
       <c r="T4" s="71">
         <f>S4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.59696125849598</v>
+        <v>340.75990160452801</v>
       </c>
       <c r="U4" s="71">
         <f>T4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.46272247399259</v>
+        <v>342.36147314206931</v>
       </c>
       <c r="V4" s="71">
         <f>U4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.32853738500302</v>
+        <v>343.97057206583702</v>
       </c>
       <c r="W4" s="71">
         <f>V4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.19440597004905</v>
+        <v>345.58723375454645</v>
       </c>
       <c r="X4" s="71">
         <f>W4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>335.06032820766103</v>
+        <v>347.21149375319277</v>
       </c>
       <c r="Y4" s="71">
         <f>X4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>334.92630407637796</v>
+        <v>348.84338777383277</v>
       </c>
       <c r="Z4" s="71">
         <f>BJ17*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>419.83200000000005</v>
+        <v>421.97400000000005</v>
       </c>
       <c r="AA4" s="71">
         <f>Z4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>419.66406720000003</v>
+        <v>423.95727780000004</v>
       </c>
       <c r="AB4" s="71">
         <f>AA4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>419.49620157312</v>
+        <v>425.94987700566003</v>
       </c>
       <c r="AC4" s="71">
         <f>AB4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>419.32840309249076</v>
+        <v>427.95184142758666</v>
       </c>
       <c r="AD4" s="71">
         <f>AC4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>419.16067173125373</v>
+        <v>429.96321508229636</v>
       </c>
       <c r="AE4" s="71">
         <f>AD4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>418.9930074625612</v>
+        <v>431.98404219318314</v>
       </c>
       <c r="AF4" s="71">
         <f>AE4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>418.82541025957613</v>
+        <v>434.01436719149115</v>
       </c>
       <c r="AG4" s="71">
         <f>AF4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>418.65788009547231</v>
+        <v>436.05423471729114</v>
       </c>
       <c r="AH4" s="71">
         <f>BK17*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>182.02715999999998</v>
+        <v>182.95586999999998</v>
       </c>
       <c r="AI4" s="71">
         <f>AH4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.95434913599996</v>
+        <v>183.81576258899997</v>
       </c>
       <c r="AJ4" s="71">
         <f>AI4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.88156739634559</v>
+        <v>184.67969667316828</v>
       </c>
       <c r="AK4" s="71">
         <f>AJ4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.80881476938706</v>
+        <v>185.54769124753219</v>
       </c>
       <c r="AL4" s="71">
         <f>AK4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.73609124347931</v>
+        <v>186.4197653963956</v>
       </c>
       <c r="AM4" s="71">
         <f>AL4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.66339680698192</v>
+        <v>187.29593829375867</v>
       </c>
       <c r="AN4" s="71">
         <f>AM4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.59073144825913</v>
+        <v>188.17622920373935</v>
       </c>
       <c r="AO4" s="71">
         <f>AN4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>181.51809515567982</v>
+        <v>189.06065748099692</v>
       </c>
       <c r="AP4" s="71">
         <f>BL17*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>364.05431999999996</v>
+        <v>365.91173999999995</v>
       </c>
       <c r="AQ4" s="71">
         <f>AP4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.90869827199992</v>
+        <v>367.63152517799995</v>
       </c>
       <c r="AR4" s="71">
         <f>AQ4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.76313479269118</v>
+        <v>369.35939334633656</v>
       </c>
       <c r="AS4" s="71">
         <f>AR4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.61762953877411</v>
+        <v>371.09538249506437</v>
       </c>
       <c r="AT4" s="71">
         <f>AS4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.47218248695862</v>
+        <v>372.83953079279121</v>
       </c>
       <c r="AU4" s="71">
         <f>AT4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.32679361396384</v>
+        <v>374.59187658751733</v>
       </c>
       <c r="AV4" s="71">
         <f>AU4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.18146289651827</v>
+        <v>376.35245840747871</v>
       </c>
       <c r="AW4" s="71">
         <f>AV4*(1+$AZ$11)*(1-_xlfn.XLOOKUP(Scenario,AY7:AY9,BC7:BC9,,0))</f>
-        <v>363.03619031135963</v>
+        <v>378.12131496199385</v>
       </c>
       <c r="BE4" s="36"/>
       <c r="BF4" t="s">
@@ -4894,19 +4894,19 @@
       </c>
       <c r="D6" s="88">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.39160000000000006</v>
       </c>
       <c r="E6" s="88">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.68640000000000012</v>
       </c>
       <c r="F6" s="88">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.88440000000000007</v>
       </c>
       <c r="G6" s="88">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H6" s="88">
         <f t="shared" si="0"/>
@@ -4930,15 +4930,15 @@
       </c>
       <c r="M6" s="88">
         <f t="shared" si="1"/>
-        <v>0.4375</v>
+        <v>0.47437500000000005</v>
       </c>
       <c r="N6" s="88">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.7975000000000001</v>
       </c>
       <c r="O6" s="88">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>0.96937499999999999</v>
       </c>
       <c r="P6" s="88">
         <f t="shared" si="1"/>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="T6" s="88">
         <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
+        <v>0.59888888888888892</v>
       </c>
       <c r="U6" s="88">
         <f t="shared" si="2"/>
-        <v>0.88888888888888884</v>
+        <v>0.92888888888888888</v>
       </c>
       <c r="V6" s="88">
         <f t="shared" si="2"/>
@@ -4990,11 +4990,11 @@
       </c>
       <c r="AB6" s="88">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
+        <v>0.59888888888888892</v>
       </c>
       <c r="AC6" s="88">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
+        <v>0.92888888888888888</v>
       </c>
       <c r="AD6" s="88">
         <f t="shared" si="3"/>
@@ -5022,15 +5022,15 @@
       </c>
       <c r="AJ6" s="88">
         <f t="shared" si="4"/>
-        <v>0.4375</v>
+        <v>0.47437500000000005</v>
       </c>
       <c r="AK6" s="88">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.7975000000000001</v>
       </c>
       <c r="AL6" s="88">
         <f t="shared" si="4"/>
-        <v>0.9375</v>
+        <v>0.96937499999999999</v>
       </c>
       <c r="AM6" s="88">
         <f t="shared" si="4"/>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="AS6" s="88">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0.7975000000000001</v>
       </c>
       <c r="AT6" s="88">
         <f t="shared" si="5"/>
@@ -5130,23 +5130,23 @@
       </c>
       <c r="D7" s="71">
         <f>D4*(D6-C6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>104.27477010531838</v>
+        <v>138.20734809220224</v>
       </c>
       <c r="E7" s="71">
         <f>E4*(E6-D6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>81.070157931214865</v>
+        <v>104.53273950664926</v>
       </c>
       <c r="F7" s="71">
         <f>F4*(F6-E6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>57.884092762887391</v>
+        <v>70.538536600072717</v>
       </c>
       <c r="G7" s="71">
         <f>G4*(G6-F6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>34.71656347546935</v>
+        <v>36.222479057958665</v>
       </c>
       <c r="H7" s="71">
         <f>H4*(H6-G6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>11.567558950026397</v>
+        <v>5.1784114211190371</v>
       </c>
       <c r="I7" s="71">
         <f>I4*(I6-H6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
@@ -5166,19 +5166,19 @@
       </c>
       <c r="M7" s="71">
         <f>M4*(M6-L6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>95.004091325642435</v>
+        <v>126.15599975440992</v>
       </c>
       <c r="N7" s="71">
         <f>N4*(N6-M6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>67.832921206508686</v>
+        <v>86.336229692797332</v>
       </c>
       <c r="O7" s="71">
         <f>O4*(O6-N6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>40.683472822815659</v>
+        <v>46.139367006570964</v>
       </c>
       <c r="P7" s="71">
         <f>P4*(P6-O6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>13.555733144562177</v>
+        <v>8.259835925613066</v>
       </c>
       <c r="Q7" s="71">
         <f>Q4*(Q6-P6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
@@ -5194,15 +5194,15 @@
       </c>
       <c r="T7" s="71">
         <f>T4*(T6-S6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>186.44275625472</v>
+        <v>244.89278261978745</v>
       </c>
       <c r="U7" s="71">
         <f>U4*(U6-T6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>111.82090749133084</v>
+        <v>135.57514336425942</v>
       </c>
       <c r="V7" s="71">
         <f>V4*(V6-U6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>37.258726376111461</v>
+        <v>29.352155482951428</v>
       </c>
       <c r="W7" s="71">
         <f>W4*(W6-V6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
@@ -5226,15 +5226,15 @@
       </c>
       <c r="AB7" s="71">
         <f>AB4*(AB6-AA6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>233.05344531840001</v>
+        <v>306.11597827473435</v>
       </c>
       <c r="AC7" s="71">
         <f>AC4*(AC6-AB6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>139.77613436416357</v>
+        <v>169.46892920532429</v>
       </c>
       <c r="AD7" s="71">
         <f>AD4*(AD6-AC6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>46.573407970139321</v>
+        <v>36.690194353689293</v>
       </c>
       <c r="AE7" s="71">
         <f>AE4*(AE6-AD6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
@@ -5258,19 +5258,19 @@
       </c>
       <c r="AJ7" s="71">
         <f>AJ4*(AJ6-AI6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>79.573185735901191</v>
+        <v>105.12891733120105</v>
       </c>
       <c r="AK7" s="71">
         <f>AK4*(AK6-AJ6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>56.815254615433453</v>
+        <v>71.946117281230613</v>
       </c>
       <c r="AL7" s="71">
         <f>AL4*(AL6-AK6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>34.075517108152368</v>
+        <v>38.449076613006561</v>
       </c>
       <c r="AM7" s="71">
         <f>AM4*(AM6-AL6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>11.35396230043637</v>
+        <v>6.8831257322956336</v>
       </c>
       <c r="AN7" s="71">
         <f>AN4*(AN6-AM6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
@@ -5294,11 +5294,11 @@
       </c>
       <c r="AS7" s="71">
         <f>AS4*(AS6-AR6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>272.7132221540806</v>
+        <v>355.13828104777667</v>
       </c>
       <c r="AT7" s="71">
         <f>AT4*(AT6-AS6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
-        <v>90.868045621739654</v>
+        <v>90.600005982648227</v>
       </c>
       <c r="AU7" s="71">
         <f>AU4*(AU6-AT6)*_xlfn.XLOOKUP(A1,AY7:AY9,AZ7:AZ9,,0)</f>
@@ -5370,23 +5370,23 @@
       </c>
       <c r="E8" s="71">
         <f>(D7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+D8</f>
-        <v>88.633554589520628</v>
+        <v>131.29698068759211</v>
       </c>
       <c r="F8" s="71">
         <f>(E7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+E8</f>
-        <v>157.54318883105327</v>
+        <v>230.60308321890892</v>
       </c>
       <c r="G8" s="71">
         <f>(F7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+F8</f>
-        <v>206.74466767950756</v>
+        <v>297.61469298897799</v>
       </c>
       <c r="H8" s="71">
         <f>(G7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+G8</f>
-        <v>236.2537466336565</v>
+        <v>332.02604809403874</v>
       </c>
       <c r="I8" s="71">
         <f>(H7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+H8</f>
-        <v>246.08617174117893</v>
+        <v>336.94553894410183</v>
       </c>
       <c r="J8" s="71">
         <f>J1*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0)</f>
@@ -5406,19 +5406,19 @@
       </c>
       <c r="N8" s="71">
         <f>(M7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+M8</f>
-        <v>80.753477626796069</v>
+        <v>119.84819976668942</v>
       </c>
       <c r="O8" s="71">
         <f>(N7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+N8</f>
-        <v>138.41146065232846</v>
+        <v>201.86761797484689</v>
       </c>
       <c r="P8" s="71">
         <f>(O7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+O8</f>
-        <v>172.99241255172177</v>
+        <v>245.70001663108931</v>
       </c>
       <c r="Q8" s="71">
         <f>(P7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+P8</f>
-        <v>184.51478572459962</v>
+        <v>253.54686076042174</v>
       </c>
       <c r="R8" s="71">
         <f>R1*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0)</f>
@@ -5434,23 +5434,23 @@
       </c>
       <c r="U8" s="71">
         <f>(T7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+T8</f>
-        <v>158.47634281651199</v>
+        <v>232.64814348879807</v>
       </c>
       <c r="V8" s="71">
         <f>(U7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+U8</f>
-        <v>253.5241141841432</v>
+        <v>361.4445296848445</v>
       </c>
       <c r="W8" s="71">
         <f>(V7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+V8</f>
-        <v>285.19403160383797</v>
+        <v>389.32907739364833</v>
       </c>
       <c r="X8" s="71">
         <f>(W7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+W8</f>
-        <v>285.19403160383797</v>
+        <v>389.32907739364833</v>
       </c>
       <c r="Y8" s="71">
         <f>(X7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+X8</f>
-        <v>285.19403160383797</v>
+        <v>389.32907739364833</v>
       </c>
       <c r="Z8" s="71">
         <f>Z1*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0)</f>
@@ -5466,23 +5466,23 @@
       </c>
       <c r="AC8" s="71">
         <f>(AB7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AB8</f>
-        <v>198.09542852064001</v>
+        <v>290.81017936099761</v>
       </c>
       <c r="AD8" s="71">
         <f>(AC7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AC8</f>
-        <v>316.90514273017902</v>
+        <v>451.80566210605571</v>
       </c>
       <c r="AE8" s="71">
         <f>(AD7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AD8</f>
-        <v>356.49253950479743</v>
+        <v>486.66134674206052</v>
       </c>
       <c r="AF8" s="71">
         <f>(AE7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AE8</f>
-        <v>356.49253950479743</v>
+        <v>486.66134674206052</v>
       </c>
       <c r="AG8" s="71">
         <f>(AF7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AF8</f>
-        <v>356.49253950479743</v>
+        <v>486.66134674206052</v>
       </c>
       <c r="AH8" s="71">
         <f>AH1*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0)</f>
@@ -5498,23 +5498,23 @@
       </c>
       <c r="AK8" s="71">
         <f>(AJ7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AJ8</f>
-        <v>67.637207875516012</v>
+        <v>99.872471464640995</v>
       </c>
       <c r="AL8" s="71">
         <f>(AK7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AK8</f>
-        <v>115.93017429863445</v>
+        <v>168.22128288181005</v>
       </c>
       <c r="AM8" s="71">
         <f>(AL7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AL8</f>
-        <v>144.89436384056398</v>
+        <v>204.7479056641663</v>
       </c>
       <c r="AN8" s="71">
         <f>(AM7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AM8</f>
-        <v>154.54523179593491</v>
+        <v>211.28687510984716</v>
       </c>
       <c r="AO8" s="71">
         <f>(AN7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AN8</f>
-        <v>154.54523179593491</v>
+        <v>211.28687510984716</v>
       </c>
       <c r="AP8" s="71">
         <f>AP1*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0)</f>
@@ -5534,19 +5534,19 @@
       </c>
       <c r="AT8" s="71">
         <f>(AS7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AS8</f>
-        <v>231.80623883096851</v>
+        <v>337.38136699538785</v>
       </c>
       <c r="AU8" s="71">
         <f>(AT7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AT8</f>
-        <v>309.04407760944719</v>
+        <v>423.45137267890368</v>
       </c>
       <c r="AV8" s="71">
         <f>(AU7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AU8</f>
-        <v>309.04407760944719</v>
+        <v>423.45137267890368</v>
       </c>
       <c r="AW8" s="71">
         <f>(AV7*_xlfn.XLOOKUP(A1,AY7:AY9,BB7:BB9,,0))+AV8</f>
-        <v>309.04407760944719</v>
+        <v>423.45137267890368</v>
       </c>
       <c r="AX8" s="71"/>
       <c r="AY8" s="101" t="s">
@@ -5600,27 +5600,27 @@
       </c>
       <c r="D9" s="76">
         <f t="shared" si="6"/>
-        <v>104.63477010531838</v>
+        <v>138.59894809220225</v>
       </c>
       <c r="E9" s="76">
         <f t="shared" si="6"/>
-        <v>170.34371252073549</v>
+        <v>236.51612019424138</v>
       </c>
       <c r="F9" s="76">
         <f t="shared" si="6"/>
-        <v>216.26728159394065</v>
+        <v>302.02601981898164</v>
       </c>
       <c r="G9" s="76">
         <f t="shared" si="6"/>
-        <v>242.42123115497691</v>
+        <v>334.82277204693668</v>
       </c>
       <c r="H9" s="76">
         <f t="shared" si="6"/>
-        <v>248.82130558368291</v>
+        <v>338.20445951515779</v>
       </c>
       <c r="I9" s="76">
         <f t="shared" si="6"/>
-        <v>247.08617174117893</v>
+        <v>337.94553894410183</v>
       </c>
       <c r="J9" s="76">
         <f t="shared" si="6"/>
@@ -5636,23 +5636,23 @@
       </c>
       <c r="M9" s="76">
         <f t="shared" si="6"/>
-        <v>95.441591325642435</v>
+        <v>126.63037475440991</v>
       </c>
       <c r="N9" s="76">
         <f t="shared" si="6"/>
-        <v>149.33639883330477</v>
+        <v>206.98192945948676</v>
       </c>
       <c r="O9" s="76">
         <f t="shared" si="6"/>
-        <v>180.0324334751441</v>
+        <v>248.97635998141786</v>
       </c>
       <c r="P9" s="76">
         <f t="shared" si="6"/>
-        <v>187.54814569628394</v>
+        <v>254.95985255670237</v>
       </c>
       <c r="Q9" s="76">
         <f t="shared" si="6"/>
-        <v>185.51478572459962</v>
+        <v>254.54686076042174</v>
       </c>
       <c r="R9" s="76">
         <f t="shared" si="6"/>
@@ -5664,27 +5664,27 @@
       </c>
       <c r="T9" s="76">
         <f t="shared" si="6"/>
-        <v>186.99831181027554</v>
+        <v>245.49167150867635</v>
       </c>
       <c r="U9" s="76">
         <f t="shared" si="6"/>
-        <v>271.18613919673169</v>
+        <v>369.15217574194639</v>
       </c>
       <c r="V9" s="76">
         <f t="shared" si="6"/>
-        <v>291.78284056025467</v>
+        <v>391.79668516779594</v>
       </c>
       <c r="W9" s="76">
         <f t="shared" si="6"/>
-        <v>286.19403160383797</v>
+        <v>390.32907739364833</v>
       </c>
       <c r="X9" s="76">
         <f t="shared" si="6"/>
-        <v>286.19403160383797</v>
+        <v>390.32907739364833</v>
       </c>
       <c r="Y9" s="76">
         <f t="shared" si="6"/>
-        <v>286.19403160383797</v>
+        <v>390.32907739364833</v>
       </c>
       <c r="Z9" s="76">
         <f t="shared" si="6"/>
@@ -5696,27 +5696,27 @@
       </c>
       <c r="AB9" s="76">
         <f t="shared" si="6"/>
-        <v>233.60900087395555</v>
+        <v>306.71486716362324</v>
       </c>
       <c r="AC9" s="76">
         <f t="shared" si="6"/>
-        <v>338.76045177369247</v>
+        <v>461.20799745521077</v>
       </c>
       <c r="AD9" s="76">
         <f t="shared" si="6"/>
-        <v>364.47855070031835</v>
+        <v>489.49585645974503</v>
       </c>
       <c r="AE9" s="76">
         <f t="shared" si="6"/>
-        <v>357.49253950479743</v>
+        <v>487.66134674206052</v>
       </c>
       <c r="AF9" s="76">
         <f t="shared" si="6"/>
-        <v>357.49253950479743</v>
+        <v>487.66134674206052</v>
       </c>
       <c r="AG9" s="76">
         <f t="shared" si="6"/>
-        <v>357.49253950479743</v>
+        <v>487.66134674206052</v>
       </c>
       <c r="AH9" s="76">
         <f t="shared" si="6"/>
@@ -5728,27 +5728,27 @@
       </c>
       <c r="AJ9" s="76">
         <f t="shared" si="6"/>
-        <v>80.010685735901191</v>
+        <v>105.60329233120105</v>
       </c>
       <c r="AK9" s="76">
         <f t="shared" si="6"/>
-        <v>125.20246249094947</v>
+        <v>172.61608874587159</v>
       </c>
       <c r="AL9" s="76">
         <f t="shared" si="6"/>
-        <v>150.94319140678681</v>
+        <v>207.63973449481662</v>
       </c>
       <c r="AM9" s="76">
         <f t="shared" si="6"/>
-        <v>157.24832614100035</v>
+        <v>212.63103139646194</v>
       </c>
       <c r="AN9" s="76">
         <f t="shared" si="6"/>
-        <v>155.54523179593491</v>
+        <v>212.28687510984716</v>
       </c>
       <c r="AO9" s="76">
         <f t="shared" si="6"/>
-        <v>155.54523179593491</v>
+        <v>212.28687510984716</v>
       </c>
       <c r="AP9" s="76">
         <f t="shared" si="6"/>
@@ -5764,23 +5764,23 @@
       </c>
       <c r="AS9" s="76">
         <f t="shared" si="6"/>
-        <v>273.4632221540806</v>
+        <v>355.93578104777669</v>
       </c>
       <c r="AT9" s="76">
         <f t="shared" si="6"/>
-        <v>323.67428445270815</v>
+        <v>428.98137297803606</v>
       </c>
       <c r="AU9" s="76">
         <f t="shared" si="6"/>
-        <v>310.04407760944719</v>
+        <v>424.45137267890368</v>
       </c>
       <c r="AV9" s="76">
         <f t="shared" si="6"/>
-        <v>310.04407760944719</v>
+        <v>424.45137267890368</v>
       </c>
       <c r="AW9" s="76">
         <f t="shared" si="6"/>
-        <v>310.04407760944719</v>
+        <v>424.45137267890368</v>
       </c>
       <c r="AY9" s="104" t="s">
         <v>22</v>
@@ -5825,11 +5825,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ref="B10:I10" si="7">-IF($BG$4-B3=1,$BG$15*$I$9,IF(B3&lt;$BG$4,$BG$14*$I$9,0))</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="7"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="7"/>
@@ -5857,15 +5857,15 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ref="J10:Q10" si="8">-IF($BH$4-J3=1,$BH$15*$Q$9,IF(J3&lt;$BH$4,$BH$14*$Q$9,0))</f>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="8"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="8"/>
-        <v>-2.7827217858689943</v>
+        <v>-3.8182029114063258</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="8"/>
@@ -5889,11 +5889,11 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" ref="R10:Y10" si="9">-IF($BI$4-R3=1,$BI$15*$Y$9,IF(R3&lt;$BI$4,$BI$14*$Y$9,0))</f>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="9"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="9"/>
@@ -5921,11 +5921,11 @@
       </c>
       <c r="Z10" s="1">
         <f t="shared" ref="Z10:AG10" si="10">-IF($BJ$4-Z3=1,$BJ$15*$AG$9,IF(Z3&lt;$BJ$4,$BJ$14*$AG$9,0))</f>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="10"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="10"/>
@@ -5953,11 +5953,11 @@
       </c>
       <c r="AH10" s="1">
         <f t="shared" ref="AH10:AO10" si="11">-IF($BK$4-AH3=1,$BK$15*$AO$9,IF(AH3&lt;$BK$4,$BK$14*$AO$9,0))</f>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="11"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="11"/>
@@ -5985,15 +5985,15 @@
       </c>
       <c r="AP10" s="1">
         <f t="shared" ref="AP10:AW10" si="12">-IF($BL$4-AP3=1,$BL$15*$AW$9,IF(AP3&lt;$BL$4,$BL$14*$AW$9,0))</f>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="12"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="12"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AS10" s="1">
         <f t="shared" si="12"/>
@@ -6059,19 +6059,19 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="13"/>
-        <v>-37.557098104659197</v>
+        <v>-51.367721919503481</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="13"/>
-        <v>-37.557098104659197</v>
+        <v>-51.367721919503481</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="13"/>
-        <v>-37.557098104659197</v>
+        <v>-51.367721919503481</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="13"/>
-        <v>-37.557098104659197</v>
+        <v>-51.367721919503481</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ref="J11:Q11" si="14">-IF(J3&gt;$BH$4-1,(1-$BH$9)*$Q$9*$BH$10)</f>
@@ -6087,23 +6087,23 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" si="14"/>
-        <v>-34.320235359050926</v>
+        <v>-47.09116924067802</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="14"/>
-        <v>-34.320235359050926</v>
+        <v>-47.09116924067802</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="14"/>
-        <v>-34.320235359050926</v>
+        <v>-47.09116924067802</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="14"/>
-        <v>-34.320235359050926</v>
+        <v>-47.09116924067802</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="14"/>
-        <v>-34.320235359050926</v>
+        <v>-47.09116924067802</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ref="R11:Y11" si="15">-IF(R3&gt;$BI$4-1,(1-$BI$9)*$Y$9*$BI$10,)</f>
@@ -6115,27 +6115,27 @@
       </c>
       <c r="T11" s="1">
         <f t="shared" si="15"/>
-        <v>-68.686567584921107</v>
+        <v>-93.678978574475607</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="15"/>
-        <v>-68.686567584921107</v>
+        <v>-93.678978574475607</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="15"/>
-        <v>-68.686567584921107</v>
+        <v>-93.678978574475607</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="15"/>
-        <v>-68.686567584921107</v>
+        <v>-93.678978574475607</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="15"/>
-        <v>-68.686567584921107</v>
+        <v>-93.678978574475607</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="15"/>
-        <v>-68.686567584921107</v>
+        <v>-93.678978574475607</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ref="Z11:AG11" si="16">-IF(Z3&gt;$BJ$4-1,(1-$BJ$9)*$AG$9*$BJ$10)</f>
@@ -6147,27 +6147,27 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="16"/>
-        <v>-90.088119955208953</v>
+        <v>-122.89065937899923</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="16"/>
-        <v>-90.088119955208953</v>
+        <v>-122.89065937899923</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="16"/>
-        <v>-90.088119955208953</v>
+        <v>-122.89065937899923</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="16"/>
-        <v>-90.088119955208953</v>
+        <v>-122.89065937899923</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="16"/>
-        <v>-90.088119955208953</v>
+        <v>-122.89065937899923</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="16"/>
-        <v>-90.088119955208953</v>
+        <v>-122.89065937899923</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ref="AH11:AO11" si="17">-IF(AH3&gt;$BK$4-1,(1-$BK$9)*$AO$9*$BK$10)</f>
@@ -6179,27 +6179,27 @@
       </c>
       <c r="AJ11" s="1">
         <f t="shared" si="17"/>
-        <v>-41.375031657718687</v>
+        <v>-56.468308779219342</v>
       </c>
       <c r="AK11" s="1">
         <f t="shared" si="17"/>
-        <v>-41.375031657718687</v>
+        <v>-56.468308779219342</v>
       </c>
       <c r="AL11" s="1">
         <f t="shared" si="17"/>
-        <v>-41.375031657718687</v>
+        <v>-56.468308779219342</v>
       </c>
       <c r="AM11" s="1">
         <f t="shared" si="17"/>
-        <v>-41.375031657718687</v>
+        <v>-56.468308779219342</v>
       </c>
       <c r="AN11" s="1">
         <f t="shared" si="17"/>
-        <v>-41.375031657718687</v>
+        <v>-56.468308779219342</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="17"/>
-        <v>-41.375031657718687</v>
+        <v>-56.468308779219342</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" ref="AP11:AW11" si="18">-IF(AP3&gt;$BL$4-1,(1-$BL$9)*$AW$9*$BL$10)</f>
@@ -6215,23 +6215,23 @@
       </c>
       <c r="AS11" s="1">
         <f t="shared" si="18"/>
-        <v>-35.810090963891149</v>
+        <v>-49.024133544413381</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="18"/>
-        <v>-35.810090963891149</v>
+        <v>-49.024133544413381</v>
       </c>
       <c r="AU11" s="1">
         <f t="shared" si="18"/>
-        <v>-35.810090963891149</v>
+        <v>-49.024133544413381</v>
       </c>
       <c r="AV11" s="1">
         <f t="shared" si="18"/>
-        <v>-35.810090963891149</v>
+        <v>-49.024133544413381</v>
       </c>
       <c r="AW11" s="1">
         <f t="shared" si="18"/>
-        <v>-35.810090963891149</v>
+        <v>-49.024133544413381</v>
       </c>
       <c r="AX11" s="1"/>
       <c r="AY11" s="96" t="s">
@@ -6276,27 +6276,27 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="19"/>
-        <v>-63.617940224033582</v>
+        <v>-84.268160440058978</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="19"/>
-        <v>-103.56897721260719</v>
+        <v>-143.80180107809878</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="19"/>
-        <v>-131.49050720911592</v>
+        <v>-183.63182004994087</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="19"/>
-        <v>-147.39210854222597</v>
+        <v>-203.57224540453751</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="19"/>
-        <v>-151.28335379487922</v>
+        <v>-205.62831138521594</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="19"/>
-        <v>-150.22839241863679</v>
+        <v>-205.47088767801392</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ref="J12:Q12" si="20">-J9*(1-$BH$9)*$BH$11</f>
@@ -6312,23 +6312,23 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" si="20"/>
-        <v>-52.970083185731553</v>
+        <v>-70.279857988697501</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="20"/>
-        <v>-82.881701352484157</v>
+        <v>-114.87497085001515</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="20"/>
-        <v>-99.918000578704977</v>
+        <v>-138.18187978968689</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="20"/>
-        <v>-104.08922086143758</v>
+        <v>-141.50271816896981</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="20"/>
-        <v>-102.96070607715278</v>
+        <v>-141.27350772203405</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ref="R12:Y12" si="21">-R9*(1-$BI$9)*$BI$11</f>
@@ -6340,27 +6340,27 @@
       </c>
       <c r="T12" s="1">
         <f t="shared" si="21"/>
-        <v>-104.71905461375431</v>
+        <v>-137.47533604485875</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="21"/>
-        <v>-151.86423795016975</v>
+        <v>-206.72521841548999</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="21"/>
-        <v>-163.3983907137426</v>
+        <v>-219.40614369396576</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="21"/>
-        <v>-160.26865769814924</v>
+        <v>-218.58428334044308</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="21"/>
-        <v>-160.26865769814924</v>
+        <v>-218.58428334044308</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="21"/>
-        <v>-160.26865769814924</v>
+        <v>-218.58428334044308</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" ref="Z12:AG12" si="22">-Z9*(1-$BJ$9)*$BJ$11</f>
@@ -6372,27 +6372,27 @@
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="22"/>
-        <v>-137.36209251388587</v>
+        <v>-180.34834189221044</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="22"/>
-        <v>-199.19114564293116</v>
+        <v>-271.19030250366387</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="22"/>
-        <v>-214.31338781178715</v>
+        <v>-287.82356359833005</v>
       </c>
       <c r="AE12" s="1">
         <f t="shared" si="22"/>
-        <v>-210.20561322882088</v>
+        <v>-286.74487188433153</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="22"/>
-        <v>-210.20561322882088</v>
+        <v>-286.74487188433153</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="22"/>
-        <v>-210.20561322882088</v>
+        <v>-286.74487188433153</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" ref="AH12:AO12" si="23">-AH9*(1-$BK$9)*$BK$11</f>
@@ -6404,27 +6404,27 @@
       </c>
       <c r="AJ12" s="1">
         <f t="shared" si="23"/>
-        <v>-39.52527875353519</v>
+        <v>-52.168026411613319</v>
       </c>
       <c r="AK12" s="1">
         <f t="shared" si="23"/>
-        <v>-61.850016470529042</v>
+        <v>-85.272347840460569</v>
       </c>
       <c r="AL12" s="1">
         <f t="shared" si="23"/>
-        <v>-74.565936554952685</v>
+        <v>-102.57402884043941</v>
       </c>
       <c r="AM12" s="1">
         <f t="shared" si="23"/>
-        <v>-77.680673113654166</v>
+        <v>-105.03972950985219</v>
       </c>
       <c r="AN12" s="1">
         <f t="shared" si="23"/>
-        <v>-76.839344507191853</v>
+        <v>-104.8697163042645</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="23"/>
-        <v>-76.839344507191853</v>
+        <v>-104.8697163042645</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" ref="AP12:AW12" si="24">-AP9*(1-$BL$9)*$BL$11</f>
@@ -6440,23 +6440,23 @@
       </c>
       <c r="AS12" s="1">
         <f t="shared" si="24"/>
-        <v>-178.98167889984575</v>
+        <v>-232.95996869576985</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="24"/>
-        <v>-211.84481917429747</v>
+        <v>-280.76830861412458</v>
       </c>
       <c r="AU12" s="1">
         <f t="shared" si="24"/>
-        <v>-202.92384879538318</v>
+        <v>-277.8034234183425</v>
       </c>
       <c r="AV12" s="1">
         <f t="shared" si="24"/>
-        <v>-202.92384879538318</v>
+        <v>-277.8034234183425</v>
       </c>
       <c r="AW12" s="1">
         <f t="shared" si="24"/>
-        <v>-202.92384879538318</v>
+        <v>-277.8034234183425</v>
       </c>
       <c r="AX12" s="1"/>
       <c r="AY12" s="96" t="s">
@@ -6494,195 +6494,195 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ref="B13:AW13" si="25">SUM(B9:B12)</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="25"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="25"/>
-        <v>41.016829881284799</v>
+        <v>54.330787652143272</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="25"/>
-        <v>66.774735308128299</v>
+        <v>92.714319116142605</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="25"/>
-        <v>47.219676280165544</v>
+        <v>67.026477849537287</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="25"/>
-        <v>57.472024508091749</v>
+        <v>79.882804722895685</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="25"/>
-        <v>59.980853684144506</v>
+        <v>81.208426210438375</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="25"/>
-        <v>59.300681217882953</v>
+        <v>81.106929346584423</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="25"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="25"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="25"/>
-        <v>-2.7827217858689943</v>
+        <v>-3.8182029114063258</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="25"/>
-        <v>8.151272780859955</v>
+        <v>9.2593475250344</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="25"/>
-        <v>32.134462121769687</v>
+        <v>45.015789368793591</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="25"/>
-        <v>45.794197537388214</v>
+        <v>63.703310951052941</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="25"/>
-        <v>49.138689475795445</v>
+        <v>66.365965147054538</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="25"/>
-        <v>48.233844288395929</v>
+        <v>66.182183797709655</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="25"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="25"/>
-        <v>13.592689611600122</v>
+        <v>14.337356889342004</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="25"/>
-        <v>50.635333661640828</v>
+        <v>68.74797875198081</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="25"/>
-        <v>59.697882261590962</v>
+        <v>78.71156289935459</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="25"/>
-        <v>57.238806320767623</v>
+        <v>78.065815478729661</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="25"/>
-        <v>57.238806320767623</v>
+        <v>78.065815478729661</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="25"/>
-        <v>57.238806320767623</v>
+        <v>78.065815478729661</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="25"/>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="25"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="25"/>
-        <v>6.1587884048607293</v>
+        <v>3.4758658924135659</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="25"/>
-        <v>49.481186175552352</v>
+        <v>67.127035572547641</v>
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="25"/>
-        <v>60.077042933322218</v>
+        <v>78.781633482415771</v>
       </c>
       <c r="AE13" s="1">
         <f t="shared" si="25"/>
-        <v>57.19880632076763</v>
+        <v>78.025815478729726</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="25"/>
-        <v>57.19880632076763</v>
+        <v>78.025815478729726</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="25"/>
-        <v>57.19880632076763</v>
+        <v>78.025815478729726</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="25"/>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="25"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ13" s="1">
         <f t="shared" si="25"/>
-        <v>-0.8896246753526853</v>
+        <v>-3.0330428596316139</v>
       </c>
       <c r="AK13" s="1">
         <f t="shared" si="25"/>
-        <v>21.977414362701737</v>
+        <v>30.875432126191683</v>
       </c>
       <c r="AL13" s="1">
         <f t="shared" si="25"/>
-        <v>35.00222319411543</v>
+        <v>48.59739687515787</v>
       </c>
       <c r="AM13" s="1">
         <f t="shared" si="25"/>
-        <v>38.192621369627489</v>
+        <v>51.1229931073904</v>
       </c>
       <c r="AN13" s="1">
         <f t="shared" si="25"/>
-        <v>37.330855631024363</v>
+        <v>50.948850026363317</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="25"/>
-        <v>37.330855631024363</v>
+        <v>50.948850026363317</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="25"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="25"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="25"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AS13" s="1">
         <f t="shared" si="25"/>
-        <v>58.671452290343694</v>
+        <v>73.951678807593481</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="25"/>
-        <v>76.019374314519553</v>
+        <v>99.188930819498125</v>
       </c>
       <c r="AU13" s="1">
         <f t="shared" si="25"/>
-        <v>71.310137850172879</v>
+        <v>97.623815716147817</v>
       </c>
       <c r="AV13" s="1">
         <f t="shared" si="25"/>
-        <v>71.310137850172879</v>
+        <v>97.623815716147817</v>
       </c>
       <c r="AW13" s="1">
         <f t="shared" si="25"/>
-        <v>71.310137850172879</v>
+        <v>97.623815716147817</v>
       </c>
       <c r="AX13" s="1"/>
       <c r="AY13" s="96" t="s">
@@ -6728,27 +6728,27 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="26"/>
-        <v>4.3344534977047706</v>
+        <v>5.7414059851402399</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="26"/>
-        <v>7.0564201536864575</v>
+        <v>9.7975856725983697</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="26"/>
-        <v>4.9899392909064932</v>
+        <v>7.0830230467498518</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0733561898925954</v>
+        <v>8.441615389092</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="26"/>
-        <v>6.3384767130719704</v>
+        <v>8.5817004397880741</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="26"/>
-        <v>6.2665994876997804</v>
+        <v>8.5709747587003076</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="26"/>
@@ -6764,23 +6764,23 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" si="26"/>
-        <v>0.8613857511173757</v>
+        <v>0.97848154970801016</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="26"/>
-        <v>3.3958092847180112</v>
+        <v>4.7570435415472625</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="26"/>
-        <v>4.8393018247634991</v>
+        <v>6.7318473847525189</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="26"/>
-        <v>5.1927310103546835</v>
+        <v>7.0132233669149882</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="26"/>
-        <v>5.0971114951762395</v>
+        <v>6.9938022728229674</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="26"/>
@@ -6792,27 +6792,27 @@
       </c>
       <c r="T14" s="1">
         <f t="shared" si="26"/>
-        <v>1.4364074747058428</v>
+        <v>1.5151001892812161</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="26"/>
-        <v>5.3508888846938945</v>
+        <v>7.2649426546155711</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="26"/>
-        <v>6.3085737079936246</v>
+        <v>8.3178444093892949</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0487108579471176</v>
+        <v>8.2496050507147558</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0487108579471176</v>
+        <v>8.2496050507147558</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0487108579471176</v>
+        <v>8.2496050507147558</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="26"/>
@@ -6824,27 +6824,27 @@
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="26"/>
-        <v>0.6508299646836575</v>
+        <v>0.36731212818080355</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="26"/>
-        <v>5.2289243491014945</v>
+        <v>7.0936494841289717</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="26"/>
-        <v>6.3486415119788253</v>
+        <v>8.3252491182542858</v>
       </c>
       <c r="AE14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0444838579471192</v>
+        <v>8.2453780507147627</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0444838579471192</v>
+        <v>8.2453780507147627</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="26"/>
-        <v>6.0444838579471192</v>
+        <v>8.2453780507147627</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="26"/>
@@ -6860,23 +6860,23 @@
       </c>
       <c r="AK14" s="1">
         <f t="shared" si="26"/>
-        <v>2.322463262778506</v>
+        <v>3.2627612899353058</v>
       </c>
       <c r="AL14" s="1">
         <f t="shared" si="26"/>
-        <v>3.698859936038148</v>
+        <v>5.1355299147823077</v>
       </c>
       <c r="AM14" s="1">
         <f t="shared" si="26"/>
-        <v>4.0360052632353849</v>
+        <v>5.4024222966234801</v>
       </c>
       <c r="AN14" s="1">
         <f t="shared" si="26"/>
-        <v>3.9449381688084992</v>
+        <v>5.3840197265359429</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="26"/>
-        <v>3.9449381688084992</v>
+        <v>5.3840197265359429</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="26"/>
@@ -6892,23 +6892,23 @@
       </c>
       <c r="AS14" s="1">
         <f t="shared" si="26"/>
-        <v>6.2001057207820693</v>
+        <v>7.8148436579924407</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="26"/>
-        <v>8.0333473806868536</v>
+        <v>10.481790264350463</v>
       </c>
       <c r="AU14" s="1">
         <f t="shared" si="26"/>
-        <v>7.5356988173170185</v>
+        <v>10.316396725803919</v>
       </c>
       <c r="AV14" s="1">
         <f t="shared" si="26"/>
-        <v>7.5356988173170185</v>
+        <v>10.316396725803919</v>
       </c>
       <c r="AW14" s="1">
         <f t="shared" si="26"/>
-        <v>7.5356988173170185</v>
+        <v>10.316396725803919</v>
       </c>
       <c r="AX14" s="1"/>
       <c r="BF14" s="72" t="s">
@@ -6939,195 +6939,195 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B13:B14)</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:AW15" si="27">SUM(C13:C14)</f>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="27"/>
-        <v>45.351283378989571</v>
+        <v>60.072193637283512</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="27"/>
-        <v>73.83115546181476</v>
+        <v>102.51190478874098</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="27"/>
-        <v>52.209615571072035</v>
+        <v>74.109500896287145</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="27"/>
-        <v>63.545380697984342</v>
+        <v>88.324420111987678</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="27"/>
-        <v>66.319330397216476</v>
+        <v>89.790126650226455</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="27"/>
-        <v>65.567280705582732</v>
+        <v>89.677904105284725</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="27"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="27"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="27"/>
-        <v>-2.7827217858689943</v>
+        <v>-3.8182029114063258</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="27"/>
-        <v>9.0126585319773298</v>
+        <v>10.237829074742411</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="27"/>
-        <v>35.530271406487699</v>
+        <v>49.772832910340853</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="27"/>
-        <v>50.63349936215171</v>
+        <v>70.435158335805454</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="27"/>
-        <v>54.33142048615013</v>
+        <v>73.379188513969524</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="27"/>
-        <v>53.330955783572165</v>
+        <v>73.175986070532616</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="27"/>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="27"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="27"/>
-        <v>15.029097086305965</v>
+        <v>15.852457078623221</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="27"/>
-        <v>55.986222546334723</v>
+        <v>76.012921406596377</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="27"/>
-        <v>66.006455969584593</v>
+        <v>87.029407308743885</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="27"/>
-        <v>63.287517178714737</v>
+        <v>86.315420529444424</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" si="27"/>
-        <v>63.287517178714737</v>
+        <v>86.315420529444424</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="27"/>
-        <v>63.287517178714737</v>
+        <v>86.315420529444424</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="27"/>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="27"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="27"/>
-        <v>6.8096183695443866</v>
+        <v>3.8431780205943693</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="27"/>
-        <v>54.710110524653849</v>
+        <v>74.220685056676615</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="27"/>
-        <v>66.425684445301044</v>
+        <v>87.106882600670062</v>
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="27"/>
-        <v>63.243290178714751</v>
+        <v>86.271193529444488</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="27"/>
-        <v>63.243290178714751</v>
+        <v>86.271193529444488</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="27"/>
-        <v>63.243290178714751</v>
+        <v>86.271193529444488</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="27"/>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="27"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ15" s="1">
         <f t="shared" si="27"/>
-        <v>-0.8896246753526853</v>
+        <v>-3.0330428596316139</v>
       </c>
       <c r="AK15" s="1">
         <f t="shared" si="27"/>
-        <v>24.299877625480242</v>
+        <v>34.138193416126988</v>
       </c>
       <c r="AL15" s="1">
         <f t="shared" si="27"/>
-        <v>38.701083130153577</v>
+        <v>53.73292678994018</v>
       </c>
       <c r="AM15" s="1">
         <f t="shared" si="27"/>
-        <v>42.22862663286287</v>
+        <v>56.525415404013877</v>
       </c>
       <c r="AN15" s="1">
         <f t="shared" si="27"/>
-        <v>41.275793799832861</v>
+        <v>56.332869752899256</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="27"/>
-        <v>41.275793799832861</v>
+        <v>56.332869752899256</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="27"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="27"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="27"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AS15" s="1">
         <f t="shared" si="27"/>
-        <v>64.871558011125757</v>
+        <v>81.766522465585922</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="27"/>
-        <v>84.052721695206401</v>
+        <v>109.67072108384859</v>
       </c>
       <c r="AU15" s="1">
         <f t="shared" si="27"/>
-        <v>78.845836667489891</v>
+        <v>107.94021244195173</v>
       </c>
       <c r="AV15" s="1">
         <f t="shared" si="27"/>
-        <v>78.845836667489891</v>
+        <v>107.94021244195173</v>
       </c>
       <c r="AW15" s="1">
         <f t="shared" si="27"/>
-        <v>78.845836667489891</v>
+        <v>107.94021244195173</v>
       </c>
       <c r="AX15" s="1"/>
       <c r="BF15" s="72" t="s">
@@ -7165,27 +7165,27 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="28"/>
-        <v>-8.3707816084254709</v>
+        <v>-11.087915847376181</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="28"/>
-        <v>-5.2567153932333692</v>
+        <v>-7.8333737681631304</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="28"/>
-        <v>-3.6738855258564129</v>
+        <v>-5.2407919699792203</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="28"/>
-        <v>-2.0923159648829004</v>
+        <v>-2.6237401782364032</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="28"/>
-        <v>-0.51200595429648044</v>
+        <v>-0.27053499745768933</v>
       </c>
       <c r="I16" s="92">
         <f t="shared" si="28"/>
-        <v>0.13881070740031873</v>
+        <v>2.0713645684477342E-2</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7200,23 +7200,23 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" si="29"/>
-        <v>-6.6809113927949708</v>
+        <v>-8.8641262328086956</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="29"/>
-        <v>-3.7726365255363636</v>
+        <v>-5.6246088293553802</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="29"/>
-        <v>-2.1487224249287533</v>
+        <v>-2.939610136535177</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="29"/>
-        <v>-0.52609985547978855</v>
+        <v>-0.41884448026991611</v>
       </c>
       <c r="Q16" s="92">
         <f t="shared" si="29"/>
-        <v>0.1423351980179024</v>
+        <v>2.8909425739644522E-2</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -7227,19 +7227,19 @@
       </c>
       <c r="T16" s="1">
         <f t="shared" si="30"/>
-        <v>-11.219898708616531</v>
+        <v>-14.72950029052058</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="30"/>
-        <v>-5.0512696431873687</v>
+        <v>-7.4196302539962025</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="30"/>
-        <v>-1.2358020818113788</v>
+        <v>-1.3586705655509728</v>
       </c>
       <c r="W16" s="92">
         <f t="shared" si="30"/>
-        <v>0.3353285373850019</v>
+        <v>8.8056466448856549E-2</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="30"/>
@@ -7258,19 +7258,19 @@
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="31"/>
-        <v>-14.016540052437332</v>
+        <v>-18.402892029817394</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="31"/>
-        <v>-6.3090870539842143</v>
+        <v>-9.2695878174952515</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="31"/>
-        <v>-1.543085935597553</v>
+        <v>-1.6972715402720553</v>
       </c>
       <c r="AE16" s="92">
         <f t="shared" si="31"/>
-        <v>0.41916067173125499</v>
+        <v>0.11007058306107069</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="31"/>
@@ -7289,23 +7289,23 @@
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="32"/>
-        <v>-4.8006411441540715</v>
+        <v>-6.3361975398720629</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" si="32"/>
-        <v>-2.7115066053028967</v>
+        <v>-4.020767784880233</v>
       </c>
       <c r="AL16" s="1">
         <f t="shared" si="32"/>
-        <v>-1.5444437349502402</v>
+        <v>-2.1014187449367014</v>
       </c>
       <c r="AM16" s="92">
         <f t="shared" si="32"/>
-        <v>-0.3783080840528123</v>
+        <v>-0.29947781409871876</v>
       </c>
       <c r="AN16" s="92">
         <f t="shared" si="32"/>
-        <v>0.10218566070392626</v>
+        <v>2.0649377196886576E-2</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="32"/>
@@ -7324,15 +7324,15 @@
       </c>
       <c r="AS16" s="1">
         <f t="shared" si="33"/>
-        <v>-16.407793329244836</v>
+        <v>-21.356146862866602</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="33"/>
-        <v>-3.0126637379176531</v>
+        <v>-4.3827355158155621</v>
       </c>
       <c r="AU16" s="1">
         <f t="shared" si="33"/>
-        <v>0.81781241059565779</v>
+        <v>0.2718000179479429</v>
       </c>
       <c r="AV16" s="1">
         <f t="shared" si="33"/>
@@ -7381,27 +7381,27 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="34"/>
-        <v>-2.0926954021063677</v>
+        <v>-2.7719789618440451</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="34"/>
-        <v>-3.40687425041471</v>
+        <v>-4.7303224038848279</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="34"/>
-        <v>-4.3253456318788128</v>
+        <v>-6.040520396379633</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="34"/>
-        <v>-4.8484246230995387</v>
+        <v>-6.6964554409387338</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="34"/>
-        <v>-4.9764261116736588</v>
+        <v>-6.7640891903031557</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="34"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ref="J17:Q17" si="35">-J9*$BH$12</f>
@@ -7417,23 +7417,23 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" si="35"/>
-        <v>-1.4316238698846364</v>
+        <v>-1.8994556213161486</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="35"/>
-        <v>-2.2400459824995713</v>
+        <v>-3.1047289418923012</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="35"/>
-        <v>-2.7004865021271613</v>
+        <v>-3.7346453997212676</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="35"/>
-        <v>-2.8132221854442592</v>
+        <v>-3.8243977883505353</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="35"/>
-        <v>-2.7827217858689943</v>
+        <v>-3.8182029114063258</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ref="R17:Y17" si="36">-R9*$BI$12</f>
@@ -7445,27 +7445,27 @@
       </c>
       <c r="T17" s="1">
         <f t="shared" si="36"/>
-        <v>-2.8049746771541328</v>
+        <v>-3.682375072630145</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="36"/>
-        <v>-4.0677920879509752</v>
+        <v>-5.5372826361291958</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="36"/>
-        <v>-4.3767426084038199</v>
+        <v>-5.8769502775169391</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="36"/>
-        <v>-4.2929104740575692</v>
+        <v>-5.8549361609047246</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="36"/>
-        <v>-4.2929104740575692</v>
+        <v>-5.8549361609047246</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="36"/>
-        <v>-4.2929104740575692</v>
+        <v>-5.8549361609047246</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" ref="Z17:AG17" si="37">-Z9*$BJ$12</f>
@@ -7477,27 +7477,27 @@
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="37"/>
-        <v>-3.504135013109333</v>
+        <v>-4.6007230074543486</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="37"/>
-        <v>-5.0814067766053865</v>
+        <v>-6.918119961828161</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="37"/>
-        <v>-5.4671782605047747</v>
+        <v>-7.3424378468961748</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" si="37"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="37"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="37"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" ref="AH17:AO17" si="38">-AH9*$BK$12</f>
@@ -7509,27 +7509,27 @@
       </c>
       <c r="AJ17" s="1">
         <f t="shared" si="38"/>
-        <v>-1.2001602860385179</v>
+        <v>-1.5840493849680157</v>
       </c>
       <c r="AK17" s="1">
         <f t="shared" si="38"/>
-        <v>-1.878036937364242</v>
+        <v>-2.5892413311880738</v>
       </c>
       <c r="AL17" s="1">
         <f t="shared" si="38"/>
-        <v>-2.2641478711018022</v>
+        <v>-3.1145960174222491</v>
       </c>
       <c r="AM17" s="1">
         <f t="shared" si="38"/>
-        <v>-2.358724892115005</v>
+        <v>-3.1894654709469288</v>
       </c>
       <c r="AN17" s="1">
         <f t="shared" si="38"/>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="38"/>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" ref="AP17:AW17" si="39">-AP9*$BL$12</f>
@@ -7545,23 +7545,23 @@
       </c>
       <c r="AS17" s="1">
         <f t="shared" si="39"/>
-        <v>-2.7346322215408061</v>
+        <v>-3.559357810477767</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="39"/>
-        <v>-3.2367428445270816</v>
+        <v>-4.2898137297803611</v>
       </c>
       <c r="AU17" s="1">
         <f t="shared" si="39"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AV17" s="1">
         <f t="shared" si="39"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AW17" s="1">
         <f t="shared" si="39"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AX17" s="1"/>
       <c r="BE17" s="3"/>
@@ -7610,23 +7610,23 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="40"/>
-        <v>2.0926954021063677</v>
+        <v>2.7719789618440451</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="40"/>
-        <v>3.40687425041471</v>
+        <v>4.7303224038848279</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="40"/>
-        <v>4.3253456318788128</v>
+        <v>6.040520396379633</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="40"/>
-        <v>4.8484246230995387</v>
+        <v>6.6964554409387338</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="40"/>
-        <v>4.9764261116736588</v>
+        <v>6.7640891903031557</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -7645,19 +7645,19 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" si="40"/>
-        <v>1.4316238698846364</v>
+        <v>1.8994556213161486</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="40"/>
-        <v>2.2400459824995713</v>
+        <v>3.1047289418923012</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="40"/>
-        <v>2.7004865021271613</v>
+        <v>3.7346453997212676</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="40"/>
-        <v>2.8132221854442592</v>
+        <v>3.8243977883505353</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -7672,23 +7672,23 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="40"/>
-        <v>2.8049746771541328</v>
+        <v>3.682375072630145</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="40"/>
-        <v>4.0677920879509752</v>
+        <v>5.5372826361291958</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="40"/>
-        <v>4.3767426084038199</v>
+        <v>5.8769502775169391</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="40"/>
-        <v>4.2929104740575692</v>
+        <v>5.8549361609047246</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="40"/>
-        <v>4.2929104740575692</v>
+        <v>5.8549361609047246</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
@@ -7703,23 +7703,23 @@
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="40"/>
-        <v>3.504135013109333</v>
+        <v>4.6007230074543486</v>
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="40"/>
-        <v>5.0814067766053865</v>
+        <v>6.918119961828161</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" si="40"/>
-        <v>5.4671782605047747</v>
+        <v>7.3424378468961748</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="40"/>
-        <v>5.3623880925719609</v>
+        <v>7.3149202011309074</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="40"/>
-        <v>5.3623880925719609</v>
+        <v>7.3149202011309074</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -7734,23 +7734,23 @@
       </c>
       <c r="AK18" s="1">
         <f t="shared" si="40"/>
-        <v>1.2001602860385179</v>
+        <v>1.5840493849680157</v>
       </c>
       <c r="AL18" s="1">
         <f t="shared" si="40"/>
-        <v>1.878036937364242</v>
+        <v>2.5892413311880738</v>
       </c>
       <c r="AM18" s="1">
         <f t="shared" si="40"/>
-        <v>2.2641478711018022</v>
+        <v>3.1145960174222491</v>
       </c>
       <c r="AN18" s="1">
         <f t="shared" si="40"/>
-        <v>2.358724892115005</v>
+        <v>3.1894654709469288</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="40"/>
-        <v>2.3331784769390236</v>
+        <v>3.1843031266477073</v>
       </c>
       <c r="AP18" s="1">
         <v>0</v>
@@ -7769,19 +7769,19 @@
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="40"/>
-        <v>2.7346322215408061</v>
+        <v>3.559357810477767</v>
       </c>
       <c r="AU18" s="1">
         <f t="shared" si="40"/>
-        <v>3.2367428445270816</v>
+        <v>4.2898137297803611</v>
       </c>
       <c r="AV18" s="1">
         <f t="shared" si="40"/>
-        <v>3.1004407760944721</v>
+        <v>4.2445137267890365</v>
       </c>
       <c r="AW18" s="1">
         <f t="shared" si="40"/>
-        <v>3.1004407760944721</v>
+        <v>4.2445137267890365</v>
       </c>
       <c r="AX18" s="1"/>
       <c r="AY18" s="71"/>
@@ -7813,195 +7813,195 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" ref="B19:AW19" si="41">SUM(B15:B18)</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="41"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="41"/>
-        <v>34.887806368457738</v>
+        <v>46.212298828063282</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="41"/>
-        <v>67.260261220273051</v>
+        <v>92.720187578537065</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="41"/>
-        <v>47.617258663751521</v>
+        <v>67.558510933813125</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="41"/>
-        <v>60.929985741880714</v>
+        <v>85.044744889192174</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="41"/>
-        <v>65.679322954345864</v>
+        <v>89.451957903404349</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="41"/>
-        <v>65.74079408983313</v>
+        <v>89.703796162390319</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="41"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="41"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="41"/>
-        <v>-2.7827217858689943</v>
+        <v>-3.8182029114063258</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="41"/>
-        <v>0.90012326929772257</v>
+        <v>-0.52575277938243326</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="41"/>
-        <v>30.949212768336402</v>
+        <v>42.942950760409317</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="41"/>
-        <v>48.024336417595364</v>
+        <v>66.865631741441305</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="41"/>
-        <v>53.692584947353247</v>
+        <v>72.870591645070348</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="41"/>
-        <v>53.503791381165335</v>
+        <v>73.211090373216464</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="41"/>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="41"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="41"/>
-        <v>1.004223700535301</v>
+        <v>-2.5594182845275038</v>
       </c>
       <c r="U19" s="5">
         <f t="shared" si="41"/>
-        <v>49.672135492350513</v>
+        <v>66.738383589101119</v>
       </c>
       <c r="V19" s="5">
         <f t="shared" si="41"/>
-        <v>64.461703367320368</v>
+        <v>85.33106910180517</v>
       </c>
       <c r="W19" s="5">
         <f t="shared" si="41"/>
-        <v>63.706677850445985</v>
+        <v>86.425491112505497</v>
       </c>
       <c r="X19" s="5">
         <f t="shared" si="41"/>
-        <v>63.287517178714737</v>
+        <v>86.315420529444424</v>
       </c>
       <c r="Y19" s="5">
         <f t="shared" si="41"/>
-        <v>63.287517178714737</v>
+        <v>86.315420529444424</v>
       </c>
       <c r="Z19" s="5">
         <f t="shared" si="41"/>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA19" s="5">
         <f t="shared" si="41"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="41"/>
-        <v>-10.711056696002277</v>
+        <v>-19.160437016677374</v>
       </c>
       <c r="AC19" s="5">
         <f t="shared" si="41"/>
-        <v>46.823751707173585</v>
+        <v>62.633700284807553</v>
       </c>
       <c r="AD19" s="5">
         <f t="shared" si="41"/>
-        <v>64.496827025804095</v>
+        <v>84.985293175329986</v>
       </c>
       <c r="AE19" s="5">
         <f t="shared" si="41"/>
-        <v>63.767241018378819</v>
+        <v>86.408781758270834</v>
       </c>
       <c r="AF19" s="5">
         <f t="shared" si="41"/>
-        <v>63.243290178714751</v>
+        <v>86.271193529444488</v>
       </c>
       <c r="AG19" s="5">
         <f t="shared" si="41"/>
-        <v>63.243290178714751</v>
+        <v>86.271193529444488</v>
       </c>
       <c r="AH19" s="5">
         <f t="shared" si="41"/>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI19" s="5">
         <f t="shared" si="41"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ19" s="5">
         <f t="shared" si="41"/>
-        <v>-6.8904261055452745</v>
+        <v>-10.953289784471693</v>
       </c>
       <c r="AK19" s="5">
         <f t="shared" si="41"/>
-        <v>20.910494368851619</v>
+        <v>29.112233685026695</v>
       </c>
       <c r="AL19" s="5">
         <f t="shared" si="41"/>
-        <v>36.770528461465773</v>
+        <v>51.106153358769305</v>
       </c>
       <c r="AM19" s="5">
         <f t="shared" si="41"/>
-        <v>41.755741527796857</v>
+        <v>56.151068136390478</v>
       </c>
       <c r="AN19" s="5">
         <f t="shared" si="41"/>
-        <v>41.403525875712766</v>
+        <v>56.358681474395368</v>
       </c>
       <c r="AO19" s="5">
         <f t="shared" si="41"/>
-        <v>41.275793799832861</v>
+        <v>56.332869752899256</v>
       </c>
       <c r="AP19" s="5">
         <f t="shared" si="41"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ19" s="5">
         <f t="shared" si="41"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR19" s="5">
         <f t="shared" si="41"/>
-        <v>-3.1004407760944721</v>
+        <v>-4.2445137267890365</v>
       </c>
       <c r="AS19" s="5">
         <f t="shared" si="41"/>
-        <v>45.729132460340111</v>
+        <v>56.851017792241549</v>
       </c>
       <c r="AT19" s="5">
         <f t="shared" si="41"/>
-        <v>80.537947334302473</v>
+        <v>104.55752964873042</v>
       </c>
       <c r="AU19" s="5">
         <f t="shared" si="41"/>
-        <v>79.799951146518168</v>
+        <v>108.25731246289099</v>
       </c>
       <c r="AV19" s="5">
         <f t="shared" si="41"/>
-        <v>78.845836667489891</v>
+        <v>107.94021244195173</v>
       </c>
       <c r="AW19" s="5">
         <f t="shared" si="41"/>
-        <v>78.845836667489891</v>
+        <v>107.94021244195173</v>
       </c>
       <c r="AX19" s="1"/>
       <c r="AY19" s="71"/>
@@ -8038,195 +8038,195 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:I21" si="42">IF(B3&lt;$BG$4,B19,B19*$BG$5)</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="42"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="42"/>
-        <v>12.210732228960207</v>
+        <v>16.17430458982215</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="42"/>
-        <v>23.541091427095566</v>
+        <v>32.452065652487974</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="42"/>
-        <v>16.66604053231303</v>
+        <v>23.645478826834591</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="42"/>
-        <v>21.325495009658248</v>
+        <v>29.765660711217258</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="42"/>
-        <v>22.98776303402105</v>
+        <v>31.308185266191519</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="42"/>
-        <v>23.009277931441595</v>
+        <v>31.396328656836609</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ref="J21:Q21" si="43">IF(J3&lt;$BG$4,J19,J19*$BH$5)</f>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="43"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="43"/>
-        <v>-0.69568044646724858</v>
+        <v>-0.95455072785158146</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="43"/>
-        <v>0.22503081732443064</v>
+        <v>-0.13143819484560831</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="43"/>
-        <v>7.7373031920841004</v>
+        <v>10.735737690102329</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="43"/>
-        <v>12.006084104398841</v>
+        <v>16.716407935360326</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="43"/>
-        <v>13.423146236838312</v>
+        <v>18.217647911267587</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="43"/>
-        <v>13.375947845291334</v>
+        <v>18.302772593304116</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ref="R21:Y21" si="44">IF(R3&lt;$BG$4,R19,R19*$BI$5)</f>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="44"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="44"/>
-        <v>0.45190066524088546</v>
+        <v>-1.1517382280373767</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="44"/>
-        <v>22.352460971557733</v>
+        <v>30.032272615095504</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="44"/>
-        <v>29.007766515294165</v>
+        <v>38.398981095812324</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="44"/>
-        <v>28.668005032700695</v>
+        <v>38.891471000627476</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="44"/>
-        <v>28.479382730421634</v>
+        <v>38.841939238249992</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="44"/>
-        <v>28.479382730421634</v>
+        <v>38.841939238249992</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" ref="Z21:AG21" si="45">IF(Z3&lt;$BG$4,Z19,Z19*$BJ$5)</f>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="45"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="45"/>
-        <v>-4.2844226784009107</v>
+        <v>-7.6641748066709496</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" si="45"/>
-        <v>18.729500682869435</v>
+        <v>25.053480113923023</v>
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="45"/>
-        <v>25.79873081032164</v>
+        <v>33.994117270131994</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" si="45"/>
-        <v>25.50689640735153</v>
+        <v>34.563512703308334</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="45"/>
-        <v>25.297316071485902</v>
+        <v>34.508477411777797</v>
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="45"/>
-        <v>25.297316071485902</v>
+        <v>34.508477411777797</v>
       </c>
       <c r="AH21" s="1">
         <f t="shared" ref="AH21:AO21" si="46">IF(AH3&lt;$BG$4,AH19,AH19*$BK$5)</f>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="46"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ21" s="1">
         <f t="shared" si="46"/>
-        <v>-3.1006917474953735</v>
+        <v>-4.9289804030122619</v>
       </c>
       <c r="AK21" s="1">
         <f t="shared" si="46"/>
-        <v>9.4097224659832293</v>
+        <v>13.100505158262013</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" si="46"/>
-        <v>16.5467378076596</v>
+        <v>22.997769011446188</v>
       </c>
       <c r="AM21" s="1">
         <f t="shared" si="46"/>
-        <v>18.790083687508588</v>
+        <v>25.267980661375717</v>
       </c>
       <c r="AN21" s="1">
         <f t="shared" si="46"/>
-        <v>18.631586644070744</v>
+        <v>25.361406663477915</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="46"/>
-        <v>18.574107209924787</v>
+        <v>25.349791388804665</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" ref="AP21:AW21" si="47">IF(AP3&lt;$BG$4,AP19,AP19*$BL$5)</f>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="47"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="47"/>
-        <v>-0.93013223282834157</v>
+        <v>-1.2733541180367109</v>
       </c>
       <c r="AS21" s="1">
         <f t="shared" si="47"/>
-        <v>13.718739738102032</v>
+        <v>17.055305337672465</v>
       </c>
       <c r="AT21" s="1">
         <f t="shared" si="47"/>
-        <v>24.16138420029074</v>
+        <v>31.367258894619127</v>
       </c>
       <c r="AU21" s="1">
         <f t="shared" si="47"/>
-        <v>23.939985343955449</v>
+        <v>32.4771937388673</v>
       </c>
       <c r="AV21" s="1">
         <f t="shared" si="47"/>
-        <v>23.653751000246967</v>
+        <v>32.382063732585515</v>
       </c>
       <c r="AW21" s="1">
         <f t="shared" si="47"/>
-        <v>23.653751000246967</v>
+        <v>32.382063732585515</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="71"/>
@@ -8247,195 +8247,195 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22:AW22" si="48">B21/((1+$AZ$13)^(B$3-2024))</f>
-        <v>-9.3418495178418048</v>
+        <v>-12.777066186240162</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="48"/>
-        <v>-4.4149654247656596</v>
+        <v>-6.0384515223089243</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="48"/>
-        <v>10.311337770874015</v>
+        <v>13.658371562608243</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="48"/>
-        <v>18.789894211510529</v>
+        <v>25.902404841493588</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="48"/>
-        <v>12.57345436701603</v>
+        <v>17.838991117237271</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="48"/>
-        <v>15.207076557239274</v>
+        <v>21.225705710807038</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="48"/>
-        <v>15.494150080656681</v>
+        <v>21.102258647327041</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="48"/>
-        <v>14.658801771365313</v>
+        <v>20.002042632563793</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="48"/>
-        <v>-5.260466012812433</v>
+        <v>-7.2179427880542173</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="48"/>
-        <v>-4.9722007446951997</v>
+        <v>-6.822410869782038</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="48"/>
-        <v>-0.58746649501518733</v>
+        <v>-0.80606918485751111</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="48"/>
-        <v>0.17961381548304359</v>
+        <v>-0.1049105893900177</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="48"/>
-        <v>5.8372970124977286</v>
+        <v>8.0994227561752794</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="48"/>
-        <v>8.5614631709865581</v>
+        <v>11.920365511794063</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="48"/>
-        <v>9.0474328467877267</v>
+        <v>12.279009942637606</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="48"/>
-        <v>8.5215784933570049</v>
+        <v>11.660370921288331</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="48"/>
-        <v>-5.4102209713056597</v>
+        <v>-7.3787931508952775</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="48"/>
-        <v>-2.5568746834379326</v>
+        <v>-3.4872234427970548</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="48"/>
-        <v>0.38160695941968326</v>
+        <v>-0.97258392619200018</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="48"/>
-        <v>17.841159927660421</v>
+        <v>23.970988223569858</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="48"/>
-        <v>21.884491872076786</v>
+        <v>28.969558523034507</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="48"/>
-        <v>20.442974340251279</v>
+        <v>27.733263713800707</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="48"/>
-        <v>19.195596786714759</v>
+        <v>26.180139193644774</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="48"/>
-        <v>18.143708258033957</v>
+        <v>24.745508720675002</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="48"/>
-        <v>-11.826587860976243</v>
+        <v>-16.132839503828535</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="48"/>
-        <v>-4.7907897589022967</v>
+        <v>-6.535193682700652</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="48"/>
-        <v>-3.6179754466654508</v>
+        <v>-6.4720029630308877</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="48"/>
-        <v>14.94940612908322</v>
+        <v>19.997043995545809</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="48"/>
-        <v>19.463481079479291</v>
+        <v>25.646372419068836</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="48"/>
-        <v>18.188807632765105</v>
+        <v>24.647023833597999</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="48"/>
-        <v>17.050828793968499</v>
+        <v>23.259310933461858</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="48"/>
-        <v>16.116470179742503</v>
+        <v>21.984737257645669</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="48"/>
-        <v>-2.2053239641293105</v>
+        <v>-3.009808320990957</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="48"/>
-        <v>-0.69482522587864037</v>
+        <v>-0.94829185212686917</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" si="48"/>
-        <v>-2.6183753219940167</v>
+        <v>-4.1622714222606501</v>
       </c>
       <c r="AK22" s="1">
         <f t="shared" si="48"/>
-        <v>7.5105986586499096</v>
+        <v>10.456486556853807</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="48"/>
-        <v>12.483448143799292</v>
+        <v>17.350335770992043</v>
       </c>
       <c r="AM22" s="1">
         <f t="shared" si="48"/>
-        <v>13.399090666991045</v>
+        <v>18.018438314813114</v>
       </c>
       <c r="AN22" s="1">
         <f t="shared" si="48"/>
-        <v>12.558011811621421</v>
+        <v>17.094026962037866</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="48"/>
-        <v>11.833233380101815</v>
+        <v>16.149901271181236</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="48"/>
-        <v>-7.3263537385437569</v>
+        <v>-10.02980261720491</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="48"/>
-        <v>-6.9248810706053705</v>
+        <v>-9.4801852005027456</v>
       </c>
       <c r="AR22" s="1">
         <f t="shared" si="48"/>
-        <v>-0.78544901685121682</v>
+        <v>-1.0752823145093222</v>
       </c>
       <c r="AS22" s="1">
         <f t="shared" si="48"/>
-        <v>10.949945510915772</v>
+        <v>13.613106428490466</v>
       </c>
       <c r="AT22" s="1">
         <f t="shared" si="48"/>
-        <v>18.228208499630675</v>
+        <v>23.664576932067163</v>
       </c>
       <c r="AU22" s="1">
         <f t="shared" si="48"/>
-        <v>17.07145319439649</v>
+        <v>23.159282883120365</v>
       </c>
       <c r="AV22" s="1">
         <f t="shared" si="48"/>
-        <v>15.943037494597046</v>
+        <v>21.826071316792493</v>
       </c>
       <c r="AW22" s="1">
         <f t="shared" si="48"/>
-        <v>15.069384102142937</v>
+        <v>20.630036918935545</v>
       </c>
       <c r="AX22" s="1"/>
       <c r="AY22" s="71"/>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B23" s="1">
         <f>((I21*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>393.72811013847746</v>
+        <v>537.24489678361272</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8467,7 +8467,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1">
         <f>((Q21*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>228.88535147123741</v>
+        <v>313.19175181976055</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -8478,7 +8478,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1">
         <f>((Y21*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>487.33096161339506</v>
+        <v>664.65203193065088</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -8489,7 +8489,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1">
         <f>((AG21*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>432.88035713591114</v>
+        <v>590.49908630680568</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -8500,7 +8500,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1">
         <f>((AO21*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>317.83475131481299</v>
+        <v>433.77829959105446</v>
       </c>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -8511,7 +8511,7 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1">
         <f>((AW21*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>404.7561469231149</v>
+        <v>554.11251034490067</v>
       </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
@@ -8539,27 +8539,27 @@
       </c>
       <c r="B24" s="5">
         <f>B23+SUM(B22:I22)</f>
-        <v>467.00600995453186</v>
+        <v>638.1591535871006</v>
       </c>
       <c r="J24" s="5">
         <f>J23+SUM(J22:Q22)</f>
-        <v>250.21260355782664</v>
+        <v>342.19958751957205</v>
       </c>
       <c r="R24" s="5">
         <f>R23+SUM(R22:Y22)</f>
-        <v>577.2534041028083</v>
+        <v>784.41288978549142</v>
       </c>
       <c r="Z24" s="5">
         <f>Z23+SUM(Z22:AG22)</f>
-        <v>498.41399788440577</v>
+        <v>676.8935385965658</v>
       </c>
       <c r="AH24" s="5">
         <f>AH23+SUM(AH22:AO22)</f>
-        <v>370.10060946397448</v>
+        <v>504.72711687155402</v>
       </c>
       <c r="AP24" s="5">
         <f>AP23+SUM(AP22:AW22)</f>
-        <v>466.98149189879746</v>
+        <v>636.42031469208973</v>
       </c>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.3">
@@ -8631,195 +8631,195 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ref="B26:I26" si="49">IF(B3&lt;$BG$4,B19,B19*$BG$6)</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="49"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="49"/>
-        <v>22.677074139497531</v>
+        <v>30.037994238241133</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="49"/>
-        <v>43.719169793177485</v>
+        <v>60.268121926049091</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="49"/>
-        <v>30.951218131438491</v>
+        <v>43.913032106978534</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="49"/>
-        <v>39.604490732222466</v>
+        <v>55.279084177974916</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="49"/>
-        <v>42.691559920324814</v>
+        <v>58.143772637212827</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="49"/>
-        <v>42.731516158391535</v>
+        <v>58.30746750555371</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ref="J26:Q26" si="50">IF(J3&lt;$BG$4,J19,J19*$BH$6)</f>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="50"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="50"/>
-        <v>-1.5304969822279471</v>
+        <v>-2.1000116012734793</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="50"/>
-        <v>0.49506779811374746</v>
+        <v>-0.2891640286603383</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="50"/>
-        <v>17.022067022585023</v>
+        <v>23.618622918225128</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="50"/>
-        <v>26.413385029677453</v>
+        <v>36.776097457792723</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="50"/>
-        <v>29.530921721044287</v>
+        <v>40.078825404788695</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="50"/>
-        <v>29.427085259640936</v>
+        <v>40.266099705269056</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" ref="R26:Y26" si="51">IF(R3&lt;$BG$4,R19,R19*$BI$6)</f>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" si="51"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="51"/>
-        <v>0.70295659037471059</v>
+        <v>-1.7915927991692524</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="51"/>
-        <v>34.770494844645356</v>
+        <v>46.71686851237078</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="51"/>
-        <v>45.123192357124253</v>
+        <v>59.731748371263613</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="51"/>
-        <v>44.594674495312184</v>
+        <v>60.497843778753847</v>
       </c>
       <c r="X26" s="1">
         <f t="shared" si="51"/>
-        <v>44.301262025100314</v>
+        <v>60.420794370611091</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="51"/>
-        <v>44.301262025100314</v>
+        <v>60.420794370611091</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" ref="Z26:AG26" si="52">IF(Z3&lt;$BG$4,Z19,Z19*$BJ$6)</f>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="52"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="52"/>
-        <v>-7.4977396872015936</v>
+        <v>-13.412305911674162</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="52"/>
-        <v>32.776626195021507</v>
+        <v>43.843590199365288</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="52"/>
-        <v>45.147778918062862</v>
+        <v>59.489705222730983</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" si="52"/>
-        <v>44.637068712865172</v>
+        <v>60.486147230789577</v>
       </c>
       <c r="AF26" s="1">
         <f t="shared" si="52"/>
-        <v>44.270303125100327</v>
+        <v>60.389835470611139</v>
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="52"/>
-        <v>44.270303125100327</v>
+        <v>60.389835470611139</v>
       </c>
       <c r="AH26" s="1">
         <f t="shared" ref="AH26:AO26" si="53">IF(AH3&lt;$BG$4,AH19,AH19*$BK$6)</f>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI26" s="1">
         <f t="shared" si="53"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ26" s="1">
         <f t="shared" si="53"/>
-        <v>-4.1342556633271643</v>
+        <v>-6.5719738706830153</v>
       </c>
       <c r="AK26" s="1">
         <f t="shared" si="53"/>
-        <v>12.546296621310971</v>
+        <v>17.467340211016015</v>
       </c>
       <c r="AL26" s="1">
         <f t="shared" si="53"/>
-        <v>22.062317076879463</v>
+        <v>30.663692015261582</v>
       </c>
       <c r="AM26" s="1">
         <f t="shared" si="53"/>
-        <v>25.053444916678114</v>
+        <v>33.690640881834284</v>
       </c>
       <c r="AN26" s="1">
         <f t="shared" si="53"/>
-        <v>24.842115525427658</v>
+        <v>33.815208884637222</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="53"/>
-        <v>24.765476279899715</v>
+        <v>33.799721851739555</v>
       </c>
       <c r="AP26" s="1">
         <f t="shared" ref="AP26:AW26" si="54">IF(AP3&lt;$BG$4,AP19,AP19*$BL$6)</f>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="54"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR26" s="1">
         <f t="shared" si="54"/>
-        <v>-1.8602644656566831</v>
+        <v>-2.5467082360734219</v>
       </c>
       <c r="AS26" s="1">
         <f t="shared" si="54"/>
-        <v>27.437479476204064</v>
+        <v>34.11061067534493</v>
       </c>
       <c r="AT26" s="1">
         <f t="shared" si="54"/>
-        <v>48.322768400581481</v>
+        <v>62.734517789238254</v>
       </c>
       <c r="AU26" s="1">
         <f t="shared" si="54"/>
-        <v>47.879970687910898</v>
+        <v>64.954387477734599</v>
       </c>
       <c r="AV26" s="1">
         <f t="shared" si="54"/>
-        <v>47.307502000493933</v>
+        <v>64.764127465171029</v>
       </c>
       <c r="AW26" s="1">
         <f t="shared" si="54"/>
-        <v>47.307502000493933</v>
+        <v>64.764127465171029</v>
       </c>
       <c r="AX26" s="1"/>
       <c r="BJ26"/>
@@ -8830,195 +8830,195 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ref="B27:AW27" si="55">B26/((1+$AZ$13)^(B$3-2024))</f>
-        <v>-9.3418495178418048</v>
+        <v>-12.777066186240162</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="55"/>
-        <v>-4.4149654247656596</v>
+        <v>-6.0384515223089243</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="55"/>
-        <v>19.14962728876603</v>
+        <v>25.365547187701022</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="55"/>
-        <v>34.8955178213767</v>
+        <v>48.104466134202376</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="55"/>
-        <v>23.35070096731549</v>
+        <v>33.129554932012084</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="55"/>
-        <v>28.241713606301513</v>
+        <v>39.419167748641648</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="55"/>
-        <v>28.774850149790982</v>
+        <v>39.18990891646451</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="55"/>
-        <v>27.223489003964154</v>
+        <v>37.146650603332766</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="55"/>
-        <v>-5.260466012812433</v>
+        <v>-7.2179427880542173</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="55"/>
-        <v>-4.9722007446951997</v>
+        <v>-6.822410869782038</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="55"/>
-        <v>-1.2924262890334122</v>
+        <v>-1.7733522066865246</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="55"/>
-        <v>0.39515039406269592</v>
+        <v>-0.23080329665803895</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="55"/>
-        <v>12.842053427495005</v>
+        <v>17.818730063585619</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="55"/>
-        <v>18.835218976170427</v>
+        <v>26.224804125946946</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="55"/>
-        <v>19.904352262932999</v>
+        <v>27.013821873802733</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="55"/>
-        <v>18.747472685385414</v>
+        <v>25.65281602683433</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="55"/>
-        <v>-5.4102209713056597</v>
+        <v>-7.3787931508952775</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" si="55"/>
-        <v>-2.5568746834379326</v>
+        <v>-3.4872234427970548</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" si="55"/>
-        <v>0.59361082576395163</v>
+        <v>-1.5129083296320001</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="55"/>
-        <v>27.752915443027312</v>
+        <v>37.288203903330889</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="55"/>
-        <v>34.042542912119444</v>
+        <v>45.063757702498116</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" si="55"/>
-        <v>31.80018230705754</v>
+        <v>43.140632443689988</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" si="55"/>
-        <v>29.859817223778514</v>
+        <v>40.724660967891865</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="55"/>
-        <v>28.223546179163932</v>
+        <v>38.493013565494444</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="55"/>
-        <v>-11.826587860976243</v>
+        <v>-16.132839503828535</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="55"/>
-        <v>-4.7907897589022967</v>
+        <v>-6.535193682700652</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="55"/>
-        <v>-6.3314570316645389</v>
+        <v>-11.326005185304053</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" si="55"/>
-        <v>26.16146072589563</v>
+        <v>34.994826992205169</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="55"/>
-        <v>34.061091889088758</v>
+        <v>44.881151733370459</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" si="55"/>
-        <v>31.830413357338934</v>
+        <v>43.132291708796494</v>
       </c>
       <c r="AF27" s="1">
         <f t="shared" si="55"/>
-        <v>29.838950389444875</v>
+        <v>40.703794133558247</v>
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="55"/>
-        <v>28.203822814549383</v>
+        <v>38.473290200879916</v>
       </c>
       <c r="AH27" s="1">
         <f t="shared" si="55"/>
-        <v>-2.2053239641293105</v>
+        <v>-3.009808320990957</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="55"/>
-        <v>-0.69482522587864037</v>
+        <v>-0.94829185212686917</v>
       </c>
       <c r="AJ27" s="1">
         <f t="shared" si="55"/>
-        <v>-3.4911670959920218</v>
+        <v>-5.5496952296808661</v>
       </c>
       <c r="AK27" s="1">
         <f t="shared" si="55"/>
-        <v>10.014131544866546</v>
+        <v>13.941982075805075</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="55"/>
-        <v>16.64459752506572</v>
+        <v>23.133781027989386</v>
       </c>
       <c r="AM27" s="1">
         <f t="shared" si="55"/>
-        <v>17.865454222654726</v>
+        <v>24.024584419750813</v>
       </c>
       <c r="AN27" s="1">
         <f t="shared" si="55"/>
-        <v>16.744015748828563</v>
+        <v>22.792035949383823</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="55"/>
-        <v>15.777644506802419</v>
+        <v>21.533201694908318</v>
       </c>
       <c r="AP27" s="1">
         <f t="shared" si="55"/>
-        <v>-7.3263537385437569</v>
+        <v>-10.02980261720491</v>
       </c>
       <c r="AQ27" s="1">
         <f t="shared" si="55"/>
-        <v>-6.9248810706053705</v>
+        <v>-9.4801852005027456</v>
       </c>
       <c r="AR27" s="1">
         <f t="shared" si="55"/>
-        <v>-1.5708980337024336</v>
+        <v>-2.1505646290186444</v>
       </c>
       <c r="AS27" s="1">
         <f t="shared" si="55"/>
-        <v>21.899891021831543</v>
+        <v>27.226212856980933</v>
       </c>
       <c r="AT27" s="1">
         <f t="shared" si="55"/>
-        <v>36.45641699926135</v>
+        <v>47.329153864134327</v>
       </c>
       <c r="AU27" s="1">
         <f t="shared" si="55"/>
-        <v>34.14290638879298</v>
+        <v>46.318565766240731</v>
       </c>
       <c r="AV27" s="1">
         <f t="shared" si="55"/>
-        <v>31.886074989194093</v>
+        <v>43.652142633584987</v>
       </c>
       <c r="AW27" s="1">
         <f t="shared" si="55"/>
-        <v>30.138768204285874</v>
+        <v>41.26007383787109</v>
       </c>
       <c r="AX27" s="1"/>
       <c r="BJ27"/>
@@ -9029,27 +9029,27 @@
       </c>
       <c r="B28" s="1">
         <f>((I26*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>731.20934740002951</v>
+        <v>997.74052259813811</v>
       </c>
       <c r="J28" s="1">
         <f>((Q26*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>503.54777323672238</v>
+        <v>689.02185400347321</v>
       </c>
       <c r="R28" s="1">
         <f>((Y26*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>758.07038473194768</v>
+        <v>1033.9031607810123</v>
       </c>
       <c r="Z28" s="1">
         <f>((AG26*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>757.54062498784447</v>
+        <v>1033.3734010369096</v>
       </c>
       <c r="AH28" s="1">
         <f>((AO26*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>423.77966841975069</v>
+        <v>578.37106612140599</v>
       </c>
       <c r="AP28" s="1">
         <f>((AW26*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>809.5122938462298</v>
+        <v>1108.2250206898013</v>
       </c>
       <c r="AX28" s="1"/>
     </row>
@@ -9059,27 +9059,27 @@
       </c>
       <c r="B29" s="5">
         <f>B28+SUM(B27:I27)</f>
-        <v>879.08843129493698</v>
+        <v>1201.2803004119435</v>
       </c>
       <c r="J29" s="5">
         <f>J28+SUM(J27:Q27)</f>
-        <v>562.74692793622785</v>
+        <v>769.68751693246202</v>
       </c>
       <c r="R29" s="5">
         <f>R28+SUM(R27:Y27)</f>
-        <v>902.37590396811481</v>
+        <v>1226.2345044405934</v>
       </c>
       <c r="Z29" s="5">
         <f>Z28+SUM(Z27:AG27)</f>
-        <v>884.68752951261899</v>
+        <v>1201.5647174338867</v>
       </c>
       <c r="AH29" s="5">
         <f>AH28+SUM(AH27:AO27)</f>
-        <v>494.43419568196867</v>
+        <v>674.28885588644471</v>
       </c>
       <c r="AP29" s="5">
         <f>AP28+SUM(AP27:AW27)</f>
-        <v>948.214218606744</v>
+        <v>1292.3506172018872</v>
       </c>
     </row>
     <row r="30" spans="1:64" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -9092,195 +9092,195 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ref="B31:I31" si="56">IF(B3&lt;$BG$4,B19,B19*$BG$7)</f>
-        <v>-9.8834468696471571</v>
+        <v>-13.517821557764073</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="56"/>
-        <v>-4.9417234348235786</v>
+        <v>-6.7589107788820364</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="56"/>
-        <v>29.654635413189077</v>
+        <v>39.280454003853791</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="56"/>
-        <v>57.171222037232091</v>
+        <v>78.812159441756506</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="56"/>
-        <v>40.47466986418879</v>
+        <v>57.424734293741153</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="56"/>
-        <v>51.790487880598604</v>
+        <v>72.288033155813352</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="56"/>
-        <v>55.827424511193982</v>
+        <v>76.034164217893689</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="56"/>
-        <v>55.87967497635816</v>
+        <v>76.248226738031775</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ref="J31:Q31" si="57">IF(J3&lt;$BG$4,J19,J19*$BH$7)</f>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="57"/>
-        <v>-5.5654435717379886</v>
+        <v>-7.6364058228126517</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="57"/>
-        <v>-2.087041339401746</v>
+        <v>-2.8636521835547444</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="57"/>
-        <v>0.67509245197329193</v>
+        <v>-0.39431458453682494</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="57"/>
-        <v>23.211909576252303</v>
+        <v>32.207213070306992</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="57"/>
-        <v>36.018252313196527</v>
+        <v>50.149223806080983</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="57"/>
-        <v>40.269438710514933</v>
+        <v>54.652943733802758</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="57"/>
-        <v>40.127843535874</v>
+        <v>54.908317779912352</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ref="R31:Y31" si="58">IF(R3&lt;$BG$4,R19,R19*$BI$7)</f>
-        <v>-5.7238806320767592</v>
+        <v>-7.806581547872967</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="58"/>
-        <v>-2.8619403160383796</v>
+        <v>-3.9032907739364835</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="58"/>
-        <v>0.85359014545500578</v>
+        <v>-2.175505541848378</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="58"/>
-        <v>42.221315168497938</v>
+        <v>56.72762605073595</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="58"/>
-        <v>54.792447862222311</v>
+        <v>72.531408736534388</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="58"/>
-        <v>54.150676172879088</v>
+        <v>73.461667445629672</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="58"/>
-        <v>53.794389601907525</v>
+        <v>73.368107450027765</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="58"/>
-        <v>53.794389601907525</v>
+        <v>73.368107450027765</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" ref="Z31:AG31" si="59">IF(Z3&lt;$BG$4,Z19,Z19*$BJ$7)</f>
-        <v>-12.512238882667912</v>
+        <v>-17.068147135972119</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="59"/>
-        <v>-5.3623880925719609</v>
+        <v>-7.3149202011309074</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="59"/>
-        <v>-9.1043981916019359</v>
+        <v>-16.286371464175769</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="59"/>
-        <v>39.800188951097546</v>
+        <v>53.23864524208642</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="59"/>
-        <v>54.822302971933482</v>
+        <v>72.237499199030481</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="59"/>
-        <v>54.202154865621992</v>
+        <v>73.447464494530209</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="59"/>
-        <v>53.756796651907536</v>
+        <v>73.330514500027817</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="59"/>
-        <v>53.756796651907536</v>
+        <v>73.330514500027817</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" ref="AH31:AO31" si="60">IF(AH3&lt;$BG$4,AH19,AH19*$BK$7)</f>
-        <v>-2.3331784769390236</v>
+        <v>-3.1843031266477073</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="60"/>
-        <v>-0.77772615897967456</v>
+        <v>-1.0614343755492359</v>
       </c>
       <c r="AJ31" s="1">
         <f t="shared" si="60"/>
-        <v>-5.1678195791589561</v>
+        <v>-8.2149673383537696</v>
       </c>
       <c r="AK31" s="1">
         <f t="shared" si="60"/>
-        <v>15.682870776638715</v>
+        <v>21.834175263770021</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="60"/>
-        <v>27.57789634609933</v>
+        <v>38.329615019076982</v>
       </c>
       <c r="AM31" s="1">
         <f t="shared" si="60"/>
-        <v>31.316806145847643</v>
+        <v>42.113301102292859</v>
       </c>
       <c r="AN31" s="1">
         <f t="shared" si="60"/>
-        <v>31.052644406784573</v>
+        <v>42.269011105796523</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="60"/>
-        <v>30.956845349874648</v>
+        <v>42.249652314674442</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" ref="AP31:AW31" si="61">IF(AP3&lt;$BG$4,AP19,AP19*$BL$7)</f>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="61"/>
-        <v>-7.7511019402361798</v>
+        <v>-10.611284316972593</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="61"/>
-        <v>-2.480352620875578</v>
+        <v>-3.3956109814312292</v>
       </c>
       <c r="AS31" s="1">
         <f t="shared" si="61"/>
-        <v>36.583305968272093</v>
+        <v>45.48081423379324</v>
       </c>
       <c r="AT31" s="1">
         <f t="shared" si="61"/>
-        <v>64.430357867441984</v>
+        <v>83.646023718984338</v>
       </c>
       <c r="AU31" s="1">
         <f t="shared" si="61"/>
-        <v>63.83996091721454</v>
+        <v>86.605849970312804</v>
       </c>
       <c r="AV31" s="1">
         <f t="shared" si="61"/>
-        <v>63.076669333991916</v>
+        <v>86.352169953561386</v>
       </c>
       <c r="AW31" s="1">
         <f t="shared" si="61"/>
-        <v>63.076669333991916</v>
+        <v>86.352169953561386</v>
       </c>
       <c r="AX31" s="1"/>
     </row>
@@ -9290,195 +9290,195 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ref="B32:AW32" si="62">B31/((1+$AZ$13)^(B$3-2024))</f>
-        <v>-9.3418495178418048</v>
+        <v>-12.777066186240162</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="62"/>
-        <v>-4.4149654247656596</v>
+        <v>-6.0384515223089243</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="62"/>
-        <v>25.041820300694038</v>
+        <v>33.170330937762877</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="62"/>
-        <v>45.632600227954143</v>
+        <v>62.905840329341572</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="62"/>
-        <v>30.535532034181792</v>
+        <v>43.323264141861948</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="62"/>
-        <v>36.931471639009665</v>
+        <v>51.548142440531386</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="62"/>
-        <v>37.62865019588051</v>
+        <v>51.248342429222816</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="62"/>
-        <v>35.599947159030052</v>
+        <v>48.576389250512079</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="62"/>
-        <v>-5.260466012812433</v>
+        <v>-7.2179427880542173</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="62"/>
-        <v>-4.9722007446951997</v>
+        <v>-6.822410869782038</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="62"/>
-        <v>-1.762399485045562</v>
+        <v>-2.4182075545725334</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="62"/>
-        <v>0.53884144644913079</v>
+        <v>-0.31473176817005311</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="62"/>
-        <v>17.511891037493186</v>
+        <v>24.298268268525842</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="62"/>
-        <v>25.684389512959676</v>
+        <v>35.761096535382194</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="62"/>
-        <v>27.142298540363178</v>
+        <v>36.837029827912815</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="62"/>
-        <v>25.564735480071015</v>
+        <v>34.981112763864999</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" si="62"/>
-        <v>-5.4102209713056597</v>
+        <v>-7.3787931508952775</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="62"/>
-        <v>-2.5568746834379326</v>
+        <v>-3.4872234427970548</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="62"/>
-        <v>0.72081314557051279</v>
+        <v>-1.8371029716960001</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="62"/>
-        <v>33.699968752247457</v>
+        <v>45.278533311187509</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="62"/>
-        <v>41.337373536145044</v>
+        <v>54.720277210176285</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" si="62"/>
-        <v>38.614507087141305</v>
+        <v>52.385053681623553</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" si="62"/>
-        <v>36.258349486016769</v>
+        <v>49.451374032440128</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="62"/>
-        <v>34.271448931841917</v>
+        <v>46.741516472386117</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="62"/>
-        <v>-11.826587860976243</v>
+        <v>-16.132839503828535</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="62"/>
-        <v>-4.7907897589022967</v>
+        <v>-6.535193682700652</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="62"/>
-        <v>-7.6881978241640834</v>
+        <v>-13.753006296440637</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="62"/>
-        <v>31.767488024301837</v>
+        <v>42.493718490534846</v>
       </c>
       <c r="AD32" s="1">
         <f t="shared" si="62"/>
-        <v>41.359897293893489</v>
+        <v>54.498541390521268</v>
       </c>
       <c r="AE32" s="1">
         <f t="shared" si="62"/>
-        <v>38.651216219625844</v>
+        <v>52.374925646395745</v>
       </c>
       <c r="AF32" s="1">
         <f t="shared" si="62"/>
-        <v>36.23301118718306</v>
+        <v>49.426035733606447</v>
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="62"/>
-        <v>34.247499131952821</v>
+        <v>46.717566672497043</v>
       </c>
       <c r="AH32" s="1">
         <f t="shared" si="62"/>
-        <v>-2.2053239641293105</v>
+        <v>-3.009808320990957</v>
       </c>
       <c r="AI32" s="1">
         <f t="shared" si="62"/>
-        <v>-0.69482522587864037</v>
+        <v>-0.94829185212686917</v>
       </c>
       <c r="AJ32" s="1">
         <f t="shared" si="62"/>
-        <v>-4.3639588699900278</v>
+        <v>-6.9371190371010831</v>
       </c>
       <c r="AK32" s="1">
         <f t="shared" si="62"/>
-        <v>12.517664431083183</v>
+        <v>17.427477594756347</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="62"/>
-        <v>20.80574690633215</v>
+        <v>28.917226284986739</v>
       </c>
       <c r="AM32" s="1">
         <f t="shared" si="62"/>
-        <v>22.331817778318406</v>
+        <v>30.030730524688519</v>
       </c>
       <c r="AN32" s="1">
         <f t="shared" si="62"/>
-        <v>20.930019686035703</v>
+        <v>28.490044936729774</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="62"/>
-        <v>19.722055633503025</v>
+        <v>26.916502118635396</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="62"/>
-        <v>-7.3263537385437569</v>
+        <v>-10.02980261720491</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="62"/>
-        <v>-6.9248810706053705</v>
+        <v>-9.4801852005027456</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="62"/>
-        <v>-2.094530711603245</v>
+        <v>-2.8674195053581926</v>
       </c>
       <c r="AS32" s="1">
         <f t="shared" si="62"/>
-        <v>29.199854695775397</v>
+        <v>36.301617142641241</v>
       </c>
       <c r="AT32" s="1">
         <f t="shared" si="62"/>
-        <v>48.608555999015145</v>
+        <v>63.10553848551244</v>
       </c>
       <c r="AU32" s="1">
         <f t="shared" si="62"/>
-        <v>45.523875185057314</v>
+        <v>61.758087688320984</v>
       </c>
       <c r="AV32" s="1">
         <f t="shared" si="62"/>
-        <v>42.514766652258793</v>
+        <v>58.202856844779987</v>
       </c>
       <c r="AW32" s="1">
         <f t="shared" si="62"/>
-        <v>40.18502427238117</v>
+        <v>55.013431783828132</v>
       </c>
       <c r="AX32" s="1"/>
       <c r="BE32" s="95"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="B33" s="1">
         <f>((I31*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>956.19683890773092</v>
+        <v>1304.7376064744883</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -9504,7 +9504,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="1">
         <f>((Q31*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>686.65605441371213</v>
+        <v>939.57525545928161</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -9515,7 +9515,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="1">
         <f>((Y31*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>920.51403860307948</v>
+        <v>1255.4538380912295</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -9526,7 +9526,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="1">
         <f>((AG31*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>919.87075891381107</v>
+        <v>1254.810558401962</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
@@ -9537,7 +9537,7 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="1">
         <f>((AO31*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>529.72458552468834</v>
+        <v>722.96383265175734</v>
       </c>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
@@ -9548,7 +9548,7 @@
       <c r="AO33" s="5"/>
       <c r="AP33" s="1">
         <f>((AW31*(1+$AZ$11))/($AZ$13-$AZ$11))/((1+$AZ$13)^(2032-2024))</f>
-        <v>1079.3497251283063</v>
+        <v>1477.6333609197352</v>
       </c>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
@@ -9565,27 +9565,27 @@
       </c>
       <c r="B34" s="5">
         <f>B33+SUM(B32:I32)</f>
-        <v>1153.8100455218737</v>
+        <v>1576.694398295172</v>
       </c>
       <c r="J34" s="5">
         <f>J33+SUM(J32:Q32)</f>
-        <v>771.10314418849509</v>
+        <v>1054.6794698743886</v>
       </c>
       <c r="R34" s="5">
         <f>R33+SUM(R32:Y32)</f>
-        <v>1097.449403887299</v>
+        <v>1491.3274732336547</v>
       </c>
       <c r="Z34" s="5">
         <f>Z33+SUM(Z32:AG32)</f>
-        <v>1077.8242953267254</v>
+        <v>1463.9003068525476</v>
       </c>
       <c r="AH34" s="5">
         <f>AH33+SUM(AH32:AO32)</f>
-        <v>618.76778189996287</v>
+        <v>843.85059490133517</v>
       </c>
       <c r="AP34" s="5">
         <f>AP33+SUM(AP32:AW32)</f>
-        <v>1269.0360364120418</v>
+        <v>1729.6374855417521</v>
       </c>
     </row>
     <row r="35" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="B36" s="5">
         <f>(B34*0.2)+(B29*0.6)+(B24*0.2)</f>
-        <v>851.61626987224327</v>
+        <v>1163.7388906236206</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -9662,7 +9662,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5">
         <f t="shared" ref="J36:AP36" si="63">(J34*0.2)+(J29*0.6)+(J24*0.2)</f>
-        <v>541.911306311001</v>
+        <v>741.18832163826937</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -9673,7 +9673,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5">
         <f t="shared" si="63"/>
-        <v>876.36610397889035</v>
+        <v>1190.8887752681853</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -9684,7 +9684,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5">
         <f t="shared" si="63"/>
-        <v>846.06017634979764</v>
+        <v>1149.0975995501547</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -9695,7 +9695,7 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5">
         <f t="shared" si="63"/>
-        <v>494.43419568196867</v>
+        <v>674.28885588644471</v>
       </c>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
@@ -9706,7 +9706,7 @@
       <c r="AO36" s="5"/>
       <c r="AP36" s="5">
         <f t="shared" si="63"/>
-        <v>916.13203682621429</v>
+        <v>1248.6219303679006</v>
       </c>
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
@@ -9897,12 +9897,12 @@
       </c>
       <c r="B40" s="112">
         <f>B36+J36</f>
-        <v>1393.5275761832443</v>
+        <v>1904.92721226189</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1">
         <f>R36+Z36</f>
-        <v>1722.4262803286879</v>
+        <v>2339.9863748183398</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -9911,7 +9911,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1">
         <f>AH36+AP36</f>
-        <v>1410.566232508183</v>
+        <v>1922.9107862543453</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="B41" s="5">
         <f>B40+B39</f>
-        <v>10561.591075729297</v>
+        <v>11072.990711807943</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="5">
         <f>H40+H39</f>
-        <v>6609.243006585777</v>
+        <v>7226.8031010754294</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -9970,7 +9970,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="5">
         <f>N40+N39</f>
-        <v>8314.0373780901973</v>
+        <v>8826.3819318363585</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -10073,7 +10073,7 @@
     <row r="43" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B43" s="26">
         <f>B41</f>
-        <v>10561.591075729297</v>
+        <v>11072.990711807943</v>
       </c>
       <c r="C43" s="25">
         <f>D43-0.005</f>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H43" s="26">
         <f>H41</f>
-        <v>6609.243006585777</v>
+        <v>7226.8031010754294</v>
       </c>
       <c r="I43" s="25">
         <f>J43-0.005</f>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="N43" s="26">
         <f>N41</f>
-        <v>8314.0373780901973</v>
+        <v>8826.3819318363585</v>
       </c>
       <c r="O43" s="25">
         <f>P43-0.005</f>
@@ -10186,19 +10186,19 @@
       </c>
       <c r="C44" s="13">
         <f t="dataTable" ref="C44:G48" dt2D="1" dtr="1" r1="AZ13" r2="AZ11" ca="1"/>
-        <v>10593.150351360484</v>
+        <v>11118.377691827194</v>
       </c>
       <c r="D44" s="13">
-        <v>10404.639295557155</v>
+        <v>10860.49337183597</v>
       </c>
       <c r="E44" s="13">
-        <v>10255.860394699037</v>
+        <v>10656.955927558789</v>
       </c>
       <c r="F44" s="13">
-        <v>10135.552309381379</v>
+        <v>10492.362077913112</v>
       </c>
       <c r="G44" s="15">
-        <v>10036.338915741657</v>
+        <v>10356.622732138192</v>
       </c>
       <c r="H44" s="25">
         <f>H45-0.005</f>
@@ -10206,19 +10206,19 @@
       </c>
       <c r="I44" s="13">
         <f t="dataTable" ref="I44:M48" dt2D="1" dtr="1" r1="AZ13" r2="AZ11" ca="1"/>
-        <v>6663.4516613227315</v>
+        <v>7302.4011572013587</v>
       </c>
       <c r="J44" s="13">
-        <v>6430.0725729271035</v>
+        <v>6984.0066721545991</v>
       </c>
       <c r="K44" s="13">
-        <v>6245.7857178194445</v>
+        <v>6732.6204458592129</v>
       </c>
       <c r="L44" s="13">
-        <v>6096.6812735504791</v>
+        <v>6529.2552440681393</v>
       </c>
       <c r="M44" s="15">
-        <v>5973.6481748652541</v>
+        <v>6361.4742877044318</v>
       </c>
       <c r="N44" s="25">
         <f>N45-0.005</f>
@@ -10226,19 +10226,19 @@
       </c>
       <c r="O44" s="13">
         <f t="dataTable" ref="O44:S48" dt2D="1" dtr="1" r1="AZ13" r2="AZ11" ca="1"/>
-        <v>8350.4767827450378</v>
+        <v>8877.3581369220265</v>
       </c>
       <c r="P44" s="13">
-        <v>8159.1682509193179</v>
+        <v>8615.7042197992323</v>
       </c>
       <c r="Q44" s="13">
-        <v>8008.1523356432444</v>
+        <v>8409.182780614643</v>
       </c>
       <c r="R44" s="13">
-        <v>7886.0108196403216</v>
+        <v>8242.1693757992853</v>
       </c>
       <c r="S44" s="15">
-        <v>7785.2647216842051</v>
+        <v>8104.429961761276</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -10285,57 +10285,57 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C45" s="13">
-        <v>10820.54261078341</v>
+        <v>11428.114530603794</v>
       </c>
       <c r="D45" s="22">
-        <v>10577.232552494439</v>
+        <v>11095.483603676441</v>
       </c>
       <c r="E45" s="24">
-        <v>10391.024982731211</v>
+        <v>10840.909297243456</v>
       </c>
       <c r="F45" s="17">
-        <v>10244.054094468214</v>
+        <v>10639.970224396413</v>
       </c>
       <c r="G45" s="15">
-        <v>10125.199396147913</v>
+        <v>10477.465384816915</v>
       </c>
       <c r="H45" s="25">
         <f>H46-0.005</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I45" s="13">
-        <v>6935.8072358720183</v>
+        <v>7673.0269200765306</v>
       </c>
       <c r="J45" s="22">
-        <v>6636.0732773353666</v>
+        <v>7264.2141926432232</v>
       </c>
       <c r="K45" s="24">
-        <v>6406.5705048034652</v>
+        <v>6951.2283550562915</v>
       </c>
       <c r="L45" s="17">
-        <v>6225.3306465544938</v>
+        <v>6704.0936017619315</v>
       </c>
       <c r="M45" s="15">
-        <v>6078.6794249043296</v>
+        <v>6504.1513629518231</v>
       </c>
       <c r="N45" s="25">
         <f>N46-0.005</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O45" s="13">
-        <v>8578.546273581087</v>
+        <v>9188.642873417426</v>
       </c>
       <c r="P45" s="22">
-        <v>8332.0954411035709</v>
+        <v>8851.6412279278338</v>
       </c>
       <c r="Q45" s="24">
-        <v>8143.4483675954252</v>
+        <v>8593.7090741642351</v>
       </c>
       <c r="R45" s="17">
-        <v>7994.5221615841137</v>
+        <v>8390.1099212008976</v>
       </c>
       <c r="S45" s="15">
-        <v>7874.0610892552904</v>
+        <v>8225.4465263262209</v>
       </c>
       <c r="AX45" s="1"/>
       <c r="BC45" s="71"/>
@@ -10351,55 +10351,55 @@
         <v>0.02</v>
       </c>
       <c r="C46" s="13">
-        <v>11128.932314104961</v>
+        <v>11848.105414338406</v>
       </c>
       <c r="D46" s="23">
-        <v>10801.934874932125</v>
+        <v>11401.360142161899</v>
       </c>
       <c r="E46" s="12">
-        <v>10561.591075729297</v>
+        <v>11072.990711807943</v>
       </c>
       <c r="F46" s="18">
-        <v>10377.642299342244</v>
+        <v>10821.66189697464</v>
       </c>
       <c r="G46" s="15">
-        <v>10232.444549847885</v>
+        <v>10623.270838377532</v>
       </c>
       <c r="H46" s="25">
         <v>0.02</v>
       </c>
       <c r="I46" s="13">
-        <v>7304.856835743517</v>
+        <v>8175.258054481581</v>
       </c>
       <c r="J46" s="23">
-        <v>6904.0049002179258</v>
+        <v>7628.679977501326</v>
       </c>
       <c r="K46" s="12">
-        <v>6609.243006585777</v>
+        <v>7226.8031010754294</v>
       </c>
       <c r="L46" s="18">
-        <v>6383.5315370892768</v>
+        <v>6919.1059623289457</v>
       </c>
       <c r="M46" s="15">
-        <v>6205.2721911100816</v>
+        <v>6676.1288641761867</v>
       </c>
       <c r="N46" s="25">
         <v>0.02</v>
       </c>
       <c r="O46" s="13">
-        <v>8887.6465653263931</v>
+        <v>9610.5414039996722</v>
       </c>
       <c r="P46" s="23">
-        <v>8557.0621137492672</v>
+        <v>9158.5934535277938</v>
       </c>
       <c r="Q46" s="12">
-        <v>8314.0373780901973</v>
+        <v>8826.3819318363585</v>
       </c>
       <c r="R46" s="18">
-        <v>8128.0001098842913</v>
+        <v>8572.0986737638486</v>
       </c>
       <c r="S46" s="15">
-        <v>7981.1232942393171</v>
+        <v>8371.3649207717262</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -10446,57 +10446,57 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C47" s="13">
-        <v>11571.1879182475</v>
+        <v>12450.312566236762</v>
       </c>
       <c r="D47" s="20">
-        <v>11106.676491304246</v>
+        <v>11816.115698100621</v>
       </c>
       <c r="E47" s="21">
-        <v>10783.65420725299</v>
+        <v>11375.080221692491</v>
       </c>
       <c r="F47" s="19">
-        <v>10546.219144183022</v>
+        <v>11050.889255876475</v>
       </c>
       <c r="G47" s="15">
-        <v>10364.485593259313</v>
+        <v>10802.743032038665</v>
       </c>
       <c r="H47" s="25">
         <f>H46+0.005</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I47" s="13">
-        <v>7833.7111892915591</v>
+        <v>8894.9922656599319</v>
       </c>
       <c r="J47" s="20">
-        <v>7267.0595364369747</v>
+        <v>8122.5632143311514</v>
       </c>
       <c r="K47" s="21">
-        <v>6872.8455462698803</v>
+        <v>7585.242573951763</v>
       </c>
       <c r="L47" s="19">
-        <v>6582.9467311666795</v>
+        <v>7190.1478155887053</v>
       </c>
       <c r="M47" s="15">
-        <v>6360.9438480716544</v>
+        <v>6887.6226849664072</v>
       </c>
       <c r="N47" s="25">
         <f>N46+0.005</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O47" s="13">
-        <v>9330.6596660836622</v>
+        <v>10215.242977987762</v>
       </c>
       <c r="P47" s="20">
-        <v>8861.9546174424831</v>
+        <v>9574.6164593842823</v>
       </c>
       <c r="Q47" s="21">
-        <v>8535.9601124665351</v>
+        <v>9129.0846537627076</v>
       </c>
       <c r="R47" s="19">
-        <v>8296.2949806697816</v>
+        <v>8801.5694705978603</v>
       </c>
       <c r="S47" s="15">
-        <v>8112.8171394159244</v>
+        <v>8550.8640430416017</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -10543,57 +10543,57 @@
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="C48" s="14">
-        <v>12259.000840130328</v>
+        <v>13386.765365928144</v>
       </c>
       <c r="D48" s="14">
-        <v>11543.700653467722</v>
+        <v>12410.815252242381</v>
       </c>
       <c r="E48" s="14">
-        <v>11084.816719112841</v>
+        <v>11784.700030025984</v>
       </c>
       <c r="F48" s="14">
-        <v>10765.692580653682</v>
+        <v>11349.263205017338</v>
       </c>
       <c r="G48" s="16">
-        <v>10531.110177330274</v>
+        <v>11029.169757073147</v>
       </c>
       <c r="H48" s="25">
         <f>H47+0.005</f>
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="I48" s="14">
-        <v>8655.6998539621673</v>
+        <v>10013.699559370187</v>
       </c>
       <c r="J48" s="14">
-        <v>7787.3227298039601</v>
+        <v>8830.333810645021</v>
       </c>
       <c r="K48" s="14">
-        <v>7230.0339463390774</v>
+        <v>8070.9592698373153</v>
       </c>
       <c r="L48" s="14">
-        <v>6842.312543093657</v>
+        <v>7542.6910802867742</v>
       </c>
       <c r="M48" s="16">
-        <v>6557.1707624482642</v>
+        <v>7154.2288807201594</v>
       </c>
       <c r="N48" s="25">
         <f>N47+0.005</f>
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="O48" s="14">
-        <v>10019.305408090755</v>
+        <v>11155.256406756984</v>
       </c>
       <c r="P48" s="14">
-        <v>9298.9339633400086</v>
+        <v>10170.892643818694</v>
       </c>
       <c r="Q48" s="14">
-        <v>8836.7248237606673</v>
+        <v>9539.3448974922485</v>
       </c>
       <c r="R48" s="14">
-        <v>8515.2312315723448</v>
+        <v>9100.1036804700216</v>
       </c>
       <c r="S48" s="16">
-        <v>8278.8608514823027</v>
+        <v>8777.1933706387463</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -10697,14 +10697,14 @@
       </c>
       <c r="C50" t="str">
         <f>Scenario</f>
-        <v>Central</v>
+        <v>Bull</v>
       </c>
       <c r="D50" s="113" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="114">
         <f>B41</f>
-        <v>10561.591075729297</v>
+        <v>11072.990711807943</v>
       </c>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="K50" s="114">
         <f>H41</f>
-        <v>6609.243006585777</v>
+        <v>7226.8031010754294</v>
       </c>
       <c r="L50" s="71"/>
       <c r="M50" s="71"/>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="Q50" s="114">
         <f>N41</f>
-        <v>8314.0373780901973</v>
+        <v>8826.3819318363585</v>
       </c>
       <c r="R50" s="71"/>
       <c r="S50" s="71"/>
@@ -10894,7 +10894,7 @@
       </c>
       <c r="B53" s="113">
         <f>E50+K50+Q50-B52</f>
-        <v>22498.871460405269</v>
+        <v>24140.175744719731</v>
       </c>
       <c r="C53" s="71"/>
       <c r="D53" s="71"/>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B54" s="127">
         <f>B53/DCF!B36</f>
-        <v>25.683643219640718</v>
+        <v>27.557278247396951</v>
       </c>
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B55" s="127">
         <f>B54*2</f>
-        <v>51.367286439281436</v>
+        <v>55.114556494793902</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="71"/>
@@ -11092,15 +11092,15 @@
       </c>
       <c r="B57" s="127">
         <f>B55-B56</f>
-        <v>14.547286439281436</v>
+        <v>18.294556494793902</v>
       </c>
       <c r="C57" s="10">
         <f>B57/B56</f>
-        <v>0.39509197282133179</v>
+        <v>0.49686465222145304</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{F1E1D105-F2F7-426A-8922-A67C35E3F034}">
       <formula1>$AY$7:$AY$9</formula1>
     </dataValidation>
